--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>598.4049889766241</v>
+        <v>392.9386746603383</v>
       </c>
       <c r="C2" t="n">
-        <v>598404988.976624</v>
+        <v>392938674.6603383</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>735.6658786863146</v>
+        <v>478.3174457947321</v>
       </c>
       <c r="C3" t="n">
-        <v>735665878.6863146</v>
+        <v>478317445.7947321</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>793.735622494036</v>
+        <v>507.5833966652828</v>
       </c>
       <c r="C4" t="n">
-        <v>793735622.494036</v>
+        <v>507583396.6652828</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>832.4222959470427</v>
+        <v>526.2833671775833</v>
       </c>
       <c r="C5" t="n">
-        <v>832422295.9470427</v>
+        <v>526283367.1775833</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>861.84586351832</v>
+        <v>540.197357988839</v>
       </c>
       <c r="C6" t="n">
-        <v>861845863.51832</v>
+        <v>540197357.988839</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>885.7604743549971</v>
+        <v>551.3437125032782</v>
       </c>
       <c r="C7" t="n">
-        <v>885760474.354997</v>
+        <v>551343712.5032783</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>905.9956078043592</v>
+        <v>560.6750246229632</v>
       </c>
       <c r="C8" t="n">
-        <v>905995607.8043592</v>
+        <v>560675024.6229632</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>923.5872767108839</v>
+        <v>568.7195525047899</v>
       </c>
       <c r="C9" t="n">
-        <v>923587276.7108839</v>
+        <v>568719552.5047899</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>939.1817801568195</v>
+        <v>575.8018644643936</v>
       </c>
       <c r="C10" t="n">
-        <v>939181780.1568195</v>
+        <v>575801864.4643936</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>953.2106868284694</v>
+        <v>582.1361558208016</v>
       </c>
       <c r="C11" t="n">
-        <v>953210686.8284694</v>
+        <v>582136155.8208016</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>965.9771398857498</v>
+        <v>587.871458725687</v>
       </c>
       <c r="C12" t="n">
-        <v>965977139.8857498</v>
+        <v>587871458.725687</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>977.7025857679148</v>
+        <v>593.1157830670842</v>
       </c>
       <c r="C13" t="n">
-        <v>977702585.7679148</v>
+        <v>593115783.0670842</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>988.5539324526163</v>
+        <v>597.9499903402756</v>
       </c>
       <c r="C14" t="n">
-        <v>988553932.4526163</v>
+        <v>597949990.3402755</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>998.6602394285482</v>
+        <v>602.4362405017903</v>
       </c>
       <c r="C15" t="n">
-        <v>998660239.4285481</v>
+        <v>602436240.5017903</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1008.123448484649</v>
+        <v>606.6233798524562</v>
       </c>
       <c r="C16" t="n">
-        <v>1008123448.484649</v>
+        <v>606623379.8524562</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1017.025545790344</v>
+        <v>610.5505124022301</v>
       </c>
       <c r="C17" t="n">
-        <v>1017025545.790344</v>
+        <v>610550512.40223</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1025.433494859726</v>
+        <v>614.2494448429092</v>
       </c>
       <c r="C18" t="n">
-        <v>1025433494.859726</v>
+        <v>614249444.8429091</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1033.402726672758</v>
+        <v>617.7464071037898</v>
       </c>
       <c r="C19" t="n">
-        <v>1033402726.672758</v>
+        <v>617746407.1037898</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1040.97966694742</v>
+        <v>621.0632922343485</v>
       </c>
       <c r="C20" t="n">
-        <v>1040979666.94742</v>
+        <v>621063292.2343485</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1048.20360365003</v>
+        <v>624.2185686039073</v>
       </c>
       <c r="C21" t="n">
-        <v>1048203603.65003</v>
+        <v>624218568.6039073</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1055.10809182948</v>
+        <v>627.2279633677908</v>
       </c>
       <c r="C22" t="n">
-        <v>1055108091.82948</v>
+        <v>627227963.3677908</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1061.72202728024</v>
+        <v>630.1049829029382</v>
       </c>
       <c r="C23" t="n">
-        <v>1061722027.28024</v>
+        <v>630104982.9029382</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1068.070478806521</v>
+        <v>632.8613148667089</v>
       </c>
       <c r="C24" t="n">
-        <v>1068070478.806521</v>
+        <v>632861314.8667089</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1074.175341631613</v>
+        <v>635.5071428624966</v>
       </c>
       <c r="C25" t="n">
-        <v>1074175341.631613</v>
+        <v>635507142.8624966</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1080.055856330085</v>
+        <v>638.0513956139531</v>
       </c>
       <c r="C26" t="n">
-        <v>1080055856.330085</v>
+        <v>638051395.6139531</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1085.729025294458</v>
+        <v>640.5019463916849</v>
       </c>
       <c r="C27" t="n">
-        <v>1085729025.294458</v>
+        <v>640501946.3916849</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1091.209950176004</v>
+        <v>642.8657741831563</v>
       </c>
       <c r="C28" t="n">
-        <v>1091209950.176003</v>
+        <v>642865774.1831563</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1096.512107698531</v>
+        <v>645.1490951093989</v>
       </c>
       <c r="C29" t="n">
-        <v>1096512107.698531</v>
+        <v>645149095.1093988</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1101.647576922335</v>
+        <v>647.3574704618263</v>
       </c>
       <c r="C30" t="n">
-        <v>1101647576.922335</v>
+        <v>647357470.4618263</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1106.627227900789</v>
+        <v>649.4958961917889</v>
       </c>
       <c r="C31" t="n">
-        <v>1106627227.900789</v>
+        <v>649495896.1917889</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1111.460879369157</v>
+        <v>651.5688775568345</v>
       </c>
       <c r="C32" t="n">
-        <v>1111460879.369157</v>
+        <v>651568877.5568346</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1116.15743139351</v>
+        <v>653.5804917908987</v>
       </c>
       <c r="C33" t="n">
-        <v>1116157431.39351</v>
+        <v>653580491.7908987</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1120.724977621436</v>
+        <v>655.5344410384666</v>
       </c>
       <c r="C34" t="n">
-        <v>1120724977.621436</v>
+        <v>655534441.0384667</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1125.17090079993</v>
+        <v>657.4340973178208</v>
       </c>
       <c r="C35" t="n">
-        <v>1125170900.79993</v>
+        <v>657434097.3178208</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1129.501954477888</v>
+        <v>659.282540915402</v>
       </c>
       <c r="C36" t="n">
-        <v>1129501954.477888</v>
+        <v>659282540.9154021</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1133.724333232408</v>
+        <v>661.0825933332685</v>
       </c>
       <c r="C37" t="n">
-        <v>1133724333.232408</v>
+        <v>661082593.3332685</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1137.843733307533</v>
+        <v>662.8368456938315</v>
       </c>
       <c r="C38" t="n">
-        <v>1137843733.307533</v>
+        <v>662836845.6938314</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1141.865405200226</v>
+        <v>664.5476833353235</v>
       </c>
       <c r="C39" t="n">
-        <v>1141865405.200226</v>
+        <v>664547683.3353236</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1145.794199448401</v>
+        <v>666.217307196659</v>
       </c>
       <c r="C40" t="n">
-        <v>1145794199.448401</v>
+        <v>666217307.196659</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1149.634606652925</v>
+        <v>667.8477524831757</v>
       </c>
       <c r="C41" t="n">
-        <v>1149634606.652925</v>
+        <v>667847752.4831756</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1153.390792586781</v>
+        <v>669.4409050189838</v>
       </c>
       <c r="C42" t="n">
-        <v>1153390792.586781</v>
+        <v>669440905.0189838</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1157.066629100452</v>
+        <v>670.9985156226005</v>
       </c>
       <c r="C43" t="n">
-        <v>1157066629.100451</v>
+        <v>670998515.6226006</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1160.665721415681</v>
+        <v>672.5222127866276</v>
       </c>
       <c r="C44" t="n">
-        <v>1160665721.415681</v>
+        <v>672522212.7866277</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1164.191432304446</v>
+        <v>674.0135138966924</v>
       </c>
       <c r="C45" t="n">
-        <v>1164191432.304446</v>
+        <v>674013513.8966924</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1167.646903571779</v>
+        <v>675.4738351875993</v>
       </c>
       <c r="C46" t="n">
-        <v>1167646903.571779</v>
+        <v>675473835.1875993</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1171.035075196737</v>
+        <v>676.9045006039742</v>
       </c>
       <c r="C47" t="n">
-        <v>1171035075.196737</v>
+        <v>676904500.6039741</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1174.358702432488</v>
+        <v>678.3067497073395</v>
       </c>
       <c r="C48" t="n">
-        <v>1174358702.432488</v>
+        <v>678306749.7073394</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1177.620371122194</v>
+        <v>679.6817447505119</v>
       </c>
       <c r="C49" t="n">
-        <v>1177620371.122194</v>
+        <v>679681744.7505119</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1180.822511450381</v>
+        <v>681.0305770226753</v>
       </c>
       <c r="C50" t="n">
-        <v>1180822511.450381</v>
+        <v>681030577.0226753</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1183.967410318473</v>
+        <v>682.3542725537803</v>
       </c>
       <c r="C51" t="n">
-        <v>1183967410.318473</v>
+        <v>682354272.5537803</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1187.057222507078</v>
+        <v>683.6537972545838</v>
       </c>
       <c r="C52" t="n">
-        <v>1187057222.507078</v>
+        <v>683653797.2545837</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1190.093980765557</v>
+        <v>684.9300615582155</v>
       </c>
       <c r="C53" t="n">
-        <v>1190093980.765557</v>
+        <v>684930061.5582155</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1193.079604950746</v>
+        <v>686.1839246203424</v>
       </c>
       <c r="C54" t="n">
-        <v>1193079604.950746</v>
+        <v>686183924.6203424</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1196.015910320775</v>
+        <v>687.4161981275043</v>
       </c>
       <c r="C55" t="n">
-        <v>1196015910.320775</v>
+        <v>687416198.1275043</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1198.904615076405</v>
+        <v>688.6276497568058</v>
       </c>
       <c r="C56" t="n">
-        <v>1198904615.076405</v>
+        <v>688627649.7568058</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1201.74734723065</v>
+        <v>689.819006324685</v>
       </c>
       <c r="C57" t="n">
-        <v>1201747347.23065</v>
+        <v>689819006.324685</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1204.545650877523</v>
+        <v>690.9909566577945</v>
       </c>
       <c r="C58" t="n">
-        <v>1204545650.877523</v>
+        <v>690990956.6577945</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1207.30099192213</v>
+        <v>692.1441542149967</v>
       </c>
       <c r="C59" t="n">
-        <v>1207300991.92213</v>
+        <v>692144154.2149967</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1210.014763326932</v>
+        <v>693.279219485999</v>
       </c>
       <c r="C60" t="n">
-        <v>1210014763.326932</v>
+        <v>693279219.485999</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1212.688289922586</v>
+        <v>694.3967421891432</v>
       </c>
       <c r="C61" t="n">
-        <v>1212688289.922586</v>
+        <v>694396742.1891432</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1215.322832826195</v>
+        <v>695.4972832882576</v>
       </c>
       <c r="C62" t="n">
-        <v>1215322832.826195</v>
+        <v>695497283.2882576</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1217.919593504938</v>
+        <v>696.581376846207</v>
       </c>
       <c r="C63" t="n">
-        <v>1217919593.504938</v>
+        <v>696581376.846207</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1220.479717518842</v>
+        <v>697.6495317308015</v>
       </c>
       <c r="C64" t="n">
-        <v>1220479717.518842</v>
+        <v>697649531.7308016</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1223.004297972735</v>
+        <v>698.7022331869941</v>
       </c>
       <c r="C65" t="n">
-        <v>1223004297.972734</v>
+        <v>698702233.1869942</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1225.494378704204</v>
+        <v>699.7399442877889</v>
       </c>
       <c r="C66" t="n">
-        <v>1225494378.704204</v>
+        <v>699739944.287789</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1227.950957231507</v>
+        <v>700.7631072749458</v>
       </c>
       <c r="C67" t="n">
-        <v>1227950957.231507</v>
+        <v>700763107.2749459</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1230.374987482889</v>
+        <v>701.7721447994094</v>
       </c>
       <c r="C68" t="n">
-        <v>1230374987.482889</v>
+        <v>701772144.7994094</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1232.767382326563</v>
+        <v>702.7674610703527</v>
       </c>
       <c r="C69" t="n">
-        <v>1232767382.326563</v>
+        <v>702767461.0703528</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1235.129015918633</v>
+        <v>703.7494429208219</v>
       </c>
       <c r="C70" t="n">
-        <v>1235129015.918633</v>
+        <v>703749442.9208219</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1237.460725884523</v>
+        <v>704.7184607971633</v>
       </c>
       <c r="C71" t="n">
-        <v>1237460725.884523</v>
+        <v>704718460.7971632</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1239.763315347936</v>
+        <v>705.6748696787</v>
       </c>
       <c r="C72" t="n">
-        <v>1239763315.347936</v>
+        <v>705674869.6787</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1242.037554820015</v>
+        <v>706.6190099334959</v>
       </c>
       <c r="C73" t="n">
-        <v>1242037554.820015</v>
+        <v>706619009.9334959</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1244.284183960144</v>
+        <v>707.5512081154769</v>
       </c>
       <c r="C74" t="n">
-        <v>1244284183.960144</v>
+        <v>707551208.115477</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1246.503913218762</v>
+        <v>708.4717777076821</v>
       </c>
       <c r="C75" t="n">
-        <v>1246503913.218762</v>
+        <v>708471777.7076821</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1248.69742537159</v>
+        <v>709.3810198159683</v>
       </c>
       <c r="C76" t="n">
-        <v>1248697425.371591</v>
+        <v>709381019.8159683</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1250.865376953808</v>
+        <v>710.2792238170903</v>
       </c>
       <c r="C77" t="n">
-        <v>1250865376.953808</v>
+        <v>710279223.8170903</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1253.00839960193</v>
+        <v>711.1666679647208</v>
       </c>
       <c r="C78" t="n">
-        <v>1253008399.60193</v>
+        <v>711166667.9647207</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1255.127101310472</v>
+        <v>712.0436199566558</v>
       </c>
       <c r="C79" t="n">
-        <v>1255127101.310472</v>
+        <v>712043619.9566557</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1257.222067609815</v>
+        <v>712.9103374661559</v>
       </c>
       <c r="C80" t="n">
-        <v>1257222067.609815</v>
+        <v>712910337.4661559</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1259.293862671169</v>
+        <v>713.7670686401226</v>
       </c>
       <c r="C81" t="n">
-        <v>1259293862.671169</v>
+        <v>713767068.6401227</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1261.343030344003</v>
+        <v>714.6140525665679</v>
       </c>
       <c r="C82" t="n">
-        <v>1261343030.344003</v>
+        <v>714614052.5665679</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1263.370095130848</v>
+        <v>715.451519713628</v>
       </c>
       <c r="C83" t="n">
-        <v>1263370095.130848</v>
+        <v>715451519.7136281</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1265.375563103977</v>
+        <v>716.279692342182</v>
       </c>
       <c r="C84" t="n">
-        <v>1265375563.103977</v>
+        <v>716279692.342182</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1267.359922768094</v>
+        <v>717.0987848939607</v>
       </c>
       <c r="C85" t="n">
-        <v>1267359922.768094</v>
+        <v>717098784.8939607</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1269.323645872812</v>
+        <v>717.9090043568797</v>
       </c>
       <c r="C86" t="n">
-        <v>1269323645.872812</v>
+        <v>717909004.3568797</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1271.267188178407</v>
+        <v>718.7105506091858</v>
       </c>
       <c r="C87" t="n">
-        <v>1271267188.178406</v>
+        <v>718710550.6091858</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1273.190990178038</v>
+        <v>719.5036167438773</v>
       </c>
       <c r="C88" t="n">
-        <v>1273190990.178038</v>
+        <v>719503616.7438773</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1275.095477779404</v>
+        <v>720.2883893747459</v>
       </c>
       <c r="C89" t="n">
-        <v>1275095477.779404</v>
+        <v>720288389.3747458</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1276.981062948521</v>
+        <v>721.065048925278</v>
       </c>
       <c r="C90" t="n">
-        <v>1276981062.94852</v>
+        <v>721065048.9252779</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1278.848144318158</v>
+        <v>721.8337699015582</v>
       </c>
       <c r="C91" t="n">
-        <v>1278848144.318158</v>
+        <v>721833769.9015582</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1280.697107763229</v>
+        <v>722.5947211502298</v>
       </c>
       <c r="C92" t="n">
-        <v>1280697107.763229</v>
+        <v>722594721.1502298</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1282.528326945275</v>
+        <v>723.348066102486</v>
       </c>
       <c r="C93" t="n">
-        <v>1282528326.945275</v>
+        <v>723348066.102486</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1284.342163828032</v>
+        <v>724.0939630049929</v>
       </c>
       <c r="C94" t="n">
-        <v>1284342163.828032</v>
+        <v>724093963.004993</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1286.138969165904</v>
+        <v>724.832565138579</v>
       </c>
       <c r="C95" t="n">
-        <v>1286138969.165904</v>
+        <v>724832565.138579</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1287.919082967041</v>
+        <v>725.5640210254592</v>
       </c>
       <c r="C96" t="n">
-        <v>1287919082.967041</v>
+        <v>725564021.0254592</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1289.682834932599</v>
+        <v>726.288474625715</v>
       </c>
       <c r="C97" t="n">
-        <v>1289682834.932599</v>
+        <v>726288474.625715</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1291.430544873638</v>
+        <v>727.0060655236891</v>
       </c>
       <c r="C98" t="n">
-        <v>1291430544.873638</v>
+        <v>727006065.5236892</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1293.162523107026</v>
+        <v>727.7169291049153</v>
       </c>
       <c r="C99" t="n">
-        <v>1293162523.107026</v>
+        <v>727716929.1049153</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1294.879070831601</v>
+        <v>728.4211967241528</v>
       </c>
       <c r="C100" t="n">
-        <v>1294879070.831601</v>
+        <v>728421196.7241528</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1296.580480485763</v>
+        <v>729.1189958650614</v>
       </c>
       <c r="C101" t="n">
-        <v>1296580480.485763</v>
+        <v>729118995.8650614</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1298.267036087606</v>
+        <v>729.8104502920099</v>
       </c>
       <c r="C102" t="n">
-        <v>1298267036.087606</v>
+        <v>729810450.2920099</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1299.939013558588</v>
+        <v>730.4956801944828</v>
       </c>
       <c r="C103" t="n">
-        <v>1299939013.558588</v>
+        <v>730495680.1944828</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1301.596681031703</v>
+        <v>731.1748023245119</v>
       </c>
       <c r="C104" t="n">
-        <v>1301596681.031703</v>
+        <v>731174802.3245119</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1303.240299145035</v>
+        <v>731.8479301275381</v>
       </c>
       <c r="C105" t="n">
-        <v>1303240299.145035</v>
+        <v>731847930.1275381</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1304.870121321523</v>
+        <v>732.5151738670753</v>
       </c>
       <c r="C106" t="n">
-        <v>1304870121.321523</v>
+        <v>732515173.8670753</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1306.48639403571</v>
+        <v>733.1766407435273</v>
       </c>
       <c r="C107" t="n">
-        <v>1306486394.03571</v>
+        <v>733176640.7435273</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1308.089357068202</v>
+        <v>733.8324350074847</v>
       </c>
       <c r="C108" t="n">
-        <v>1308089357.068202</v>
+        <v>733832435.0074847</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1309.679243748507</v>
+        <v>734.482658067808</v>
       </c>
       <c r="C109" t="n">
-        <v>1309679243.748507</v>
+        <v>734482658.0678079</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1311.256281186893</v>
+        <v>735.1274085947819</v>
       </c>
       <c r="C110" t="n">
-        <v>1311256281.186893</v>
+        <v>735127408.5947819</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1312.820690495854</v>
+        <v>735.76678261861</v>
       </c>
       <c r="C111" t="n">
-        <v>1312820690.495854</v>
+        <v>735766782.61861</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1314.372687001747</v>
+        <v>736.4008736235013</v>
       </c>
       <c r="C112" t="n">
-        <v>1314372687.001747</v>
+        <v>736400873.6235013</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1315.912480447113</v>
+        <v>737.0297726375816</v>
       </c>
       <c r="C113" t="n">
-        <v>1315912480.447113</v>
+        <v>737029772.6375816</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1317.440275184174</v>
+        <v>737.6535683188538</v>
       </c>
       <c r="C114" t="n">
-        <v>1317440275.184174</v>
+        <v>737653568.3188537</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1318.95627035997</v>
+        <v>738.2723470374128</v>
       </c>
       <c r="C115" t="n">
-        <v>1318956270.35997</v>
+        <v>738272347.0374129</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1320.460660093565</v>
+        <v>738.8861929541087</v>
       </c>
       <c r="C116" t="n">
-        <v>1320460660.093565</v>
+        <v>738886192.9541086</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1321.953633645723</v>
+        <v>739.4951880958437</v>
       </c>
       <c r="C117" t="n">
-        <v>1321953633.645723</v>
+        <v>739495188.0958437</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1323.435375581448</v>
+        <v>740.0994124276732</v>
       </c>
       <c r="C118" t="n">
-        <v>1323435375.581448</v>
+        <v>740099412.4276732</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1324.906065925733</v>
+        <v>740.6989439218728</v>
       </c>
       <c r="C119" t="n">
-        <v>1324906065.925733</v>
+        <v>740698943.9218729</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1326.365880312864</v>
+        <v>741.2938586241243</v>
       </c>
       <c r="C120" t="n">
-        <v>1326365880.312864</v>
+        <v>741293858.6241243</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1327.814990129607</v>
+        <v>741.8842307169637</v>
       </c>
       <c r="C121" t="n">
-        <v>1327814990.129607</v>
+        <v>741884230.7169636</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1329.253562652551</v>
+        <v>742.4701325806271</v>
       </c>
       <c r="C122" t="n">
-        <v>1329253562.652551</v>
+        <v>742470132.5806271</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1330.681761179927</v>
+        <v>743.0516348514212</v>
       </c>
       <c r="C123" t="n">
-        <v>1330681761.179927</v>
+        <v>743051634.8514212</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1332.099745158134</v>
+        <v>743.6288064777384</v>
       </c>
       <c r="C124" t="n">
-        <v>1332099745.158134</v>
+        <v>743628806.4777384</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1333.507670303259</v>
+        <v>744.2017147738306</v>
       </c>
       <c r="C125" t="n">
-        <v>1333507670.303259</v>
+        <v>744201714.7738307</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1334.905688717797</v>
+        <v>744.7704254714498</v>
       </c>
       <c r="C126" t="n">
-        <v>1334905688.717797</v>
+        <v>744770425.4714499</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1336.293949002821</v>
+        <v>745.335002769453</v>
       </c>
       <c r="C127" t="n">
-        <v>1336293949.002821</v>
+        <v>745335002.769453</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1337.672596365803</v>
+        <v>745.8955093814722</v>
       </c>
       <c r="C128" t="n">
-        <v>1337672596.365803</v>
+        <v>745895509.3814721</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1339.041772724288</v>
+        <v>746.4520065817348</v>
       </c>
       <c r="C129" t="n">
-        <v>1339041772.724288</v>
+        <v>746452006.5817349</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1340.401616805616</v>
+        <v>747.004554249125</v>
       </c>
       <c r="C130" t="n">
-        <v>1340401616.805616</v>
+        <v>747004554.249125</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1341.752264242872</v>
+        <v>747.5532109095608</v>
       </c>
       <c r="C131" t="n">
-        <v>1341752264.242872</v>
+        <v>747553210.9095608</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1343.093847667225</v>
+        <v>748.0980337767704</v>
       </c>
       <c r="C132" t="n">
-        <v>1343093847.667225</v>
+        <v>748098033.7767705</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1344.426496796833</v>
+        <v>748.6390787915346</v>
       </c>
       <c r="C133" t="n">
-        <v>1344426496.796833</v>
+        <v>748639078.7915347</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1345.750338522456</v>
+        <v>749.1764006594667</v>
       </c>
       <c r="C134" t="n">
-        <v>1345750338.522456</v>
+        <v>749176400.6594667</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1347.065496989931</v>
+        <v>749.7100528873956</v>
       </c>
       <c r="C135" t="n">
-        <v>1347065496.989931</v>
+        <v>749710052.8873956</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1348.372093679636</v>
+        <v>750.2400878184117</v>
       </c>
       <c r="C136" t="n">
-        <v>1348372093.679636</v>
+        <v>750240087.8184117</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1349.670247483086</v>
+        <v>750.7665566656358</v>
       </c>
       <c r="C137" t="n">
-        <v>1349670247.483086</v>
+        <v>750766556.6656358</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1350.960074776775</v>
+        <v>751.289509544767</v>
       </c>
       <c r="C138" t="n">
-        <v>1350960074.776775</v>
+        <v>751289509.544767</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1352.241689493392</v>
+        <v>751.8089955054611</v>
       </c>
       <c r="C139" t="n">
-        <v>1352241689.493392</v>
+        <v>751808995.5054611</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1353.515203190514</v>
+        <v>752.3250625615891</v>
       </c>
       <c r="C140" t="n">
-        <v>1353515203.190514</v>
+        <v>752325062.5615891</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1354.78072511689</v>
+        <v>752.8377577204275</v>
       </c>
       <c r="C141" t="n">
-        <v>1354780725.11689</v>
+        <v>752837757.7204275</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1356.038362276406</v>
+        <v>753.3471270108197</v>
       </c>
       <c r="C142" t="n">
-        <v>1356038362.276406</v>
+        <v>753347127.0108197</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1357.28821948985</v>
+        <v>753.8532155103571</v>
       </c>
       <c r="C143" t="n">
-        <v>1357288219.48985</v>
+        <v>753853215.5103571</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1358.53039945454</v>
+        <v>754.3560673716175</v>
       </c>
       <c r="C144" t="n">
-        <v>1358530399.45454</v>
+        <v>754356067.3716176</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1359.76500280192</v>
+        <v>754.8557258475003</v>
       </c>
       <c r="C145" t="n">
-        <v>1359765002.80192</v>
+        <v>754855725.8475002</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1360.992128153215</v>
+        <v>755.3522333156974</v>
       </c>
       <c r="C146" t="n">
-        <v>1360992128.153215</v>
+        <v>755352233.3156974</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1362.211872173193</v>
+        <v>755.8456313023331</v>
       </c>
       <c r="C147" t="n">
-        <v>1362211872.173193</v>
+        <v>755845631.3023331</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1363.424329622147</v>
+        <v>756.3359605048075</v>
       </c>
       <c r="C148" t="n">
-        <v>1363424329.622147</v>
+        <v>756335960.5048075</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1364.629593406141</v>
+        <v>756.823260813876</v>
       </c>
       <c r="C149" t="n">
-        <v>1364629593.406141</v>
+        <v>756823260.813876</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1365.827754625606</v>
+        <v>757.3075713349939</v>
       </c>
       <c r="C150" t="n">
-        <v>1365827754.625606</v>
+        <v>757307571.3349938</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1367.018902622335</v>
+        <v>757.7889304089575</v>
       </c>
       <c r="C151" t="n">
-        <v>1367018902.622335</v>
+        <v>757788930.4089575</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1368.20312502496</v>
+        <v>758.2673756318679</v>
       </c>
       <c r="C152" t="n">
-        <v>1368203125.02496</v>
+        <v>758267375.6318679</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1369.38050779295</v>
+        <v>758.7429438744437</v>
       </c>
       <c r="C153" t="n">
-        <v>1369380507.79295</v>
+        <v>758742943.8744437</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1370.551135259202</v>
+        <v>759.2156713007098</v>
       </c>
       <c r="C154" t="n">
-        <v>1370551135.259202</v>
+        <v>759215671.3007098</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1371.715090171269</v>
+        <v>759.6855933860857</v>
       </c>
       <c r="C155" t="n">
-        <v>1371715090.171269</v>
+        <v>759685593.3860856</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1372.872453731287</v>
+        <v>760.152744934894</v>
       </c>
       <c r="C156" t="n">
-        <v>1372872453.731287</v>
+        <v>760152744.9348941</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1374.02330563464</v>
+        <v>760.6171600973157</v>
       </c>
       <c r="C157" t="n">
-        <v>1374023305.63464</v>
+        <v>760617160.0973157</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1375.167724107415</v>
+        <v>761.0788723858095</v>
       </c>
       <c r="C158" t="n">
-        <v>1375167724.107415</v>
+        <v>761078872.3858095</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1376.305785942701</v>
+        <v>761.5379146910175</v>
       </c>
       <c r="C159" t="n">
-        <v>1376305785.942701</v>
+        <v>761537914.6910175</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1377.437566535754</v>
+        <v>761.9943192971748</v>
       </c>
       <c r="C160" t="n">
-        <v>1377437566.535754</v>
+        <v>761994319.2971748</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1378.563139918096</v>
+        <v>762.4481178970441</v>
       </c>
       <c r="C161" t="n">
-        <v>1378563139.918096</v>
+        <v>762448117.8970441</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1379.682578790562</v>
+        <v>762.8993416063889</v>
       </c>
       <c r="C162" t="n">
-        <v>1379682578.790562</v>
+        <v>762899341.6063889</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1380.795954555353</v>
+        <v>763.3480209780072</v>
       </c>
       <c r="C163" t="n">
-        <v>1380795954.555353</v>
+        <v>763348020.9780072</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1381.903337347125</v>
+        <v>763.7941860153371</v>
       </c>
       <c r="C164" t="n">
-        <v>1381903337.347126</v>
+        <v>763794186.0153371</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1383.004796063138</v>
+        <v>764.2378661856529</v>
       </c>
       <c r="C165" t="n">
-        <v>1383004796.063138</v>
+        <v>764237866.185653</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1384.100398392517</v>
+        <v>764.6790904328656</v>
       </c>
       <c r="C166" t="n">
-        <v>1384100398.392518</v>
+        <v>764679090.4328656</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1385.190210844645</v>
+        <v>765.1178871899406</v>
       </c>
       <c r="C167" t="n">
-        <v>1385190210.844645</v>
+        <v>765117887.1899406</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1386.274298776718</v>
+        <v>765.5542843909499</v>
       </c>
       <c r="C168" t="n">
-        <v>1386274298.776718</v>
+        <v>765554284.3909498</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1387.352726420499</v>
+        <v>765.9883094827672</v>
       </c>
       <c r="C169" t="n">
-        <v>1387352726.420499</v>
+        <v>765988309.4827672</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1388.425556908296</v>
+        <v>766.4199894364212</v>
       </c>
       <c r="C170" t="n">
-        <v>1388425556.908296</v>
+        <v>766419989.4364213</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1389.492852298183</v>
+        <v>766.84935075812</v>
       </c>
       <c r="C171" t="n">
-        <v>1389492852.298183</v>
+        <v>766849350.7581199</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1390.554673598506</v>
+        <v>767.2764194999536</v>
       </c>
       <c r="C172" t="n">
-        <v>1390554673.598506</v>
+        <v>767276419.4999536</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1391.611080791683</v>
+        <v>767.7012212702928</v>
       </c>
       <c r="C173" t="n">
-        <v>1391611080.791683</v>
+        <v>767701221.2702928</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1392.662132857332</v>
+        <v>768.1237812438865</v>
       </c>
       <c r="C174" t="n">
-        <v>1392662132.857332</v>
+        <v>768123781.2438865</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1393.707887794745</v>
+        <v>768.5441241716752</v>
       </c>
       <c r="C175" t="n">
-        <v>1393707887.794745</v>
+        <v>768544124.1716752</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1394.748402644735</v>
+        <v>768.9622743903255</v>
       </c>
       <c r="C176" t="n">
-        <v>1394748402.644735</v>
+        <v>768962274.3903255</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1395.78373351087</v>
+        <v>769.3782558314974</v>
       </c>
       <c r="C177" t="n">
-        <v>1395783733.51087</v>
+        <v>769378255.8314974</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1396.813935580121</v>
+        <v>769.7920920308524</v>
       </c>
       <c r="C178" t="n">
-        <v>1396813935.580121</v>
+        <v>769792092.0308523</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1397.839063142938</v>
+        <v>770.2038061368113</v>
       </c>
       <c r="C179" t="n">
-        <v>1397839063.142938</v>
+        <v>770203806.1368113</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1398.859169612781</v>
+        <v>770.6134209190706</v>
       </c>
       <c r="C180" t="n">
-        <v>1398859169.612781</v>
+        <v>770613420.9190706</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1399.874307545113</v>
+        <v>771.0209587768846</v>
       </c>
       <c r="C181" t="n">
-        <v>1399874307.545113</v>
+        <v>771020958.7768847</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1400.884528655881</v>
+        <v>771.4264417471207</v>
       </c>
       <c r="C182" t="n">
-        <v>1400884528.655881</v>
+        <v>771426441.7471207</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1401.889883839498</v>
+        <v>771.8298915120977</v>
       </c>
       <c r="C183" t="n">
-        <v>1401889883.839498</v>
+        <v>771829891.5120977</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1402.890423186345</v>
+        <v>772.2313294072093</v>
       </c>
       <c r="C184" t="n">
-        <v>1402890423.186345</v>
+        <v>772231329.4072093</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1403.886195999802</v>
+        <v>772.6307764283467</v>
       </c>
       <c r="C185" t="n">
-        <v>1403886195.999802</v>
+        <v>772630776.4283468</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1404.877250812833</v>
+        <v>773.0282532391193</v>
       </c>
       <c r="C186" t="n">
-        <v>1404877250.812833</v>
+        <v>773028253.2391193</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1405.863635404129</v>
+        <v>773.4237801778855</v>
       </c>
       <c r="C187" t="n">
-        <v>1405863635.404129</v>
+        <v>773423780.1778855</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1406.845396813831</v>
+        <v>773.8173772645973</v>
       </c>
       <c r="C188" t="n">
-        <v>1406845396.813832</v>
+        <v>773817377.2645973</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1407.82258135884</v>
+        <v>774.2090642074648</v>
       </c>
       <c r="C189" t="n">
-        <v>1407822581.35884</v>
+        <v>774209064.2074648</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1408.79523464773</v>
+        <v>774.5988604094462</v>
       </c>
       <c r="C190" t="n">
-        <v>1408795234.64773</v>
+        <v>774598860.4094461</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1409.763401595279</v>
+        <v>774.986784974569</v>
       </c>
       <c r="C191" t="n">
-        <v>1409763401.595279</v>
+        <v>774986784.974569</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1410.727126436627</v>
+        <v>775.372856714089</v>
       </c>
       <c r="C192" t="n">
-        <v>1410727126.436627</v>
+        <v>775372856.714089</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1411.686452741063</v>
+        <v>775.7570941524883</v>
       </c>
       <c r="C193" t="n">
-        <v>1411686452.741064</v>
+        <v>775757094.1524884</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1412.641423425478</v>
+        <v>776.1395155333222</v>
       </c>
       <c r="C194" t="n">
-        <v>1412641423.425478</v>
+        <v>776139515.5333222</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1413.592080767462</v>
+        <v>776.5201388249149</v>
       </c>
       <c r="C195" t="n">
-        <v>1413592080.767462</v>
+        <v>776520138.8249148</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1414.538466418083</v>
+        <v>776.898981725913</v>
       </c>
       <c r="C196" t="n">
-        <v>1414538466.418083</v>
+        <v>776898981.725913</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1415.480621414339</v>
+        <v>777.2760616706978</v>
       </c>
       <c r="C197" t="n">
-        <v>1415480621.414339</v>
+        <v>777276061.6706978</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1416.418586191306</v>
+        <v>777.6513958346617</v>
       </c>
       <c r="C198" t="n">
-        <v>1416418586.191306</v>
+        <v>777651395.8346617</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1417.35240059398</v>
+        <v>778.0250011393539</v>
       </c>
       <c r="C199" t="n">
-        <v>1417352400.59398</v>
+        <v>778025001.1393539</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1418.282103888831</v>
+        <v>778.3968942574969</v>
       </c>
       <c r="C200" t="n">
-        <v>1418282103.888831</v>
+        <v>778396894.257497</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1419.207734775072</v>
+        <v>778.7670916178812</v>
       </c>
       <c r="C201" t="n">
-        <v>1419207734.775072</v>
+        <v>778767091.6178812</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1420.129331395652</v>
+        <v>779.1356094101372</v>
       </c>
       <c r="C202" t="n">
-        <v>1420129331.395652</v>
+        <v>779135609.4101373</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1421.046931347985</v>
+        <v>779.5024635893926</v>
       </c>
       <c r="C203" t="n">
-        <v>1421046931.347985</v>
+        <v>779502463.5893927</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1421.960571694421</v>
+        <v>779.8676698808148</v>
       </c>
       <c r="C204" t="n">
-        <v>1421960571.694421</v>
+        <v>779867669.8808148</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1422.870288972457</v>
+        <v>780.2312437840448</v>
       </c>
       <c r="C205" t="n">
-        <v>1422870288.972457</v>
+        <v>780231243.7840447</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1423.776119204716</v>
+        <v>780.5932005775223</v>
       </c>
       <c r="C206" t="n">
-        <v>1423776119.204716</v>
+        <v>780593200.5775224</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1424.67809790868</v>
+        <v>780.9535553227101</v>
       </c>
       <c r="C207" t="n">
-        <v>1424678097.90868</v>
+        <v>780953555.3227102</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1425.576260106193</v>
+        <v>781.3123228682142</v>
       </c>
       <c r="C208" t="n">
-        <v>1425576260.106193</v>
+        <v>781312322.8682142</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1426.470640332745</v>
+        <v>781.6695178538085</v>
       </c>
       <c r="C209" t="n">
-        <v>1426470640.332745</v>
+        <v>781669517.8538085</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1427.361272646535</v>
+        <v>782.0251547143637</v>
       </c>
       <c r="C210" t="n">
-        <v>1427361272.646535</v>
+        <v>782025154.7143637</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1428.24819063732</v>
+        <v>782.3792476836836</v>
       </c>
       <c r="C211" t="n">
-        <v>1428248190.637321</v>
+        <v>782379247.6836836</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1429.131427435066</v>
+        <v>782.731810798252</v>
       </c>
       <c r="C212" t="n">
-        <v>1429131427.435066</v>
+        <v>782731810.798252</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1430.01101571839</v>
+        <v>783.0828579008914</v>
       </c>
       <c r="C213" t="n">
-        <v>1430011015.71839</v>
+        <v>783082857.9008914</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1430.886987722813</v>
+        <v>783.4324026443389</v>
       </c>
       <c r="C214" t="n">
-        <v>1430886987.722813</v>
+        <v>783432402.644339</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1431.759375248825</v>
+        <v>783.7804584947368</v>
       </c>
       <c r="C215" t="n">
-        <v>1431759375.248825</v>
+        <v>783780458.4947368</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1432.628209669764</v>
+        <v>784.1270387350453</v>
       </c>
       <c r="C216" t="n">
-        <v>1432628209.669764</v>
+        <v>784127038.7350453</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1433.493521939514</v>
+        <v>784.4721564683764</v>
       </c>
       <c r="C217" t="n">
-        <v>1433493521.939514</v>
+        <v>784472156.4683764</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1434.355342600033</v>
+        <v>784.8158246212514</v>
       </c>
       <c r="C218" t="n">
-        <v>1434355342.600033</v>
+        <v>784815824.6212515</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1435.213701788713</v>
+        <v>785.1580559467858</v>
       </c>
       <c r="C219" t="n">
-        <v>1435213701.788713</v>
+        <v>785158055.9467858</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1436.068629245569</v>
+        <v>785.4988630278012</v>
       </c>
       <c r="C220" t="n">
-        <v>1436068629.245569</v>
+        <v>785498863.0278013</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1436.920154320275</v>
+        <v>785.8382582798681</v>
       </c>
       <c r="C221" t="n">
-        <v>1436920154.320275</v>
+        <v>785838258.2798681</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1437.768305979037</v>
+        <v>786.1762539542807</v>
       </c>
       <c r="C222" t="n">
-        <v>1437768305.979038</v>
+        <v>786176253.9542807</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1438.613112811323</v>
+        <v>786.5128621409651</v>
       </c>
       <c r="C223" t="n">
-        <v>1438613112.811323</v>
+        <v>786512862.1409651</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1439.454603036436</v>
+        <v>786.8480947713234</v>
       </c>
       <c r="C224" t="n">
-        <v>1439454603.036436</v>
+        <v>786848094.7713234</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1440.292804509948</v>
+        <v>787.1819636210153</v>
       </c>
       <c r="C225" t="n">
-        <v>1440292804.509948</v>
+        <v>787181963.6210153</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1441.127744729997</v>
+        <v>787.5144803126784</v>
       </c>
       <c r="C226" t="n">
-        <v>1441127744.729997</v>
+        <v>787514480.3126785</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1441.95945084344</v>
+        <v>787.845656318589</v>
       </c>
       <c r="C227" t="n">
-        <v>1441959450.84344</v>
+        <v>787845656.318589</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1442.787949651878</v>
+        <v>788.1755029632657</v>
       </c>
       <c r="C228" t="n">
-        <v>1442787949.651878</v>
+        <v>788175502.9632657</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1443.613267617553</v>
+        <v>788.5040314260153</v>
       </c>
       <c r="C229" t="n">
-        <v>1443613267.617553</v>
+        <v>788504031.4260154</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1444.435430869111</v>
+        <v>788.8312527434259</v>
       </c>
       <c r="C230" t="n">
-        <v>1444435430.869111</v>
+        <v>788831252.743426</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1445.254465207256</v>
+        <v>789.1571778118036</v>
       </c>
       <c r="C231" t="n">
-        <v>1445254465.207256</v>
+        <v>789157177.8118037</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1446.070396110268</v>
+        <v>789.4818173895609</v>
       </c>
       <c r="C232" t="n">
-        <v>1446070396.110268</v>
+        <v>789481817.3895609</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1446.883248739418</v>
+        <v>789.8051820995498</v>
       </c>
       <c r="C233" t="n">
-        <v>1446883248.739418</v>
+        <v>789805182.0995498</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1447.693047944259</v>
+        <v>790.1272824313501</v>
       </c>
       <c r="C234" t="n">
-        <v>1447693047.944259</v>
+        <v>790127282.4313501</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1448.499818267815</v>
+        <v>790.4481287435058</v>
       </c>
       <c r="C235" t="n">
-        <v>1448499818.267815</v>
+        <v>790448128.7435058</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1449.303583951656</v>
+        <v>790.7677312657162</v>
       </c>
       <c r="C236" t="n">
-        <v>1449303583.951656</v>
+        <v>790767731.2657162</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1450.104368940868</v>
+        <v>791.0861001009816</v>
       </c>
       <c r="C237" t="n">
-        <v>1450104368.940867</v>
+        <v>791086100.1009816</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1450.902196888923</v>
+        <v>791.403245227703</v>
       </c>
       <c r="C238" t="n">
-        <v>1450902196.888923</v>
+        <v>791403245.227703</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1451.69709116245</v>
+        <v>791.7191765017387</v>
       </c>
       <c r="C239" t="n">
-        <v>1451697091.16245</v>
+        <v>791719176.5017388</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1452.489074845899</v>
+        <v>792.0339036584194</v>
       </c>
       <c r="C240" t="n">
-        <v>1452489074.845899</v>
+        <v>792033903.6584194</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1453.278170746125</v>
+        <v>792.3474363145207</v>
       </c>
       <c r="C241" t="n">
-        <v>1453278170.746125</v>
+        <v>792347436.3145207</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1454.064401396862</v>
+        <v>792.6597839701956</v>
       </c>
       <c r="C242" t="n">
-        <v>1454064401.396862</v>
+        <v>792659783.9701955</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1454.847789063122</v>
+        <v>792.9709560108678</v>
       </c>
       <c r="C243" t="n">
-        <v>1454847789.063122</v>
+        <v>792970956.0108678</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1455.628355745494</v>
+        <v>793.2809617090862</v>
       </c>
       <c r="C244" t="n">
-        <v>1455628355.745494</v>
+        <v>793280961.7090862</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1456.406123184361</v>
+        <v>793.5898102263425</v>
       </c>
       <c r="C245" t="n">
-        <v>1456406123.184361</v>
+        <v>793589810.2263424</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1457.181112864036</v>
+        <v>793.8975106148509</v>
       </c>
       <c r="C246" t="n">
-        <v>1457181112.864036</v>
+        <v>793897510.614851</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1457.953346016807</v>
+        <v>794.2040718192943</v>
       </c>
       <c r="C247" t="n">
-        <v>1457953346.016808</v>
+        <v>794204071.8192943</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1458.722843626915</v>
+        <v>794.5095026785332</v>
       </c>
       <c r="C248" t="n">
-        <v>1458722843.626915</v>
+        <v>794509502.6785332</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1459.489626434436</v>
+        <v>794.8138119272819</v>
       </c>
       <c r="C249" t="n">
-        <v>1459489626.434436</v>
+        <v>794813811.9272819</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1460.253714939104</v>
+        <v>795.1170081977521</v>
       </c>
       <c r="C250" t="n">
-        <v>1460253714.939104</v>
+        <v>795117008.197752</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1461.015129404047</v>
+        <v>795.4191000212621</v>
       </c>
       <c r="C251" t="n">
-        <v>1461015129.404047</v>
+        <v>795419100.0212622</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1461.773889859457</v>
+        <v>795.7200958298167</v>
       </c>
       <c r="C252" t="n">
-        <v>1461773889.859457</v>
+        <v>795720095.8298167</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1463.6593090945</v>
+        <v>796.4678447427165</v>
       </c>
       <c r="C253" t="n">
-        <v>1463659309.0945</v>
+        <v>796467844.7427164</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1465.528567191986</v>
+        <v>797.2089230089472</v>
       </c>
       <c r="C254" t="n">
-        <v>1465528567.191986</v>
+        <v>797208923.0089471</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1467.381958945961</v>
+        <v>797.9434546320773</v>
       </c>
       <c r="C255" t="n">
-        <v>1467381958.945961</v>
+        <v>797943454.6320773</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1469.219770977721</v>
+        <v>798.6715601347404</v>
       </c>
       <c r="C256" t="n">
-        <v>1469219770.977721</v>
+        <v>798671560.1347404</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1471.042282038412</v>
+        <v>799.3933566887239</v>
       </c>
       <c r="C257" t="n">
-        <v>1471042282.038412</v>
+        <v>799393356.6887239</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1472.849763297659</v>
+        <v>800.1089582390088</v>
       </c>
       <c r="C258" t="n">
-        <v>1472849763.297659</v>
+        <v>800108958.2390088</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1474.642478618999</v>
+        <v>800.8184756220965</v>
       </c>
       <c r="C259" t="n">
-        <v>1474642478.618999</v>
+        <v>800818475.6220964</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1476.420684822847</v>
+        <v>801.5220166789364</v>
       </c>
       <c r="C260" t="n">
-        <v>1476420684.822847</v>
+        <v>801522016.6789365</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1478.18463193765</v>
+        <v>802.2196863627482</v>
       </c>
       <c r="C261" t="n">
-        <v>1478184631.93765</v>
+        <v>802219686.3627483</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1479.934563439886</v>
+        <v>802.9115868420128</v>
       </c>
       <c r="C262" t="n">
-        <v>1479934563.439886</v>
+        <v>802911586.8420128</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1481.670716483477</v>
+        <v>803.5978175988924</v>
       </c>
       <c r="C263" t="n">
-        <v>1481670716.483477</v>
+        <v>803597817.5988925</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1483.393322119192</v>
+        <v>804.2784755233209</v>
       </c>
       <c r="C264" t="n">
-        <v>1483393322.119192</v>
+        <v>804278475.5233209</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1485.10260550455</v>
+        <v>804.9536550029904</v>
       </c>
       <c r="C265" t="n">
-        <v>1485102605.50455</v>
+        <v>804953655.0029905</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1486.798786104719</v>
+        <v>805.6234480094497</v>
       </c>
       <c r="C266" t="n">
-        <v>1486798786.104719</v>
+        <v>805623448.0094497</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1488.482077884875</v>
+        <v>806.2879441805134</v>
       </c>
       <c r="C267" t="n">
-        <v>1488482077.884875</v>
+        <v>806287944.1805134</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1490.152689494447</v>
+        <v>806.9472308991722</v>
       </c>
       <c r="C268" t="n">
-        <v>1490152689.494447</v>
+        <v>806947230.8991722</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1491.810824443669</v>
+        <v>807.6013933691793</v>
       </c>
       <c r="C269" t="n">
-        <v>1491810824.443669</v>
+        <v>807601393.3691792</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1493.456681272807</v>
+        <v>808.2505146874821</v>
       </c>
       <c r="C270" t="n">
-        <v>1493456681.272807</v>
+        <v>808250514.6874821</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1495.09045371444</v>
+        <v>808.8946759136554</v>
       </c>
       <c r="C271" t="n">
-        <v>1495090453.71444</v>
+        <v>808894675.9136554</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1496.712330849126</v>
+        <v>809.533956136484</v>
       </c>
       <c r="C272" t="n">
-        <v>1496712330.849126</v>
+        <v>809533956.136484</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1498.322497254776</v>
+        <v>810.1684325378354</v>
       </c>
       <c r="C273" t="n">
-        <v>1498322497.254776</v>
+        <v>810168432.5378355</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1499.921133150049</v>
+        <v>810.7981804539539</v>
       </c>
       <c r="C274" t="n">
-        <v>1499921133.150049</v>
+        <v>810798180.453954</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1501.508414532039</v>
+        <v>811.4232734342996</v>
       </c>
       <c r="C275" t="n">
-        <v>1501508414.532039</v>
+        <v>811423273.4342996</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1503.084513308537</v>
+        <v>812.0437832980505</v>
       </c>
       <c r="C276" t="n">
-        <v>1503084513.308537</v>
+        <v>812043783.2980505</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1504.649597425122</v>
+        <v>812.6597801883788</v>
       </c>
       <c r="C277" t="n">
-        <v>1504649597.425122</v>
+        <v>812659780.1883788</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1506.203830987323</v>
+        <v>813.2713326246056</v>
       </c>
       <c r="C278" t="n">
-        <v>1506203830.987323</v>
+        <v>813271332.6246057</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1507.747374378069</v>
+        <v>813.8785075523332</v>
       </c>
       <c r="C279" t="n">
-        <v>1507747374.378069</v>
+        <v>813878507.5523332</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1509.280384370667</v>
+        <v>814.4813703916481</v>
       </c>
       <c r="C280" t="n">
-        <v>1509280384.370667</v>
+        <v>814481370.3916481</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1510.803014237488</v>
+        <v>815.0799850834845</v>
       </c>
       <c r="C281" t="n">
-        <v>1510803014.237488</v>
+        <v>815079985.0834845</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1512.315413854576</v>
+        <v>815.6744141342322</v>
       </c>
       <c r="C282" t="n">
-        <v>1512315413.854576</v>
+        <v>815674414.1342322</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1513.817729802343</v>
+        <v>816.2647186586653</v>
       </c>
       <c r="C283" t="n">
-        <v>1513817729.802343</v>
+        <v>816264718.6586653</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1515.310105462549</v>
+        <v>816.8509584212732</v>
       </c>
       <c r="C284" t="n">
-        <v>1515310105.462549</v>
+        <v>816850958.4212731</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1516.792681111703</v>
+        <v>817.4331918760578</v>
       </c>
       <c r="C285" t="n">
-        <v>1516792681.111703</v>
+        <v>817433191.8760577</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1518.265594011072</v>
+        <v>818.0114762048712</v>
       </c>
       <c r="C286" t="n">
-        <v>1518265594.011072</v>
+        <v>818011476.2048712</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1519.72897849342</v>
+        <v>818.5858673543537</v>
       </c>
       <c r="C287" t="n">
-        <v>1519728978.49342</v>
+        <v>818585867.3543537</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1521.182966046636</v>
+        <v>819.1564200715345</v>
       </c>
       <c r="C288" t="n">
-        <v>1521182966.046637</v>
+        <v>819156420.0715345</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1522.627685394381</v>
+        <v>819.7231879381542</v>
       </c>
       <c r="C289" t="n">
-        <v>1522627685.394381</v>
+        <v>819723187.9381542</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1524.063262573871</v>
+        <v>820.2862234037613</v>
       </c>
       <c r="C290" t="n">
-        <v>1524063262.573871</v>
+        <v>820286223.4037613</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1525.489821010932</v>
+        <v>820.8455778176383</v>
       </c>
       <c r="C291" t="n">
-        <v>1525489821.010931</v>
+        <v>820845577.8176383</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1526.907481592434</v>
+        <v>821.4013014596031</v>
       </c>
       <c r="C292" t="n">
-        <v>1526907481.592434</v>
+        <v>821401301.4596032</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1528.316362736216</v>
+        <v>821.953443569737</v>
       </c>
       <c r="C293" t="n">
-        <v>1528316362.736216</v>
+        <v>821953443.5697371</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1529.716580458598</v>
+        <v>822.5020523770804</v>
       </c>
       <c r="C294" t="n">
-        <v>1529716580.458598</v>
+        <v>822502052.3770804</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1531.108248439597</v>
+        <v>823.0471751273423</v>
       </c>
       <c r="C295" t="n">
-        <v>1531108248.439597</v>
+        <v>823047175.1273422</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1532.491478085918</v>
+        <v>823.5888581096607</v>
       </c>
       <c r="C296" t="n">
-        <v>1532491478.085918</v>
+        <v>823588858.1096607</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1533.866378591835</v>
+        <v>824.1271466824568</v>
       </c>
       <c r="C297" t="n">
-        <v>1533866378.591835</v>
+        <v>824127146.6824567</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1535.233056998024</v>
+        <v>824.6620852984159</v>
       </c>
       <c r="C298" t="n">
-        <v>1535233056.998024</v>
+        <v>824662085.2984159</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1536.591618248447</v>
+        <v>825.1937175286324</v>
       </c>
       <c r="C299" t="n">
-        <v>1536591618.248447</v>
+        <v>825193717.5286324</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1537.942165245354</v>
+        <v>825.7220860859514</v>
       </c>
       <c r="C300" t="n">
-        <v>1537942165.245354</v>
+        <v>825722086.0859514</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1539.284798902485</v>
+        <v>826.2472328475403</v>
       </c>
       <c r="C301" t="n">
-        <v>1539284798.902485</v>
+        <v>826247232.8475403</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1540.619618196538</v>
+        <v>826.7691988767186</v>
       </c>
       <c r="C302" t="n">
-        <v>1540619618.196538</v>
+        <v>826769198.8767186</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1541.94672021697</v>
+        <v>827.2880244440772</v>
       </c>
       <c r="C303" t="n">
-        <v>1541946720.21697</v>
+        <v>827288024.4440773</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1543.2662002142</v>
+        <v>827.803749047913</v>
       </c>
       <c r="C304" t="n">
-        <v>1543266200.2142</v>
+        <v>827803749.0479131</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1544.578151646271</v>
+        <v>828.3164114340066</v>
       </c>
       <c r="C305" t="n">
-        <v>1544578151.646271</v>
+        <v>828316411.4340066</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1545.882666224035</v>
+        <v>828.8260496147681</v>
       </c>
       <c r="C306" t="n">
-        <v>1545882666.224035</v>
+        <v>828826049.614768</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1547.179833954907</v>
+        <v>829.332700887775</v>
       </c>
       <c r="C307" t="n">
-        <v>1547179833.954907</v>
+        <v>829332700.8877749</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1548.469743185259</v>
+        <v>829.8364018537252</v>
       </c>
       <c r="C308" t="n">
-        <v>1548469743.185259</v>
+        <v>829836401.8537252</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1549.752480641486</v>
+        <v>830.337188433827</v>
       </c>
       <c r="C309" t="n">
-        <v>1549752480.641486</v>
+        <v>830337188.433827</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1551.028131469803</v>
+        <v>830.8350958866478</v>
       </c>
       <c r="C310" t="n">
-        <v>1551028131.469803</v>
+        <v>830835095.8866478</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1552.296779274832</v>
+        <v>831.3301588244417</v>
       </c>
       <c r="C311" t="n">
-        <v>1552296779.274832</v>
+        <v>831330158.8244417</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1553.558506156988</v>
+        <v>831.8224112289743</v>
       </c>
       <c r="C312" t="n">
-        <v>1553558506.156988</v>
+        <v>831822411.2289742</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1554.813392748757</v>
+        <v>832.3118864668639</v>
       </c>
       <c r="C313" t="n">
-        <v>1554813392.748757</v>
+        <v>832311886.466864</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1556.061518249857</v>
+        <v>832.7986173044577</v>
       </c>
       <c r="C314" t="n">
-        <v>1556061518.249857</v>
+        <v>832798617.3044577</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1557.302960461361</v>
+        <v>833.282635922257</v>
       </c>
       <c r="C315" t="n">
-        <v>1557302960.461361</v>
+        <v>833282635.9222569</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1558.537795818797</v>
+        <v>833.7639739289122</v>
       </c>
       <c r="C316" t="n">
-        <v>1558537795.818797</v>
+        <v>833763973.9289122</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1559.76609942427</v>
+        <v>834.2426623747976</v>
       </c>
       <c r="C317" t="n">
-        <v>1559766099.42427</v>
+        <v>834242662.3747977</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1560.987945077637</v>
+        <v>834.7187317651869</v>
       </c>
       <c r="C318" t="n">
-        <v>1560987945.077637</v>
+        <v>834718731.7651869</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1562.203405306775</v>
+        <v>835.1922120730375</v>
       </c>
       <c r="C319" t="n">
-        <v>1562203405.306775</v>
+        <v>835192212.0730375</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1563.41255139696</v>
+        <v>835.6631327514028</v>
       </c>
       <c r="C320" t="n">
-        <v>1563412551.39696</v>
+        <v>835663132.7514029</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1564.61545341941</v>
+        <v>836.1315227454817</v>
       </c>
       <c r="C321" t="n">
-        <v>1564615453.41941</v>
+        <v>836131522.7454817</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1565.812180258996</v>
+        <v>836.5974105043199</v>
       </c>
       <c r="C322" t="n">
-        <v>1565812180.258996</v>
+        <v>836597410.5043199</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1567.002799641167</v>
+        <v>837.0608239921753</v>
       </c>
       <c r="C323" t="n">
-        <v>1567002799.641167</v>
+        <v>837060823.9921753</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1568.187378158112</v>
+        <v>837.5217906995565</v>
       </c>
       <c r="C324" t="n">
-        <v>1568187378.158112</v>
+        <v>837521790.6995565</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1569.365981294179</v>
+        <v>837.9803376539487</v>
       </c>
       <c r="C325" t="n">
-        <v>1569365981.294179</v>
+        <v>837980337.6539487</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1570.538673450587</v>
+        <v>838.436491430237</v>
       </c>
       <c r="C326" t="n">
-        <v>1570538673.450587</v>
+        <v>838436491.4302369</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1571.705517969438</v>
+        <v>838.8902781608344</v>
       </c>
       <c r="C327" t="n">
-        <v>1571705517.969438</v>
+        <v>838890278.1608344</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1572.866577157076</v>
+        <v>839.3417235455295</v>
       </c>
       <c r="C328" t="n">
-        <v>1572866577.157076</v>
+        <v>839341723.5455295</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1574.021912306791</v>
+        <v>839.7908528610578</v>
       </c>
       <c r="C329" t="n">
-        <v>1574021912.306791</v>
+        <v>839790852.8610579</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1575.171583720905</v>
+        <v>840.2376909704109</v>
       </c>
       <c r="C330" t="n">
-        <v>1575171583.720905</v>
+        <v>840237690.9704108</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1576.315650732255</v>
+        <v>840.6822623318878</v>
       </c>
       <c r="C331" t="n">
-        <v>1576315650.732255</v>
+        <v>840682262.3318878</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1577.454171725091</v>
+        <v>841.1245910079011</v>
       </c>
       <c r="C332" t="n">
-        <v>1577454171.725091</v>
+        <v>841124591.0079011</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1578.587204155413</v>
+        <v>841.5647006735412</v>
       </c>
       <c r="C333" t="n">
-        <v>1578587204.155413</v>
+        <v>841564700.6735412</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1579.714804570763</v>
+        <v>842.0026146249113</v>
       </c>
       <c r="C334" t="n">
-        <v>1579714804.570763</v>
+        <v>842002614.6249113</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1580.837028629485</v>
+        <v>842.4383557872374</v>
       </c>
       <c r="C335" t="n">
-        <v>1580837028.629485</v>
+        <v>842438355.7872374</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1581.953931119474</v>
+        <v>842.8719467227612</v>
       </c>
       <c r="C336" t="n">
-        <v>1581953931.119474</v>
+        <v>842871946.7227612</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1583.06556597644</v>
+        <v>843.3034096384243</v>
       </c>
       <c r="C337" t="n">
-        <v>1583065565.97644</v>
+        <v>843303409.6384244</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1584.171986301675</v>
+        <v>843.7327663933476</v>
       </c>
       <c r="C338" t="n">
-        <v>1584171986.301675</v>
+        <v>843732766.3933475</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1585.273244379375</v>
+        <v>844.1600385061155</v>
       </c>
       <c r="C339" t="n">
-        <v>1585273244.379375</v>
+        <v>844160038.5061154</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1586.369391693497</v>
+        <v>844.5852471618683</v>
       </c>
       <c r="C340" t="n">
-        <v>1586369391.693497</v>
+        <v>844585247.1618683</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1587.460478944188</v>
+        <v>845.0084132192112</v>
       </c>
       <c r="C341" t="n">
-        <v>1587460478.944189</v>
+        <v>845008413.2192112</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1588.546556063794</v>
+        <v>845.4295572169435</v>
       </c>
       <c r="C342" t="n">
-        <v>1588546556.063794</v>
+        <v>845429557.2169435</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1589.62767223245</v>
+        <v>845.8486993806147</v>
       </c>
       <c r="C343" t="n">
-        <v>1589627672.23245</v>
+        <v>845848699.3806146</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1590.703875893286</v>
+        <v>846.2658596289133</v>
       </c>
       <c r="C344" t="n">
-        <v>1590703875.893286</v>
+        <v>846265859.6289133</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1591.775214767238</v>
+        <v>846.6810575798917</v>
       </c>
       <c r="C345" t="n">
-        <v>1591775214.767238</v>
+        <v>846681057.5798917</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1592.841735867494</v>
+        <v>847.0943125570348</v>
       </c>
       <c r="C346" t="n">
-        <v>1592841735.867494</v>
+        <v>847094312.5570347</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1593.903485513571</v>
+        <v>847.5056435951738</v>
       </c>
       <c r="C347" t="n">
-        <v>1593903485.513572</v>
+        <v>847505643.5951737</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1594.960509345049</v>
+        <v>847.9150694462529</v>
       </c>
       <c r="C348" t="n">
-        <v>1594960509.345049</v>
+        <v>847915069.4462529</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1596.012852334957</v>
+        <v>848.3226085849518</v>
       </c>
       <c r="C349" t="n">
-        <v>1596012852.334957</v>
+        <v>848322608.5849518</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1597.060558802836</v>
+        <v>848.7282792141679</v>
       </c>
       <c r="C350" t="n">
-        <v>1597060558.802836</v>
+        <v>848728279.2141678</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1598.103672427477</v>
+        <v>849.1320992703638</v>
       </c>
       <c r="C351" t="n">
-        <v>1598103672.427477</v>
+        <v>849132099.2703638</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>1599.142236259351</v>
+        <v>849.5340864287833</v>
       </c>
       <c r="C352" t="n">
-        <v>1599142236.259351</v>
+        <v>849534086.4287833</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>1600.17629273273</v>
+        <v>849.9342581085388</v>
       </c>
       <c r="C353" t="n">
-        <v>1600176292.73273</v>
+        <v>849934258.1085387</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>1601.205883677532</v>
+        <v>850.3326314775759</v>
       </c>
       <c r="C354" t="n">
-        <v>1601205883.677532</v>
+        <v>850332631.4775759</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>1602.231050330855</v>
+        <v>850.7292234575179</v>
       </c>
       <c r="C355" t="n">
-        <v>1602231050.330855</v>
+        <v>850729223.457518</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>1603.251833348263</v>
+        <v>851.1240507283921</v>
       </c>
       <c r="C356" t="n">
-        <v>1603251833.348263</v>
+        <v>851124050.7283921</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>1604.268272814782</v>
+        <v>851.5171297332444</v>
       </c>
       <c r="C357" t="n">
-        <v>1604268272.814782</v>
+        <v>851517129.7332444</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>1605.280408255648</v>
+        <v>851.9084766826422</v>
       </c>
       <c r="C358" t="n">
-        <v>1605280408.255648</v>
+        <v>851908476.6826422</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>1606.288278646793</v>
+        <v>852.2981075590723</v>
       </c>
       <c r="C359" t="n">
-        <v>1606288278.646793</v>
+        <v>852298107.5590723</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>1607.291922425093</v>
+        <v>852.6860381212323</v>
       </c>
       <c r="C360" t="n">
-        <v>1607291922.425093</v>
+        <v>852686038.1212323</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>1608.29137749837</v>
+        <v>853.0722839082232</v>
       </c>
       <c r="C361" t="n">
-        <v>1608291377.49837</v>
+        <v>853072283.9082232</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>1609.286681255166</v>
+        <v>853.4568602436433</v>
       </c>
       <c r="C362" t="n">
-        <v>1609286681.255166</v>
+        <v>853456860.2436433</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>1610.277870574286</v>
+        <v>853.8397822395855</v>
       </c>
       <c r="C363" t="n">
-        <v>1610277870.574286</v>
+        <v>853839782.2395855</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>1611.264981834129</v>
+        <v>854.2210648005439</v>
       </c>
       <c r="C364" t="n">
-        <v>1611264981.834129</v>
+        <v>854221064.8005439</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>1612.248050921796</v>
+        <v>854.6007226272275</v>
       </c>
       <c r="C365" t="n">
-        <v>1612248050.921796</v>
+        <v>854600722.6272274</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>1613.227113241998</v>
+        <v>854.97877022029</v>
       </c>
       <c r="C366" t="n">
-        <v>1613227113.241998</v>
+        <v>854978770.2202901</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>1614.202203725757</v>
+        <v>855.3552218839706</v>
       </c>
       <c r="C367" t="n">
-        <v>1614202203.725757</v>
+        <v>855355221.8839705</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>1615.173356838913</v>
+        <v>855.7300917296543</v>
       </c>
       <c r="C368" t="n">
-        <v>1615173356.838913</v>
+        <v>855730091.7296543</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>1616.140606590436</v>
+        <v>856.1033936793503</v>
       </c>
       <c r="C369" t="n">
-        <v>1616140606.590436</v>
+        <v>856103393.6793504</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>1617.103986540558</v>
+        <v>856.4751414690932</v>
       </c>
       <c r="C370" t="n">
-        <v>1617103986.540558</v>
+        <v>856475141.4690932</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>1618.063529808718</v>
+        <v>856.845348652266</v>
       </c>
       <c r="C371" t="n">
-        <v>1618063529.808718</v>
+        <v>856845348.652266</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>1619.019269081334</v>
+        <v>857.2140286028508</v>
       </c>
       <c r="C372" t="n">
-        <v>1619019269.081334</v>
+        <v>857214028.6028508</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>1619.971236619403</v>
+        <v>857.5811945186056</v>
       </c>
       <c r="C373" t="n">
-        <v>1619971236.619403</v>
+        <v>857581194.5186056</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>1620.91946426593</v>
+        <v>857.9468594241719</v>
       </c>
       <c r="C374" t="n">
-        <v>1620919464.26593</v>
+        <v>857946859.4241718</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>1621.863983453203</v>
+        <v>858.3110361741134</v>
       </c>
       <c r="C375" t="n">
-        <v>1621863983.453203</v>
+        <v>858311036.1741134</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>1622.804825209899</v>
+        <v>858.6737374558871</v>
       </c>
       <c r="C376" t="n">
-        <v>1622804825.209899</v>
+        <v>858673737.4558871</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>1623.742020168045</v>
+        <v>859.0349757927513</v>
       </c>
       <c r="C377" t="n">
-        <v>1623742020.168045</v>
+        <v>859034975.7927513</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>1624.675598569823</v>
+        <v>859.3947635466089</v>
       </c>
       <c r="C378" t="n">
-        <v>1624675598.569823</v>
+        <v>859394763.5466089</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>1625.605590274228</v>
+        <v>859.7531129207896</v>
       </c>
       <c r="C379" t="n">
-        <v>1625605590.274229</v>
+        <v>859753112.9207896</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>1626.532024763593</v>
+        <v>860.1100359627719</v>
       </c>
       <c r="C380" t="n">
-        <v>1626532024.763593</v>
+        <v>860110035.9627719</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>1627.454931149961</v>
+        <v>860.4655445668468</v>
       </c>
       <c r="C381" t="n">
-        <v>1627454931.149961</v>
+        <v>860465544.5668468</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>1628.374338181331</v>
+        <v>860.8196504767254</v>
       </c>
       <c r="C382" t="n">
-        <v>1628374338.181331</v>
+        <v>860819650.4767255</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>1629.290274247769</v>
+        <v>861.1723652880891</v>
       </c>
       <c r="C383" t="n">
-        <v>1629290274.247769</v>
+        <v>861172365.288089</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>1630.202767387395</v>
+        <v>861.5237004510875</v>
       </c>
       <c r="C384" t="n">
-        <v>1630202767.387395</v>
+        <v>861523700.4510875</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>1631.111845292235</v>
+        <v>861.873667272783</v>
       </c>
       <c r="C385" t="n">
-        <v>1631111845.292235</v>
+        <v>861873667.272783</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>1632.017535313961</v>
+        <v>862.2222769195436</v>
       </c>
       <c r="C386" t="n">
-        <v>1632017535.313961</v>
+        <v>862222276.9195435</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>1632.919864469505</v>
+        <v>862.5695404193866</v>
       </c>
       <c r="C387" t="n">
-        <v>1632919864.469506</v>
+        <v>862569540.4193866</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>1633.818859446564</v>
+        <v>862.9154686642725</v>
       </c>
       <c r="C388" t="n">
-        <v>1633818859.446564</v>
+        <v>862915468.6642724</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>1634.714546608978</v>
+        <v>863.2600724123515</v>
       </c>
       <c r="C389" t="n">
-        <v>1634714546.608978</v>
+        <v>863260072.4123515</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>1635.606952002017</v>
+        <v>863.6033622901655</v>
       </c>
       <c r="C390" t="n">
-        <v>1635606952.002017</v>
+        <v>863603362.2901654</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>1636.496101357545</v>
+        <v>863.9453487948006</v>
       </c>
       <c r="C391" t="n">
-        <v>1636496101.357545</v>
+        <v>863945348.7948005</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>1637.382020099082</v>
+        <v>864.2860422960003</v>
       </c>
       <c r="C392" t="n">
-        <v>1637382020.099082</v>
+        <v>864286042.2960004</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>1638.26473334677</v>
+        <v>864.6254530382321</v>
       </c>
       <c r="C393" t="n">
-        <v>1638264733.34677</v>
+        <v>864625453.0382321</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>1639.144265922231</v>
+        <v>864.963591142714</v>
       </c>
       <c r="C394" t="n">
-        <v>1639144265.922231</v>
+        <v>864963591.142714</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>1640.020642353333</v>
+        <v>865.3004666093996</v>
       </c>
       <c r="C395" t="n">
-        <v>1640020642.353333</v>
+        <v>865300466.6093996</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>1640.893886878856</v>
+        <v>865.6360893189217</v>
       </c>
       <c r="C396" t="n">
-        <v>1640893886.878856</v>
+        <v>865636089.3189217</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>1641.764023453068</v>
+        <v>865.9704690345001</v>
       </c>
       <c r="C397" t="n">
-        <v>1641764023.453068</v>
+        <v>865970469.0345001</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>1642.631075750212</v>
+        <v>866.3036154038082</v>
       </c>
       <c r="C398" t="n">
-        <v>1642631075.750212</v>
+        <v>866303615.4038082</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>1643.495067168901</v>
+        <v>866.6355379608038</v>
       </c>
       <c r="C399" t="n">
-        <v>1643495067.168901</v>
+        <v>866635537.9608039</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>1644.356020836424</v>
+        <v>866.9662461275238</v>
       </c>
       <c r="C400" t="n">
-        <v>1644356020.836424</v>
+        <v>866966246.1275239</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>1645.213959612976</v>
+        <v>867.2957492158431</v>
       </c>
       <c r="C401" t="n">
-        <v>1645213959.612976</v>
+        <v>867295749.2158431</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>1646.0689060958</v>
+        <v>867.6240564291987</v>
       </c>
       <c r="C402" t="n">
-        <v>1646068906.0958</v>
+        <v>867624056.4291987</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>1646.920882623247</v>
+        <v>867.9511768642802</v>
       </c>
       <c r="C403" t="n">
-        <v>1646920882.623247</v>
+        <v>867951176.8642802</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>1647.76991127876</v>
+        <v>868.2771195126883</v>
       </c>
       <c r="C404" t="n">
-        <v>1647769911.278759</v>
+        <v>868277119.5126883</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>1648.616013894781</v>
+        <v>868.601893262559</v>
       </c>
       <c r="C405" t="n">
-        <v>1648616013.894781</v>
+        <v>868601893.2625589</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>1649.459212056585</v>
+        <v>868.9255069001587</v>
       </c>
       <c r="C406" t="n">
-        <v>1649459212.056585</v>
+        <v>868925506.9001586</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>1650.299527106035</v>
+        <v>869.2479691114463</v>
       </c>
       <c r="C407" t="n">
-        <v>1650299527.106035</v>
+        <v>869247969.1114463</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>1651.136980145269</v>
+        <v>869.5692884836075</v>
       </c>
       <c r="C408" t="n">
-        <v>1651136980.145269</v>
+        <v>869569288.4836074</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>1651.971592040317</v>
+        <v>869.8894735065584</v>
       </c>
       <c r="C409" t="n">
-        <v>1651971592.040317</v>
+        <v>869889473.5065584</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>1652.803383424654</v>
+        <v>870.2085325744201</v>
       </c>
       <c r="C410" t="n">
-        <v>1652803383.424654</v>
+        <v>870208532.5744201</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>1653.632374702672</v>
+        <v>870.5264739869669</v>
       </c>
       <c r="C411" t="n">
-        <v>1653632374.702672</v>
+        <v>870526473.986967</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>1654.458586053106</v>
+        <v>870.8433059510461</v>
       </c>
       <c r="C412" t="n">
-        <v>1654458586.053106</v>
+        <v>870843305.9510461</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>1655.282037432378</v>
+        <v>871.1590365819698</v>
       </c>
       <c r="C413" t="n">
-        <v>1655282037.432378</v>
+        <v>871159036.5819697</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>1656.102748577892</v>
+        <v>871.4736739048841</v>
       </c>
       <c r="C414" t="n">
-        <v>1656102748.577893</v>
+        <v>871473673.9048841</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>1656.920739011263</v>
+        <v>871.7872258561091</v>
       </c>
       <c r="C415" t="n">
-        <v>1656920739.011263</v>
+        <v>871787225.8561091</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>1657.736028041482</v>
+        <v>872.0997002844556</v>
       </c>
       <c r="C416" t="n">
-        <v>1657736028.041482</v>
+        <v>872099700.2844555</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>1658.548634768031</v>
+        <v>872.411104952518</v>
       </c>
       <c r="C417" t="n">
-        <v>1658548634.768031</v>
+        <v>872411104.952518</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>1659.358578083933</v>
+        <v>872.7214475379413</v>
       </c>
       <c r="C418" t="n">
-        <v>1659358578.083934</v>
+        <v>872721447.5379413</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>1660.165876678755</v>
+        <v>873.0307356346669</v>
       </c>
       <c r="C419" t="n">
-        <v>1660165876.678755</v>
+        <v>873030735.6346669</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>1660.970549041545</v>
+        <v>873.3389767541548</v>
       </c>
       <c r="C420" t="n">
-        <v>1660970549.041545</v>
+        <v>873338976.7541548</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>1661.772613463728</v>
+        <v>873.6461783265822</v>
       </c>
       <c r="C421" t="n">
-        <v>1661772613.463728</v>
+        <v>873646178.3265822</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>1662.57208804194</v>
+        <v>873.9523477020226</v>
       </c>
       <c r="C422" t="n">
-        <v>1662572088.04194</v>
+        <v>873952347.7020227</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>1663.368990680815</v>
+        <v>874.2574921516015</v>
       </c>
       <c r="C423" t="n">
-        <v>1663368990.680815</v>
+        <v>874257492.1516014</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>1664.163339095722</v>
+        <v>874.5616188686326</v>
       </c>
       <c r="C424" t="n">
-        <v>1664163339.095722</v>
+        <v>874561618.8686327</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>1664.955150815456</v>
+        <v>874.8647349697331</v>
       </c>
       <c r="C425" t="n">
-        <v>1664955150.815456</v>
+        <v>874864734.9697331</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>1665.744443184873</v>
+        <v>875.1668474959176</v>
       </c>
       <c r="C426" t="n">
-        <v>1665744443.184873</v>
+        <v>875166847.4959177</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>1666.531233367484</v>
+        <v>875.4679634136758</v>
       </c>
       <c r="C427" t="n">
-        <v>1666531233.367484</v>
+        <v>875467963.4136758</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>1667.315538348007</v>
+        <v>875.7680896160269</v>
       </c>
       <c r="C428" t="n">
-        <v>1667315538.348007</v>
+        <v>875768089.616027</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>1668.097374934863</v>
+        <v>876.0672329235589</v>
       </c>
       <c r="C429" t="n">
-        <v>1668097374.934863</v>
+        <v>876067232.9235588</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>1668.876759762637</v>
+        <v>876.3654000854472</v>
       </c>
       <c r="C430" t="n">
-        <v>1668876759.762636</v>
+        <v>876365400.0854472</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>1669.653709294495</v>
+        <v>876.6625977804557</v>
       </c>
       <c r="C431" t="n">
-        <v>1669653709.294495</v>
+        <v>876662597.7804557</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>1670.428239824557</v>
+        <v>876.9588326179219</v>
       </c>
       <c r="C432" t="n">
-        <v>1670428239.824557</v>
+        <v>876958832.6179218</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>1671.200367480228</v>
+        <v>877.2541111387222</v>
       </c>
       <c r="C433" t="n">
-        <v>1671200367.480228</v>
+        <v>877254111.1387222</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>1671.970108224488</v>
+        <v>877.5484398162225</v>
       </c>
       <c r="C434" t="n">
-        <v>1671970108.224488</v>
+        <v>877548439.8162225</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>1672.73747785815</v>
+        <v>877.8418250572109</v>
       </c>
       <c r="C435" t="n">
-        <v>1672737477.85815</v>
+        <v>877841825.0572109</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>1673.502492022068</v>
+        <v>878.1342732028161</v>
       </c>
       <c r="C436" t="n">
-        <v>1673502492.022068</v>
+        <v>878134273.2028161</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>1674.265166199316</v>
+        <v>878.4257905294069</v>
       </c>
       <c r="C437" t="n">
-        <v>1674265166.199316</v>
+        <v>878425790.5294069</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>1675.025515717325</v>
+        <v>878.7163832494793</v>
       </c>
       <c r="C438" t="n">
-        <v>1675025515.717325</v>
+        <v>878716383.2494793</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>1675.783555749987</v>
+        <v>879.0060575125275</v>
       </c>
       <c r="C439" t="n">
-        <v>1675783555.749988</v>
+        <v>879006057.5125275</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>1676.53930131972</v>
+        <v>879.2948194058981</v>
       </c>
       <c r="C440" t="n">
-        <v>1676539301.31972</v>
+        <v>879294819.4058981</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>1677.292767299502</v>
+        <v>879.5826749556334</v>
       </c>
       <c r="C441" t="n">
-        <v>1677292767.299502</v>
+        <v>879582674.9556334</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>1678.043968414865</v>
+        <v>879.8696301272969</v>
       </c>
       <c r="C442" t="n">
-        <v>1678043968.414865</v>
+        <v>879869630.1272969</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>1678.792919245861</v>
+        <v>880.155690826787</v>
       </c>
       <c r="C443" t="n">
-        <v>1678792919.245862</v>
+        <v>880155690.826787</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>1679.539634228998</v>
+        <v>880.4408629011366</v>
       </c>
       <c r="C444" t="n">
-        <v>1679539634.228998</v>
+        <v>880440862.9011366</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>1680.284127659129</v>
+        <v>880.7251521392984</v>
       </c>
       <c r="C445" t="n">
-        <v>1680284127.659129</v>
+        <v>880725152.1392984</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>1681.02641369133</v>
+        <v>881.0085642729182</v>
       </c>
       <c r="C446" t="n">
-        <v>1681026413.69133</v>
+        <v>881008564.2729182</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>1681.766506342731</v>
+        <v>881.2911049770946</v>
       </c>
       <c r="C447" t="n">
-        <v>1681766506.342731</v>
+        <v>881291104.9770947</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>1682.504419494322</v>
+        <v>881.572779871127</v>
       </c>
       <c r="C448" t="n">
-        <v>1682504419.494322</v>
+        <v>881572779.871127</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>1683.240166892735</v>
+        <v>881.8535945192499</v>
       </c>
       <c r="C449" t="n">
-        <v>1683240166.892735</v>
+        <v>881853594.5192499</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>1683.973762151985</v>
+        <v>882.1335544313554</v>
       </c>
       <c r="C450" t="n">
-        <v>1683973762.151985</v>
+        <v>882133554.4313554</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>1684.705218755196</v>
+        <v>882.4126650637055</v>
       </c>
       <c r="C451" t="n">
-        <v>1684705218.755196</v>
+        <v>882412665.0637054</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>1685.434550056286</v>
+        <v>882.6909318196304</v>
       </c>
       <c r="C452" t="n">
-        <v>1685434550.056286</v>
+        <v>882690931.8196304</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>1686.161769281636</v>
+        <v>882.9683600502166</v>
       </c>
       <c r="C453" t="n">
-        <v>1686161769.281636</v>
+        <v>882968360.0502166</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>1686.886889531723</v>
+        <v>883.2449550549836</v>
       </c>
       <c r="C454" t="n">
-        <v>1686886889.531723</v>
+        <v>883244955.0549836</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>1687.609923782735</v>
+        <v>883.5207220825504</v>
       </c>
       <c r="C455" t="n">
-        <v>1687609923.782735</v>
+        <v>883520722.0825504</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>1688.330884888152</v>
+        <v>883.7956663312892</v>
       </c>
       <c r="C456" t="n">
-        <v>1688330884.888152</v>
+        <v>883795666.3312892</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>1689.049785580306</v>
+        <v>884.0697929499711</v>
       </c>
       <c r="C457" t="n">
-        <v>1689049785.580306</v>
+        <v>884069792.9499711</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>1689.766638471918</v>
+        <v>884.3431070383994</v>
       </c>
       <c r="C458" t="n">
-        <v>1689766638.471918</v>
+        <v>884343107.0383993</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>1690.481456057606</v>
+        <v>884.6156136480332</v>
       </c>
       <c r="C459" t="n">
-        <v>1690481456.057606</v>
+        <v>884615613.6480333</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>1691.194250715373</v>
+        <v>884.8873177826032</v>
       </c>
       <c r="C460" t="n">
-        <v>1691194250.715373</v>
+        <v>884887317.7826031</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>1691.905034708065</v>
+        <v>885.1582243987136</v>
       </c>
       <c r="C461" t="n">
-        <v>1691905034.708065</v>
+        <v>885158224.3987136</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>1692.613820184821</v>
+        <v>885.4283384064386</v>
       </c>
       <c r="C462" t="n">
-        <v>1692613820.184821</v>
+        <v>885428338.4064386</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>1693.320619182478</v>
+        <v>885.6976646699061</v>
       </c>
       <c r="C463" t="n">
-        <v>1693320619.182478</v>
+        <v>885697664.6699061</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>1694.025443626975</v>
+        <v>885.9662080078757</v>
       </c>
       <c r="C464" t="n">
-        <v>1694025443.626975</v>
+        <v>885966208.0078757</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>1694.728305334724</v>
+        <v>886.2339731943036</v>
       </c>
       <c r="C465" t="n">
-        <v>1694728305.334724</v>
+        <v>886233973.1943036</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>1695.42921601396</v>
+        <v>886.5009649589022</v>
       </c>
       <c r="C466" t="n">
-        <v>1695429216.01396</v>
+        <v>886500964.9589021</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>1696.128187266073</v>
+        <v>886.7671879876885</v>
       </c>
       <c r="C467" t="n">
-        <v>1696128187.266073</v>
+        <v>886767187.9876885</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>1696.82523058692</v>
+        <v>887.0326469235264</v>
       </c>
       <c r="C468" t="n">
-        <v>1696825230.58692</v>
+        <v>887032646.9235264</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>1697.520357368115</v>
+        <v>887.2973463666573</v>
       </c>
       <c r="C469" t="n">
-        <v>1697520357.368115</v>
+        <v>887297346.3666573</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>1698.213578898298</v>
+        <v>887.561290875226</v>
       </c>
       <c r="C470" t="n">
-        <v>1698213578.898298</v>
+        <v>887561290.8752259</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>1698.904906364387</v>
+        <v>887.8244849657958</v>
       </c>
       <c r="C471" t="n">
-        <v>1698904906.364387</v>
+        <v>887824484.9657959</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>1699.594350852812</v>
+        <v>888.0869331138582</v>
       </c>
       <c r="C472" t="n">
-        <v>1699594350.852812</v>
+        <v>888086933.1138582</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>1700.281923350723</v>
+        <v>888.3486397543312</v>
       </c>
       <c r="C473" t="n">
-        <v>1700281923.350724</v>
+        <v>888348639.7543312</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>1700.967634747193</v>
+        <v>888.6096092820541</v>
       </c>
       <c r="C474" t="n">
-        <v>1700967634.747193</v>
+        <v>888609609.2820541</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>1701.651495834388</v>
+        <v>888.8698460522718</v>
       </c>
       <c r="C475" t="n">
-        <v>1701651495.834388</v>
+        <v>888869846.0522717</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>1702.333517308729</v>
+        <v>889.1293543811137</v>
       </c>
       <c r="C476" t="n">
-        <v>1702333517.308729</v>
+        <v>889129354.3811136</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>1703.013709772035</v>
+        <v>889.388138546063</v>
       </c>
       <c r="C477" t="n">
-        <v>1703013709.772035</v>
+        <v>889388138.5460631</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>1703.692083732643</v>
+        <v>889.6462027864225</v>
       </c>
       <c r="C478" t="n">
-        <v>1703692083.732643</v>
+        <v>889646202.7864225</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>1704.368649606523</v>
+        <v>889.9035513037687</v>
       </c>
       <c r="C479" t="n">
-        <v>1704368649.606523</v>
+        <v>889903551.3037688</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>1705.043417718364</v>
+        <v>890.1601882624043</v>
       </c>
       <c r="C480" t="n">
-        <v>1705043417.718364</v>
+        <v>890160188.2624043</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>1705.716398302653</v>
+        <v>890.4161177897995</v>
       </c>
       <c r="C481" t="n">
-        <v>1705716398.302653</v>
+        <v>890416117.7897995</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>1706.387601504729</v>
+        <v>890.6713439770292</v>
       </c>
       <c r="C482" t="n">
-        <v>1706387601.504729</v>
+        <v>890671343.9770292</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>1707.057037381834</v>
+        <v>890.9258708792034</v>
       </c>
       <c r="C483" t="n">
-        <v>1707057037.381834</v>
+        <v>890925870.8792034</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>1707.724715904136</v>
+        <v>891.1797025158902</v>
       </c>
       <c r="C484" t="n">
-        <v>1707724715.904136</v>
+        <v>891179702.5158902</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>1708.390646955745</v>
+        <v>891.4328428715337</v>
       </c>
       <c r="C485" t="n">
-        <v>1708390646.955745</v>
+        <v>891432842.8715338</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>1709.054840335709</v>
+        <v>891.6852958958655</v>
       </c>
       <c r="C486" t="n">
-        <v>1709054840.335709</v>
+        <v>891685295.8958654</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>1709.717305759004</v>
+        <v>891.9370655043092</v>
       </c>
       <c r="C487" t="n">
-        <v>1709717305.759004</v>
+        <v>891937065.5043092</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>1710.378052857496</v>
+        <v>892.1881555783812</v>
       </c>
       <c r="C488" t="n">
-        <v>1710378052.857496</v>
+        <v>892188155.5783812</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>1711.037091180903</v>
+        <v>892.4385699660824</v>
       </c>
       <c r="C489" t="n">
-        <v>1711037091.180902</v>
+        <v>892438569.9660823</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>1711.694430197731</v>
+        <v>892.6883124822874</v>
       </c>
       <c r="C490" t="n">
-        <v>1711694430.197731</v>
+        <v>892688312.4822874</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>1712.350079296211</v>
+        <v>892.9373869091265</v>
       </c>
       <c r="C491" t="n">
-        <v>1712350079.296211</v>
+        <v>892937386.9091265</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>1713.004047785205</v>
+        <v>893.1857969963618</v>
       </c>
       <c r="C492" t="n">
-        <v>1713004047.785205</v>
+        <v>893185796.9963617</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>1714.306979778764</v>
+        <v>893.680638991452</v>
       </c>
       <c r="C493" t="n">
-        <v>1714306979.778764</v>
+        <v>893680638.9914521</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>1715.603299095973</v>
+        <v>894.1728678322738</v>
       </c>
       <c r="C494" t="n">
-        <v>1715603299.095973</v>
+        <v>894172867.8322738</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>1716.893077440969</v>
+        <v>894.66251238887</v>
       </c>
       <c r="C495" t="n">
-        <v>1716893077.440969</v>
+        <v>894662512.38887</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>1718.176385331527</v>
+        <v>895.1496010477484</v>
       </c>
       <c r="C496" t="n">
-        <v>1718176385.331527</v>
+        <v>895149601.0477484</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>1719.453292125384</v>
+        <v>895.6341617227042</v>
       </c>
       <c r="C497" t="n">
-        <v>1719453292.125385</v>
+        <v>895634161.7227042</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>1720.723866045818</v>
+        <v>896.1162218653419</v>
       </c>
       <c r="C498" t="n">
-        <v>1720723866.045818</v>
+        <v>896116221.8653419</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>1721.988174206525</v>
+        <v>896.5958084753031</v>
       </c>
       <c r="C499" t="n">
-        <v>1721988174.206525</v>
+        <v>896595808.4753031</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>1723.246282635823</v>
+        <v>897.0729481102127</v>
       </c>
       <c r="C500" t="n">
-        <v>1723246282.635823</v>
+        <v>897072948.1102127</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>1724.498256300179</v>
+        <v>897.5476668953512</v>
       </c>
       <c r="C501" t="n">
-        <v>1724498256.300179</v>
+        <v>897547666.8953512</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>1725.744159127115</v>
+        <v>898.0199905330624</v>
       </c>
       <c r="C502" t="n">
-        <v>1725744159.127115</v>
+        <v>898019990.5330623</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>1726.98405402748</v>
+        <v>898.4899443119062</v>
       </c>
       <c r="C503" t="n">
-        <v>1726984054.02748</v>
+        <v>898489944.3119062</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>1728.218002917135</v>
+        <v>898.9575531155637</v>
       </c>
       <c r="C504" t="n">
-        <v>1728218002.917135</v>
+        <v>898957553.1155636</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>1729.446066738058</v>
+        <v>899.4228414315014</v>
       </c>
       <c r="C505" t="n">
-        <v>1729446066.738058</v>
+        <v>899422841.4315014</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>1730.66830547888</v>
+        <v>899.885833359407</v>
       </c>
       <c r="C506" t="n">
-        <v>1730668305.47888</v>
+        <v>899885833.3594069</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>1731.884778194895</v>
+        <v>900.3465526193977</v>
       </c>
       <c r="C507" t="n">
-        <v>1731884778.194895</v>
+        <v>900346552.6193976</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>1733.095543027524</v>
+        <v>900.8050225600124</v>
       </c>
       <c r="C508" t="n">
-        <v>1733095543.027524</v>
+        <v>900805022.5600123</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>1734.300657223292</v>
+        <v>901.2612661659954</v>
       </c>
       <c r="C509" t="n">
-        <v>1734300657.223292</v>
+        <v>901261266.1659954</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>1735.500177152295</v>
+        <v>901.7153060658731</v>
       </c>
       <c r="C510" t="n">
-        <v>1735500177.152295</v>
+        <v>901715306.065873</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>1736.6941583262</v>
+        <v>902.1671645393367</v>
       </c>
       <c r="C511" t="n">
-        <v>1736694158.3262</v>
+        <v>902167164.5393367</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>1737.882655415777</v>
+        <v>902.6168635244321</v>
       </c>
       <c r="C512" t="n">
-        <v>1737882655.415777</v>
+        <v>902616863.5244321</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>1739.065722267988</v>
+        <v>903.0644246245645</v>
       </c>
       <c r="C513" t="n">
-        <v>1739065722.267988</v>
+        <v>903064424.6245645</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>1740.243411922632</v>
+        <v>903.5098691153242</v>
       </c>
       <c r="C514" t="n">
-        <v>1740243411.922632</v>
+        <v>903509869.1153243</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>1741.415776628581</v>
+        <v>903.9532179511389</v>
       </c>
       <c r="C515" t="n">
-        <v>1741415776.628581</v>
+        <v>903953217.9511389</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>1742.582867859598</v>
+        <v>904.3944917717552</v>
       </c>
       <c r="C516" t="n">
-        <v>1742582867.859598</v>
+        <v>904394491.7717551</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>1743.744736329762</v>
+        <v>904.8337109085597</v>
       </c>
       <c r="C517" t="n">
-        <v>1743744736.329762</v>
+        <v>904833710.9085597</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>1744.901432008511</v>
+        <v>905.270895390739</v>
       </c>
       <c r="C518" t="n">
-        <v>1744901432.008511</v>
+        <v>905270895.3907391</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>1746.053004135308</v>
+        <v>905.7060649512862</v>
       </c>
       <c r="C519" t="n">
-        <v>1746053004.135308</v>
+        <v>905706064.9512862</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>1747.199501233946</v>
+        <v>906.1392390328599</v>
       </c>
       <c r="C520" t="n">
-        <v>1747199501.233946</v>
+        <v>906139239.0328599</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>1748.340971126507</v>
+        <v>906.5704367934968</v>
       </c>
       <c r="C521" t="n">
-        <v>1748340971.126507</v>
+        <v>906570436.7934968</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>1749.477460946972</v>
+        <v>906.9996771121837</v>
       </c>
       <c r="C522" t="n">
-        <v>1749477460.946972</v>
+        <v>906999677.1121837</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>1751.73568554643</v>
+        <v>907.8523595768933</v>
       </c>
       <c r="C523" t="n">
-        <v>1751735685.54643</v>
+        <v>907852359.5768932</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>1753.974538839028</v>
+        <v>908.6974320811922</v>
       </c>
       <c r="C524" t="n">
-        <v>1753974538.839028</v>
+        <v>908697432.0811923</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>1756.194374439458</v>
+        <v>909.5350361489782</v>
       </c>
       <c r="C525" t="n">
-        <v>1756194374.439458</v>
+        <v>909535036.1489782</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>1758.395536151687</v>
+        <v>910.3653093297544</v>
       </c>
       <c r="C526" t="n">
-        <v>1758395536.151687</v>
+        <v>910365309.3297544</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>1760.578358332464</v>
+        <v>911.1883853472217</v>
       </c>
       <c r="C527" t="n">
-        <v>1760578358.332464</v>
+        <v>911188385.3472217</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>1762.743166238038</v>
+        <v>912.004394240957</v>
       </c>
       <c r="C528" t="n">
-        <v>1762743166.238038</v>
+        <v>912004394.240957</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>1764.89027635502</v>
+        <v>912.8134625015643</v>
       </c>
       <c r="C529" t="n">
-        <v>1764890276.35502</v>
+        <v>912813462.5015644</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>1767.01999671624</v>
+        <v>913.6157131996561</v>
       </c>
       <c r="C530" t="n">
-        <v>1767019996.71624</v>
+        <v>913615713.199656</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>1769.13262720243</v>
+        <v>914.4112661090004</v>
       </c>
       <c r="C531" t="n">
-        <v>1769132627.20243</v>
+        <v>914411266.1090004</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>1771.228459830473</v>
+        <v>915.2002378241511</v>
       </c>
       <c r="C532" t="n">
-        <v>1771228459.830473</v>
+        <v>915200237.8241512</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>1773.307779028952</v>
+        <v>915.9827418728514</v>
       </c>
       <c r="C533" t="n">
-        <v>1773307779.028952</v>
+        <v>915982741.8728514</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>1775.370861901651</v>
+        <v>916.758888823493</v>
       </c>
       <c r="C534" t="n">
-        <v>1775370861.901651</v>
+        <v>916758888.823493</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>1777.417978479648</v>
+        <v>917.5287863878859</v>
       </c>
       <c r="C535" t="n">
-        <v>1777417978.479648</v>
+        <v>917528786.3878859</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>1779.449391962582</v>
+        <v>918.2925395195863</v>
       </c>
       <c r="C536" t="n">
-        <v>1779449391.962582</v>
+        <v>918292539.5195863</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>1781.465358949663</v>
+        <v>919.0502505080098</v>
       </c>
       <c r="C537" t="n">
-        <v>1781465358.949663</v>
+        <v>919050250.5080098</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>1783.466129660923</v>
+        <v>919.8020190685459</v>
       </c>
       <c r="C538" t="n">
-        <v>1783466129.660923</v>
+        <v>919802019.0685458</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>1785.451948149229</v>
+        <v>920.5479424288781</v>
       </c>
       <c r="C539" t="n">
-        <v>1785451948.149229</v>
+        <v>920547942.4288781</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>1787.423052503493</v>
+        <v>921.2881154116966</v>
       </c>
       <c r="C540" t="n">
-        <v>1787423052.503493</v>
+        <v>921288115.4116966</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>1789.379675043535</v>
+        <v>922.0226305139886</v>
       </c>
       <c r="C541" t="n">
-        <v>1789379675.043535</v>
+        <v>922022630.5139886</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>1791.322042506993</v>
+        <v>922.7515779830702</v>
       </c>
       <c r="C542" t="n">
-        <v>1791322042.506993</v>
+        <v>922751577.9830703</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>1793.250376228688</v>
+        <v>923.4750458895242</v>
       </c>
       <c r="C543" t="n">
-        <v>1793250376.228688</v>
+        <v>923475045.8895241</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>1795.164892312784</v>
+        <v>924.19312019719</v>
       </c>
       <c r="C544" t="n">
-        <v>1795164892.312784</v>
+        <v>924193120.1971899</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>1797.065801798106</v>
+        <v>924.9058848303522</v>
       </c>
       <c r="C545" t="n">
-        <v>1797065801.798106</v>
+        <v>924905884.8303522</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>1798.953310816942</v>
+        <v>925.613421738258</v>
       </c>
       <c r="C546" t="n">
-        <v>1798953310.816942</v>
+        <v>925613421.738258</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>1800.827620747617</v>
+        <v>926.3158109570916</v>
       </c>
       <c r="C547" t="n">
-        <v>1800827620.747617</v>
+        <v>926315810.9570916</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>1802.688928361159</v>
+        <v>927.0131306695263</v>
       </c>
       <c r="C548" t="n">
-        <v>1802688928.361159</v>
+        <v>927013130.6695262</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>1804.537425962304</v>
+        <v>927.7054572619664</v>
       </c>
       <c r="C549" t="n">
-        <v>1804537425.962304</v>
+        <v>927705457.2619665</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>1806.373301525124</v>
+        <v>928.3928653795861</v>
       </c>
       <c r="C550" t="n">
-        <v>1806373301.525124</v>
+        <v>928392865.3795861</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>1808.1967388235</v>
+        <v>929.0754279792651</v>
       </c>
       <c r="C551" t="n">
-        <v>1808196738.8235</v>
+        <v>929075427.9792651</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>1810.0079175567</v>
+        <v>929.7532163805214</v>
       </c>
       <c r="C552" t="n">
-        <v>1810007917.5567</v>
+        <v>929753216.3805214</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>1811.807013470257</v>
+        <v>930.4263003145263</v>
       </c>
       <c r="C553" t="n">
-        <v>1811807013.470257</v>
+        <v>930426300.3145263</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>1813.594198472378</v>
+        <v>931.0947479712914</v>
       </c>
       <c r="C554" t="n">
-        <v>1813594198.472378</v>
+        <v>931094747.9712914</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>1815.369640746065</v>
+        <v>931.7586260451086</v>
       </c>
       <c r="C555" t="n">
-        <v>1815369640.746065</v>
+        <v>931758626.0451086</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>1817.133504857152</v>
+        <v>932.4179997783185</v>
       </c>
       <c r="C556" t="n">
-        <v>1817133504.857152</v>
+        <v>932417999.7783185</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>1818.885951858419</v>
+        <v>933.072933003484</v>
       </c>
       <c r="C557" t="n">
-        <v>1818885951.858419</v>
+        <v>933072933.003484</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>1820.627139389973</v>
+        <v>933.7234881840349</v>
       </c>
       <c r="C558" t="n">
-        <v>1820627139.389973</v>
+        <v>933723488.1840348</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>1822.357221776039</v>
+        <v>934.3697264534519</v>
       </c>
       <c r="C559" t="n">
-        <v>1822357221.776039</v>
+        <v>934369726.4534519</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>1824.076350118324</v>
+        <v>935.0117076530532</v>
       </c>
       <c r="C560" t="n">
-        <v>1824076350.118324</v>
+        <v>935011707.6530533</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>1825.784672386098</v>
+        <v>935.6494903684412</v>
       </c>
       <c r="C561" t="n">
-        <v>1825784672.386098</v>
+        <v>935649490.3684412</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>1827.482333503126</v>
+        <v>936.2831319646669</v>
       </c>
       <c r="C562" t="n">
-        <v>1827482333.503126</v>
+        <v>936283131.964667</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>1829.169475431588</v>
+        <v>936.9126886201688</v>
       </c>
       <c r="C563" t="n">
-        <v>1829169475.431588</v>
+        <v>936912688.6201688</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>1830.846237253109</v>
+        <v>937.5382153595307</v>
       </c>
       <c r="C564" t="n">
-        <v>1830846237.253109</v>
+        <v>937538215.3595307</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>1832.51275524702</v>
+        <v>938.1597660851158</v>
       </c>
       <c r="C565" t="n">
-        <v>1832512755.24702</v>
+        <v>938159766.0851158</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>1834.169162965958</v>
+        <v>938.7773936076164</v>
       </c>
       <c r="C566" t="n">
-        <v>1834169162.965958</v>
+        <v>938777393.6076164</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>1835.815591308925</v>
+        <v>939.3911496755667</v>
       </c>
       <c r="C567" t="n">
-        <v>1835815591.308925</v>
+        <v>939391149.6755667</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>1837.45216859189</v>
+        <v>940.0010850038612</v>
       </c>
       <c r="C568" t="n">
-        <v>1837452168.59189</v>
+        <v>940001085.0038613</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>1839.079020616051</v>
+        <v>940.6072493013169</v>
       </c>
       <c r="C569" t="n">
-        <v>1839079020.616051</v>
+        <v>940607249.3013169</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>1840.696270733844</v>
+        <v>941.2096912973193</v>
       </c>
       <c r="C570" t="n">
-        <v>1840696270.733844</v>
+        <v>941209691.2973193</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>1842.304039912776</v>
+        <v>941.8084587675875</v>
       </c>
       <c r="C571" t="n">
-        <v>1842304039.912776</v>
+        <v>941808458.7675874</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>1843.902446797193</v>
+        <v>942.4035985590939</v>
       </c>
       <c r="C572" t="n">
-        <v>1843902446.797193</v>
+        <v>942403598.559094</v>
       </c>
     </row>
   </sheetData>

--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/14/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>392.9386746603383</v>
+        <v>622.7152739161653</v>
       </c>
       <c r="C2" t="n">
-        <v>392938674.6603383</v>
+        <v>622715273.9161654</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>478.3174457947321</v>
+        <v>761.7974081624711</v>
       </c>
       <c r="C3" t="n">
-        <v>478317445.7947321</v>
+        <v>761797408.1624712</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>507.5833966652828</v>
+        <v>818.3848317799187</v>
       </c>
       <c r="C4" t="n">
-        <v>507583396.6652828</v>
+        <v>818384831.7799187</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>526.2833671775833</v>
+        <v>855.7341130766413</v>
       </c>
       <c r="C5" t="n">
-        <v>526283367.1775833</v>
+        <v>855734113.0766413</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>540.197357988839</v>
+        <v>883.9964387392947</v>
       </c>
       <c r="C6" t="n">
-        <v>540197357.988839</v>
+        <v>883996438.7392948</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>551.3437125032782</v>
+        <v>906.8886144991765</v>
       </c>
       <c r="C7" t="n">
-        <v>551343712.5032783</v>
+        <v>906888614.4991765</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>560.6750246229632</v>
+        <v>926.2090607186346</v>
       </c>
       <c r="C8" t="n">
-        <v>560675024.6229632</v>
+        <v>926209060.7186346</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>568.7195525047899</v>
+        <v>942.9713817413641</v>
       </c>
       <c r="C9" t="n">
-        <v>568719552.5047899</v>
+        <v>942971381.7413641</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>575.8018644643936</v>
+        <v>957.8056951483446</v>
       </c>
       <c r="C10" t="n">
-        <v>575801864.4643936</v>
+        <v>957805695.1483446</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>582.1361558208016</v>
+        <v>971.1316188398949</v>
       </c>
       <c r="C11" t="n">
-        <v>582136155.8208016</v>
+        <v>971131618.8398949</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>587.871458725687</v>
+        <v>983.2432480582845</v>
       </c>
       <c r="C12" t="n">
-        <v>587871458.725687</v>
+        <v>983243248.0582845</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>593.1157830670842</v>
+        <v>994.3550202593199</v>
       </c>
       <c r="C13" t="n">
-        <v>593115783.0670842</v>
+        <v>994355020.2593199</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>597.9499903402756</v>
+        <v>1004.628302854611</v>
       </c>
       <c r="C14" t="n">
-        <v>597949990.3402755</v>
+        <v>1004628302.854611</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>602.4362405017903</v>
+        <v>1014.187697445508</v>
       </c>
       <c r="C15" t="n">
-        <v>602436240.5017903</v>
+        <v>1014187697.445508</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>606.6233798524562</v>
+        <v>1023.131503307159</v>
       </c>
       <c r="C16" t="n">
-        <v>606623379.8524562</v>
+        <v>1023131503.307159</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>610.5505124022301</v>
+        <v>1031.538689866799</v>
       </c>
       <c r="C17" t="n">
-        <v>610550512.40223</v>
+        <v>1031538689.866799</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>614.2494448429092</v>
+        <v>1039.473692281413</v>
       </c>
       <c r="C18" t="n">
-        <v>614249444.8429091</v>
+        <v>1039473692.281413</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>617.7464071037898</v>
+        <v>1046.989800068909</v>
       </c>
       <c r="C19" t="n">
-        <v>617746407.1037898</v>
+        <v>1046989800.068909</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>621.0632922343485</v>
+        <v>1054.131608093441</v>
       </c>
       <c r="C20" t="n">
-        <v>621063292.2343485</v>
+        <v>1054131608.093441</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>624.2185686039073</v>
+        <v>1060.936825828504</v>
       </c>
       <c r="C21" t="n">
-        <v>624218568.6039073</v>
+        <v>1060936825.828504</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>627.2279633677908</v>
+        <v>1067.437637084577</v>
       </c>
       <c r="C22" t="n">
-        <v>627227963.3677908</v>
+        <v>1067437637.084577</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>630.1049829029382</v>
+        <v>1073.661738291627</v>
       </c>
       <c r="C23" t="n">
-        <v>630104982.9029382</v>
+        <v>1073661738.291627</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>632.8613148667089</v>
+        <v>1079.633142687101</v>
       </c>
       <c r="C24" t="n">
-        <v>632861314.8667089</v>
+        <v>1079633142.687101</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>635.5071428624966</v>
+        <v>1085.372811207985</v>
       </c>
       <c r="C25" t="n">
-        <v>635507142.8624966</v>
+        <v>1085372811.207985</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>638.0513956139531</v>
+        <v>1090.899153188029</v>
       </c>
       <c r="C26" t="n">
-        <v>638051395.6139531</v>
+        <v>1090899153.18803</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>640.5019463916849</v>
+        <v>1096.228427925359</v>
       </c>
       <c r="C27" t="n">
-        <v>640501946.3916849</v>
+        <v>1096228427.925359</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>642.8657741831563</v>
+        <v>1101.375069849723</v>
       </c>
       <c r="C28" t="n">
-        <v>642865774.1831563</v>
+        <v>1101375069.849723</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>645.1490951093989</v>
+        <v>1106.35195414879</v>
       </c>
       <c r="C29" t="n">
-        <v>645149095.1093988</v>
+        <v>1106351954.14879</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>647.3574704618263</v>
+        <v>1111.170615516705</v>
       </c>
       <c r="C30" t="n">
-        <v>647357470.4618263</v>
+        <v>1111170615.516705</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>649.4958961917889</v>
+        <v>1115.841429646492</v>
       </c>
       <c r="C31" t="n">
-        <v>649495896.1917889</v>
+        <v>1115841429.646492</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>651.5688775568345</v>
+        <v>1120.373764854892</v>
       </c>
       <c r="C32" t="n">
-        <v>651568877.5568346</v>
+        <v>1120373764.854892</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>653.5804917908987</v>
+        <v>1124.776109569501</v>
       </c>
       <c r="C33" t="n">
-        <v>653580491.7908987</v>
+        <v>1124776109.569501</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>655.5344410384666</v>
+        <v>1129.056180162399</v>
       </c>
       <c r="C34" t="n">
-        <v>655534441.0384667</v>
+        <v>1129056180.1624</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>657.4340973178208</v>
+        <v>1133.221012669493</v>
       </c>
       <c r="C35" t="n">
-        <v>657434097.3178208</v>
+        <v>1133221012.669493</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>659.282540915402</v>
+        <v>1137.277041211161</v>
       </c>
       <c r="C36" t="n">
-        <v>659282540.9154021</v>
+        <v>1137277041.211161</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>661.0825933332685</v>
+        <v>1141.230165370711</v>
       </c>
       <c r="C37" t="n">
-        <v>661082593.3332685</v>
+        <v>1141230165.370711</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>662.8368456938315</v>
+        <v>1145.08580835171</v>
       </c>
       <c r="C38" t="n">
-        <v>662836845.6938314</v>
+        <v>1145085808.35171</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>664.5476833353235</v>
+        <v>1148.848967393388</v>
       </c>
       <c r="C39" t="n">
-        <v>664547683.3353236</v>
+        <v>1148848967.393388</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>666.217307196659</v>
+        <v>1152.524257653035</v>
       </c>
       <c r="C40" t="n">
-        <v>666217307.196659</v>
+        <v>1152524257.653035</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>667.8477524831757</v>
+        <v>1156.115950549138</v>
       </c>
       <c r="C41" t="n">
-        <v>667847752.4831756</v>
+        <v>1156115950.549138</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>669.4409050189838</v>
+        <v>1159.628007386567</v>
       </c>
       <c r="C42" t="n">
-        <v>669440905.0189838</v>
+        <v>1159628007.386567</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>670.9985156226005</v>
+        <v>1163.064108946151</v>
       </c>
       <c r="C43" t="n">
-        <v>670998515.6226006</v>
+        <v>1163064108.946151</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>672.5222127866276</v>
+        <v>1166.427681608253</v>
       </c>
       <c r="C44" t="n">
-        <v>672522212.7866277</v>
+        <v>1166427681.608253</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>674.0135138966924</v>
+        <v>1169.721920488112</v>
       </c>
       <c r="C45" t="n">
-        <v>674013513.8966924</v>
+        <v>1169721920.488112</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>675.4738351875993</v>
+        <v>1172.9498099854</v>
       </c>
       <c r="C46" t="n">
-        <v>675473835.1875993</v>
+        <v>1172949809.9854</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>676.9045006039742</v>
+        <v>1176.114142088451</v>
       </c>
       <c r="C47" t="n">
-        <v>676904500.6039741</v>
+        <v>1176114142.088451</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>678.3067497073395</v>
+        <v>1179.217532722315</v>
       </c>
       <c r="C48" t="n">
-        <v>678306749.7073394</v>
+        <v>1179217532.722315</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>679.6817447505119</v>
+        <v>1182.262436387143</v>
       </c>
       <c r="C49" t="n">
-        <v>679681744.7505119</v>
+        <v>1182262436.387143</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>681.0305770226753</v>
+        <v>1185.251159297839</v>
       </c>
       <c r="C50" t="n">
-        <v>681030577.0226753</v>
+        <v>1185251159.297838</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>682.3542725537803</v>
+        <v>1188.185871206065</v>
       </c>
       <c r="C51" t="n">
-        <v>682354272.5537803</v>
+        <v>1188185871.206065</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>683.6537972545838</v>
+        <v>1191.068616060634</v>
       </c>
       <c r="C52" t="n">
-        <v>683653797.2545837</v>
+        <v>1191068616.060633</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>684.9300615582155</v>
+        <v>1193.901321641081</v>
       </c>
       <c r="C53" t="n">
-        <v>684930061.5582155</v>
+        <v>1193901321.641081</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>686.1839246203424</v>
+        <v>1196.685808281317</v>
       </c>
       <c r="C54" t="n">
-        <v>686183924.6203424</v>
+        <v>1196685808.281317</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>687.4161981275043</v>
+        <v>1199.423796784932</v>
       </c>
       <c r="C55" t="n">
-        <v>687416198.1275043</v>
+        <v>1199423796.784932</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>688.6276497568058</v>
+        <v>1202.116915620737</v>
       </c>
       <c r="C56" t="n">
-        <v>688627649.7568058</v>
+        <v>1202116915.620737</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>689.819006324685</v>
+        <v>1204.766707475962</v>
       </c>
       <c r="C57" t="n">
-        <v>689819006.324685</v>
+        <v>1204766707.475962</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>690.9909566577945</v>
+        <v>1207.374635234973</v>
       </c>
       <c r="C58" t="n">
-        <v>690990956.6577945</v>
+        <v>1207374635.234973</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>692.1441542149967</v>
+        <v>1209.942087443106</v>
       </c>
       <c r="C59" t="n">
-        <v>692144154.2149967</v>
+        <v>1209942087.443106</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>693.279219485999</v>
+        <v>1212.470383308134</v>
       </c>
       <c r="C60" t="n">
-        <v>693279219.485999</v>
+        <v>1212470383.308134</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>694.3967421891432</v>
+        <v>1214.960777285707</v>
       </c>
       <c r="C61" t="n">
-        <v>694396742.1891432</v>
+        <v>1214960777.285707</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>695.4972832882576</v>
+        <v>1217.414463289765</v>
       </c>
       <c r="C62" t="n">
-        <v>695497283.2882576</v>
+        <v>1217414463.289765</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>696.581376846207</v>
+        <v>1219.832578564263</v>
       </c>
       <c r="C63" t="n">
-        <v>696581376.846207</v>
+        <v>1219832578.564264</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>697.6495317308015</v>
+        <v>1222.216207248533</v>
       </c>
       <c r="C64" t="n">
-        <v>697649531.7308016</v>
+        <v>1222216207.248533</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>698.7022331869941</v>
+        <v>1224.566383664986</v>
       </c>
       <c r="C65" t="n">
-        <v>698702233.1869942</v>
+        <v>1224566383.664986</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>699.7399442877889</v>
+        <v>1226.88409535484</v>
       </c>
       <c r="C66" t="n">
-        <v>699739944.287789</v>
+        <v>1226884095.35484</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>700.7631072749458</v>
+        <v>1229.170285884756</v>
       </c>
       <c r="C67" t="n">
-        <v>700763107.2749459</v>
+        <v>1229170285.884756</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>701.7721447994094</v>
+        <v>1231.425857444914</v>
       </c>
       <c r="C68" t="n">
-        <v>701772144.7994094</v>
+        <v>1231425857.444914</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>702.7674610703527</v>
+        <v>1233.651673256914</v>
       </c>
       <c r="C69" t="n">
-        <v>702767461.0703528</v>
+        <v>1233651673.256914</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>703.7494429208219</v>
+        <v>1235.848559808027</v>
       </c>
       <c r="C70" t="n">
-        <v>703749442.9208219</v>
+        <v>1235848559.808027</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>704.7184607971633</v>
+        <v>1238.017308926677</v>
       </c>
       <c r="C71" t="n">
-        <v>704718460.7971632</v>
+        <v>1238017308.926677</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>705.6748696787</v>
+        <v>1240.158679712541</v>
       </c>
       <c r="C72" t="n">
-        <v>705674869.6787</v>
+        <v>1240158679.712542</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>706.6190099334959</v>
+        <v>1242.273400333371</v>
       </c>
       <c r="C73" t="n">
-        <v>706619009.9334959</v>
+        <v>1242273400.333371</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>707.5512081154769</v>
+        <v>1244.362169699468</v>
       </c>
       <c r="C74" t="n">
-        <v>707551208.115477</v>
+        <v>1244362169.699469</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>708.4717777076821</v>
+        <v>1246.425659025722</v>
       </c>
       <c r="C75" t="n">
-        <v>708471777.7076821</v>
+        <v>1246425659.025722</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>709.3810198159683</v>
+        <v>1248.464513290164</v>
       </c>
       <c r="C76" t="n">
-        <v>709381019.8159683</v>
+        <v>1248464513.290164</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>710.2792238170903</v>
+        <v>1250.479352597212</v>
       </c>
       <c r="C77" t="n">
-        <v>710279223.8170903</v>
+        <v>1250479352.597213</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>711.1666679647208</v>
+        <v>1252.470773452998</v>
       </c>
       <c r="C78" t="n">
-        <v>711166667.9647207</v>
+        <v>1252470773.452998</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>712.0436199566558</v>
+        <v>1254.439349959513</v>
       </c>
       <c r="C79" t="n">
-        <v>712043619.9566557</v>
+        <v>1254439349.959513</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>712.9103374661559</v>
+        <v>1256.385634933742</v>
       </c>
       <c r="C80" t="n">
-        <v>712910337.4661559</v>
+        <v>1256385634.933743</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>713.7670686401226</v>
+        <v>1258.310160957366</v>
       </c>
       <c r="C81" t="n">
-        <v>713767068.6401227</v>
+        <v>1258310160.957366</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>714.6140525665679</v>
+        <v>1260.213441362171</v>
       </c>
       <c r="C82" t="n">
-        <v>714614052.5665679</v>
+        <v>1260213441.362171</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>715.451519713628</v>
+        <v>1262.095971155856</v>
       </c>
       <c r="C83" t="n">
-        <v>715451519.7136281</v>
+        <v>1262095971.155856</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>716.279692342182</v>
+        <v>1263.958227892513</v>
       </c>
       <c r="C84" t="n">
-        <v>716279692.342182</v>
+        <v>1263958227.892513</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>717.0987848939607</v>
+        <v>1265.800672491729</v>
       </c>
       <c r="C85" t="n">
-        <v>717098784.8939607</v>
+        <v>1265800672.491729</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>717.9090043568797</v>
+        <v>1267.623750009914</v>
       </c>
       <c r="C86" t="n">
-        <v>717909004.3568797</v>
+        <v>1267623750.009914</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>718.7105506091858</v>
+        <v>1269.42789036718</v>
       </c>
       <c r="C87" t="n">
-        <v>718710550.6091858</v>
+        <v>1269427890.36718</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>719.5036167438773</v>
+        <v>1271.213509032807</v>
       </c>
       <c r="C88" t="n">
-        <v>719503616.7438773</v>
+        <v>1271213509.032807</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>720.2883893747459</v>
+        <v>1272.981007672127</v>
       </c>
       <c r="C89" t="n">
-        <v>720288389.3747458</v>
+        <v>1272981007.672127</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>721.065048925278</v>
+        <v>1274.730774757387</v>
       </c>
       <c r="C90" t="n">
-        <v>721065048.9252779</v>
+        <v>1274730774.757387</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>721.8337699015582</v>
+        <v>1276.463186145009</v>
       </c>
       <c r="C91" t="n">
-        <v>721833769.9015582</v>
+        <v>1276463186.145009</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>722.5947211502298</v>
+        <v>1278.178605621426</v>
       </c>
       <c r="C92" t="n">
-        <v>722594721.1502298</v>
+        <v>1278178605.621426</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>723.348066102486</v>
+        <v>1279.877385419548</v>
       </c>
       <c r="C93" t="n">
-        <v>723348066.102486</v>
+        <v>1279877385.419548</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>724.0939630049929</v>
+        <v>1281.559866707725</v>
       </c>
       <c r="C94" t="n">
-        <v>724093963.004993</v>
+        <v>1281559866.707725</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>724.832565138579</v>
+        <v>1283.226380052978</v>
       </c>
       <c r="C95" t="n">
-        <v>724832565.138579</v>
+        <v>1283226380.052978</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>725.5640210254592</v>
+        <v>1284.877245860084</v>
       </c>
       <c r="C96" t="n">
-        <v>725564021.0254592</v>
+        <v>1284877245.860084</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>726.288474625715</v>
+        <v>1286.512774788037</v>
       </c>
       <c r="C97" t="n">
-        <v>726288474.625715</v>
+        <v>1286512774.788037</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>727.0060655236891</v>
+        <v>1288.133268145261</v>
       </c>
       <c r="C98" t="n">
-        <v>727006065.5236892</v>
+        <v>1288133268.145261</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>727.7169291049153</v>
+        <v>1289.739018264879</v>
       </c>
       <c r="C99" t="n">
-        <v>727716929.1049153</v>
+        <v>1289739018.264879</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>728.4211967241528</v>
+        <v>1291.330308861228</v>
       </c>
       <c r="C100" t="n">
-        <v>728421196.7241528</v>
+        <v>1291330308.861228</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>729.1189958650614</v>
+        <v>1292.907415368745</v>
       </c>
       <c r="C101" t="n">
-        <v>729118995.8650614</v>
+        <v>1292907415.368745</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>729.8104502920099</v>
+        <v>1294.470605264262</v>
       </c>
       <c r="C102" t="n">
-        <v>729810450.2920099</v>
+        <v>1294470605.264262</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>730.4956801944828</v>
+        <v>1296.020138373676</v>
       </c>
       <c r="C103" t="n">
-        <v>730495680.1944828</v>
+        <v>1296020138.373676</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>731.1748023245119</v>
+        <v>1297.556267163906</v>
       </c>
       <c r="C104" t="n">
-        <v>731174802.3245119</v>
+        <v>1297556267.163906</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>731.8479301275381</v>
+        <v>1299.079237020963</v>
       </c>
       <c r="C105" t="n">
-        <v>731847930.1275381</v>
+        <v>1299079237.020963</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>732.5151738670753</v>
+        <v>1300.589286514945</v>
       </c>
       <c r="C106" t="n">
-        <v>732515173.8670753</v>
+        <v>1300589286.514945</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>733.1766407435273</v>
+        <v>1302.086647652666</v>
       </c>
       <c r="C107" t="n">
-        <v>733176640.7435273</v>
+        <v>1302086647.652666</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>733.8324350074847</v>
+        <v>1303.571546118626</v>
       </c>
       <c r="C108" t="n">
-        <v>733832435.0074847</v>
+        <v>1303571546.118626</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>734.482658067808</v>
+        <v>1305.044201504956</v>
       </c>
       <c r="C109" t="n">
-        <v>734482658.0678079</v>
+        <v>1305044201.504956</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>735.1274085947819</v>
+        <v>1306.504827530939</v>
       </c>
       <c r="C110" t="n">
-        <v>735127408.5947819</v>
+        <v>1306504827.530939</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>735.76678261861</v>
+        <v>1307.95363225268</v>
       </c>
       <c r="C111" t="n">
-        <v>735766782.61861</v>
+        <v>1307953632.25268</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>736.4008736235013</v>
+        <v>1309.390818263438</v>
       </c>
       <c r="C112" t="n">
-        <v>736400873.6235013</v>
+        <v>1309390818.263438</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>737.0297726375816</v>
+        <v>1310.816582885134</v>
       </c>
       <c r="C113" t="n">
-        <v>737029772.6375816</v>
+        <v>1310816582.885134</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>737.6535683188538</v>
+        <v>1312.231118351485</v>
       </c>
       <c r="C114" t="n">
-        <v>737653568.3188537</v>
+        <v>1312231118.351485</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>738.2723470374128</v>
+        <v>1313.634611983205</v>
       </c>
       <c r="C115" t="n">
-        <v>738272347.0374129</v>
+        <v>1313634611.983205</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>738.8861929541087</v>
+        <v>1315.027246355692</v>
       </c>
       <c r="C116" t="n">
-        <v>738886192.9541086</v>
+        <v>1315027246.355692</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>739.4951880958437</v>
+        <v>1316.409199459575</v>
       </c>
       <c r="C117" t="n">
-        <v>739495188.0958437</v>
+        <v>1316409199.459575</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>740.0994124276732</v>
+        <v>1317.780644854485</v>
       </c>
       <c r="C118" t="n">
-        <v>740099412.4276732</v>
+        <v>1317780644.854485</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>740.6989439218728</v>
+        <v>1319.1417518164</v>
       </c>
       <c r="C119" t="n">
-        <v>740698943.9218729</v>
+        <v>1319141751.8164</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>741.2938586241243</v>
+        <v>1320.492685478879</v>
       </c>
       <c r="C120" t="n">
-        <v>741293858.6241243</v>
+        <v>1320492685.478879</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>741.8842307169637</v>
+        <v>1321.833606968483</v>
       </c>
       <c r="C121" t="n">
-        <v>741884230.7169636</v>
+        <v>1321833606.968483</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>742.4701325806271</v>
+        <v>1323.164673534682</v>
       </c>
       <c r="C122" t="n">
-        <v>742470132.5806271</v>
+        <v>1323164673.534682</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>743.0516348514212</v>
+        <v>1324.486038674506</v>
       </c>
       <c r="C123" t="n">
-        <v>743051634.8514212</v>
+        <v>1324486038.674506</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>743.6288064777384</v>
+        <v>1325.79785225219</v>
       </c>
       <c r="C124" t="n">
-        <v>743628806.4777384</v>
+        <v>1325797852.25219</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>744.2017147738306</v>
+        <v>1327.100260614073</v>
       </c>
       <c r="C125" t="n">
-        <v>744201714.7738307</v>
+        <v>1327100260.614073</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>744.7704254714498</v>
+        <v>1328.393406698949</v>
       </c>
       <c r="C126" t="n">
-        <v>744770425.4714499</v>
+        <v>1328393406.698949</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>745.335002769453</v>
+        <v>1329.677430144112</v>
       </c>
       <c r="C127" t="n">
-        <v>745335002.769453</v>
+        <v>1329677430.144112</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>745.8955093814722</v>
+        <v>1330.952467387272</v>
       </c>
       <c r="C128" t="n">
-        <v>745895509.3814721</v>
+        <v>1330952467.387272</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>746.4520065817348</v>
+        <v>1332.218651764555</v>
       </c>
       <c r="C129" t="n">
-        <v>746452006.5817349</v>
+        <v>1332218651.764555</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>747.004554249125</v>
+        <v>1333.476113604748</v>
       </c>
       <c r="C130" t="n">
-        <v>747004554.249125</v>
+        <v>1333476113.604748</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>747.5532109095608</v>
+        <v>1334.724980319977</v>
       </c>
       <c r="C131" t="n">
-        <v>747553210.9095608</v>
+        <v>1334724980.319978</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>748.0980337767704</v>
+        <v>1335.965376492971</v>
       </c>
       <c r="C132" t="n">
-        <v>748098033.7767705</v>
+        <v>1335965376.492971</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>748.6390787915346</v>
+        <v>1337.197423961063</v>
       </c>
       <c r="C133" t="n">
-        <v>748639078.7915347</v>
+        <v>1337197423.961063</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>749.1764006594667</v>
+        <v>1338.421241897084</v>
       </c>
       <c r="C134" t="n">
-        <v>749176400.6594667</v>
+        <v>1338421241.897084</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>749.7100528873956</v>
+        <v>1339.636946887279</v>
       </c>
       <c r="C135" t="n">
-        <v>749710052.8873956</v>
+        <v>1339636946.887279</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>750.2400878184117</v>
+        <v>1340.844653006378</v>
       </c>
       <c r="C136" t="n">
-        <v>750240087.8184117</v>
+        <v>1340844653.006378</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>750.7665566656358</v>
+        <v>1342.044471889947</v>
       </c>
       <c r="C137" t="n">
-        <v>750766556.6656358</v>
+        <v>1342044471.889947</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>751.289509544767</v>
+        <v>1343.236512804138</v>
       </c>
       <c r="C138" t="n">
-        <v>751289509.544767</v>
+        <v>1343236512.804138</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>751.8089955054611</v>
+        <v>1344.420882712951</v>
       </c>
       <c r="C139" t="n">
-        <v>751808995.5054611</v>
+        <v>1344420882.712951</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>752.3250625615891</v>
+        <v>1345.597686343104</v>
       </c>
       <c r="C140" t="n">
-        <v>752325062.5615891</v>
+        <v>1345597686.343104</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>752.8377577204275</v>
+        <v>1346.767026246627</v>
       </c>
       <c r="C141" t="n">
-        <v>752837757.7204275</v>
+        <v>1346767026.246627</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>753.3471270108197</v>
+        <v>1347.929002861271</v>
       </c>
       <c r="C142" t="n">
-        <v>753347127.0108197</v>
+        <v>1347929002.861271</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>753.8532155103571</v>
+        <v>1349.083714568813</v>
       </c>
       <c r="C143" t="n">
-        <v>753853215.5103571</v>
+        <v>1349083714.568813</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>754.3560673716175</v>
+        <v>1350.231257751361</v>
       </c>
       <c r="C144" t="n">
-        <v>754356067.3716176</v>
+        <v>1350231257.751361</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>754.8557258475003</v>
+        <v>1351.371726845728</v>
       </c>
       <c r="C145" t="n">
-        <v>754855725.8475002</v>
+        <v>1351371726.845728</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>755.3522333156974</v>
+        <v>1352.505214395964</v>
       </c>
       <c r="C146" t="n">
-        <v>755352233.3156974</v>
+        <v>1352505214.395964</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>755.8456313023331</v>
+        <v>1353.631811104112</v>
       </c>
       <c r="C147" t="n">
-        <v>755845631.3023331</v>
+        <v>1353631811.104112</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>756.3359605048075</v>
+        <v>1354.751605879264</v>
       </c>
       <c r="C148" t="n">
-        <v>756335960.5048075</v>
+        <v>1354751605.879264</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>756.823260813876</v>
+        <v>1355.864685884987</v>
       </c>
       <c r="C149" t="n">
-        <v>756823260.813876</v>
+        <v>1355864685.884987</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>757.3075713349939</v>
+        <v>1356.971136585183</v>
       </c>
       <c r="C150" t="n">
-        <v>757307571.3349938</v>
+        <v>1356971136.585183</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>757.7889304089575</v>
+        <v>1358.07104178844</v>
       </c>
       <c r="C151" t="n">
-        <v>757788930.4089575</v>
+        <v>1358071041.78844</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>758.2673756318679</v>
+        <v>1359.164483690937</v>
       </c>
       <c r="C152" t="n">
-        <v>758267375.6318679</v>
+        <v>1359164483.690937</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>758.7429438744437</v>
+        <v>1360.251542917967</v>
       </c>
       <c r="C153" t="n">
-        <v>758742943.8744437</v>
+        <v>1360251542.917967</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>759.2156713007098</v>
+        <v>1361.332298564113</v>
       </c>
       <c r="C154" t="n">
-        <v>759215671.3007098</v>
+        <v>1361332298.564113</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>759.6855933860857</v>
+        <v>1362.406828232148</v>
       </c>
       <c r="C155" t="n">
-        <v>759685593.3860856</v>
+        <v>1362406828.232148</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>760.152744934894</v>
+        <v>1363.475208070696</v>
       </c>
       <c r="C156" t="n">
-        <v>760152744.9348941</v>
+        <v>1363475208.070696</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>760.6171600973157</v>
+        <v>1364.537512810708</v>
       </c>
       <c r="C157" t="n">
-        <v>760617160.0973157</v>
+        <v>1364537512.810708</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>761.0788723858095</v>
+        <v>1365.59381580079</v>
       </c>
       <c r="C158" t="n">
-        <v>761078872.3858095</v>
+        <v>1365593815.80079</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>761.5379146910175</v>
+        <v>1366.644189041436</v>
       </c>
       <c r="C159" t="n">
-        <v>761537914.6910175</v>
+        <v>1366644189.041436</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>761.9943192971748</v>
+        <v>1367.688703218198</v>
       </c>
       <c r="C160" t="n">
-        <v>761994319.2971748</v>
+        <v>1367688703.218198</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>762.4481178970441</v>
+        <v>1368.727427733834</v>
       </c>
       <c r="C161" t="n">
-        <v>762448117.8970441</v>
+        <v>1368727427.733834</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>762.8993416063889</v>
+        <v>1369.760430739483</v>
       </c>
       <c r="C162" t="n">
-        <v>762899341.6063889</v>
+        <v>1369760430.739483</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>763.3480209780072</v>
+        <v>1370.78777916488</v>
       </c>
       <c r="C163" t="n">
-        <v>763348020.9780072</v>
+        <v>1370787779.16488</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>763.7941860153371</v>
+        <v>1371.809538747668</v>
       </c>
       <c r="C164" t="n">
-        <v>763794186.0153371</v>
+        <v>1371809538.747668</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>764.2378661856529</v>
+        <v>1372.82577406183</v>
       </c>
       <c r="C165" t="n">
-        <v>764237866.185653</v>
+        <v>1372825774.06183</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>764.6790904328656</v>
+        <v>1373.836548545269</v>
       </c>
       <c r="C166" t="n">
-        <v>764679090.4328656</v>
+        <v>1373836548.545269</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>765.1178871899406</v>
+        <v>1374.841924526577</v>
       </c>
       <c r="C167" t="n">
-        <v>765117887.1899406</v>
+        <v>1374841924.526577</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>765.5542843909499</v>
+        <v>1375.841963251007</v>
       </c>
       <c r="C168" t="n">
-        <v>765554284.3909498</v>
+        <v>1375841963.251007</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>765.9883094827672</v>
+        <v>1376.836724905694</v>
       </c>
       <c r="C169" t="n">
-        <v>765988309.4827672</v>
+        <v>1376836724.905694</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>766.4199894364212</v>
+        <v>1377.826268644138</v>
       </c>
       <c r="C170" t="n">
-        <v>766419989.4364213</v>
+        <v>1377826268.644138</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>766.84935075812</v>
+        <v>1378.810652609973</v>
       </c>
       <c r="C171" t="n">
-        <v>766849350.7581199</v>
+        <v>1378810652.609972</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>767.2764194999536</v>
+        <v>1379.789933960063</v>
       </c>
       <c r="C172" t="n">
-        <v>767276419.4999536</v>
+        <v>1379789933.960063</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>767.7012212702928</v>
+        <v>1380.764168886932</v>
       </c>
       <c r="C173" t="n">
-        <v>767701221.2702928</v>
+        <v>1380764168.886932</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>768.1237812438865</v>
+        <v>1381.733412640553</v>
       </c>
       <c r="C174" t="n">
-        <v>768123781.2438865</v>
+        <v>1381733412.640553</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>768.5441241716752</v>
+        <v>1382.697719549531</v>
       </c>
       <c r="C175" t="n">
-        <v>768544124.1716752</v>
+        <v>1382697719.549531</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>768.9622743903255</v>
+        <v>1383.65714304168</v>
       </c>
       <c r="C176" t="n">
-        <v>768962274.3903255</v>
+        <v>1383657143.04168</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>769.3782558314974</v>
+        <v>1384.611735664033</v>
       </c>
       <c r="C177" t="n">
-        <v>769378255.8314974</v>
+        <v>1384611735.664033</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>769.7920920308524</v>
+        <v>1385.56154910229</v>
       </c>
       <c r="C178" t="n">
-        <v>769792092.0308523</v>
+        <v>1385561549.10229</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>770.2038061368113</v>
+        <v>1386.506634199739</v>
       </c>
       <c r="C179" t="n">
-        <v>770203806.1368113</v>
+        <v>1386506634.199739</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>770.6134209190706</v>
+        <v>1387.447040975643</v>
       </c>
       <c r="C180" t="n">
-        <v>770613420.9190706</v>
+        <v>1387447040.975643</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>771.0209587768846</v>
+        <v>1388.382818643135</v>
       </c>
       <c r="C181" t="n">
-        <v>771020958.7768847</v>
+        <v>1388382818.643135</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>771.4264417471207</v>
+        <v>1389.314015626628</v>
       </c>
       <c r="C182" t="n">
-        <v>771426441.7471207</v>
+        <v>1389314015.626628</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>771.8298915120977</v>
+        <v>1390.240679578746</v>
       </c>
       <c r="C183" t="n">
-        <v>771829891.5120977</v>
+        <v>1390240679.578746</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>772.2313294072093</v>
+        <v>1391.162857396808</v>
       </c>
       <c r="C184" t="n">
-        <v>772231329.4072093</v>
+        <v>1391162857.396808</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>772.6307764283467</v>
+        <v>1392.080595238869</v>
       </c>
       <c r="C185" t="n">
-        <v>772630776.4283468</v>
+        <v>1392080595.238869</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>773.0282532391193</v>
+        <v>1392.993938539333</v>
       </c>
       <c r="C186" t="n">
-        <v>773028253.2391193</v>
+        <v>1392993938.539333</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>773.4237801778855</v>
+        <v>1393.902932024161</v>
       </c>
       <c r="C187" t="n">
-        <v>773423780.1778855</v>
+        <v>1393902932.024161</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>773.8173772645973</v>
+        <v>1394.807619725665</v>
       </c>
       <c r="C188" t="n">
-        <v>773817377.2645973</v>
+        <v>1394807619.725665</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>774.2090642074648</v>
+        <v>1395.708044996932</v>
       </c>
       <c r="C189" t="n">
-        <v>774209064.2074648</v>
+        <v>1395708044.996932</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>774.5988604094462</v>
+        <v>1396.604250525861</v>
       </c>
       <c r="C190" t="n">
-        <v>774598860.4094461</v>
+        <v>1396604250.525861</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>774.986784974569</v>
+        <v>1397.49627834884</v>
       </c>
       <c r="C191" t="n">
-        <v>774986784.974569</v>
+        <v>1397496278.34884</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>775.372856714089</v>
+        <v>1398.384169864076</v>
       </c>
       <c r="C192" t="n">
-        <v>775372856.714089</v>
+        <v>1398384169.864076</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>775.7570941524883</v>
+        <v>1399.267965844576</v>
       </c>
       <c r="C193" t="n">
-        <v>775757094.1524884</v>
+        <v>1399267965.844576</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>776.1395155333222</v>
+        <v>1400.147706450805</v>
       </c>
       <c r="C194" t="n">
-        <v>776139515.5333222</v>
+        <v>1400147706.450805</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>776.5201388249149</v>
+        <v>1401.023431243016</v>
       </c>
       <c r="C195" t="n">
-        <v>776520138.8249148</v>
+        <v>1401023431.243016</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>776.898981725913</v>
+        <v>1401.895179193276</v>
       </c>
       <c r="C196" t="n">
-        <v>776898981.725913</v>
+        <v>1401895179.193276</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>777.2760616706978</v>
+        <v>1402.762988697188</v>
       </c>
       <c r="C197" t="n">
-        <v>777276061.6706978</v>
+        <v>1402762988.697188</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>777.6513958346617</v>
+        <v>1403.626897585317</v>
       </c>
       <c r="C198" t="n">
-        <v>777651395.8346617</v>
+        <v>1403626897.585317</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>778.0250011393539</v>
+        <v>1404.486943134342</v>
       </c>
       <c r="C199" t="n">
-        <v>778025001.1393539</v>
+        <v>1404486943.134342</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>778.3968942574969</v>
+        <v>1405.343162077921</v>
       </c>
       <c r="C200" t="n">
-        <v>778396894.257497</v>
+        <v>1405343162.077921</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>778.7670916178812</v>
+        <v>1406.195590617296</v>
       </c>
       <c r="C201" t="n">
-        <v>778767091.6178812</v>
+        <v>1406195590.617296</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>779.1356094101372</v>
+        <v>1407.044264431641</v>
       </c>
       <c r="C202" t="n">
-        <v>779135609.4101373</v>
+        <v>1407044264.431641</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>779.5024635893926</v>
+        <v>1407.889218688153</v>
       </c>
       <c r="C203" t="n">
-        <v>779502463.5893927</v>
+        <v>1407889218.688153</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>779.8676698808148</v>
+        <v>1408.730488051897</v>
       </c>
       <c r="C204" t="n">
-        <v>779867669.8808148</v>
+        <v>1408730488.051897</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>780.2312437840448</v>
+        <v>1409.568106695426</v>
       </c>
       <c r="C205" t="n">
-        <v>780231243.7840447</v>
+        <v>1409568106.695426</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>780.5932005775223</v>
+        <v>1410.402108308155</v>
       </c>
       <c r="C206" t="n">
-        <v>780593200.5775224</v>
+        <v>1410402108.308155</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>780.9535553227101</v>
+        <v>1411.232526105522</v>
       </c>
       <c r="C207" t="n">
-        <v>780953555.3227102</v>
+        <v>1411232526.105522</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>781.3123228682142</v>
+        <v>1412.059392837931</v>
       </c>
       <c r="C208" t="n">
-        <v>781312322.8682142</v>
+        <v>1412059392.837931</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>781.6695178538085</v>
+        <v>1412.882740799475</v>
       </c>
       <c r="C209" t="n">
-        <v>781669517.8538085</v>
+        <v>1412882740.799475</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>782.0251547143637</v>
+        <v>1413.702601836466</v>
       </c>
       <c r="C210" t="n">
-        <v>782025154.7143637</v>
+        <v>1413702601.836466</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>782.3792476836836</v>
+        <v>1414.519007355759</v>
       </c>
       <c r="C211" t="n">
-        <v>782379247.6836836</v>
+        <v>1414519007.355759</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>782.731810798252</v>
+        <v>1415.331988332881</v>
       </c>
       <c r="C212" t="n">
-        <v>782731810.798252</v>
+        <v>1415331988.332881</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>783.0828579008914</v>
+        <v>1416.141575319976</v>
       </c>
       <c r="C213" t="n">
-        <v>783082857.9008914</v>
+        <v>1416141575.319976</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>783.4324026443389</v>
+        <v>1416.947798453563</v>
       </c>
       <c r="C214" t="n">
-        <v>783432402.644339</v>
+        <v>1416947798.453563</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>783.7804584947368</v>
+        <v>1417.750687462122</v>
       </c>
       <c r="C215" t="n">
-        <v>783780458.4947368</v>
+        <v>1417750687.462122</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>784.1270387350453</v>
+        <v>1418.550271673497</v>
       </c>
       <c r="C216" t="n">
-        <v>784127038.7350453</v>
+        <v>1418550271.673496</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>784.4721564683764</v>
+        <v>1419.346580022139</v>
       </c>
       <c r="C217" t="n">
-        <v>784472156.4683764</v>
+        <v>1419346580.022139</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>784.8158246212514</v>
+        <v>1420.139641056184</v>
       </c>
       <c r="C218" t="n">
-        <v>784815824.6212515</v>
+        <v>1420139641.056184</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>785.1580559467858</v>
+        <v>1420.929482944367</v>
       </c>
       <c r="C219" t="n">
-        <v>785158055.9467858</v>
+        <v>1420929482.944366</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>785.4988630278012</v>
+        <v>1421.716133482786</v>
       </c>
       <c r="C220" t="n">
-        <v>785498863.0278013</v>
+        <v>1421716133.482786</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>785.8382582798681</v>
+        <v>1422.499620101512</v>
       </c>
       <c r="C221" t="n">
-        <v>785838258.2798681</v>
+        <v>1422499620.101512</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>786.1762539542807</v>
+        <v>1423.279969871055</v>
       </c>
       <c r="C222" t="n">
-        <v>786176253.9542807</v>
+        <v>1423279969.871055</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>786.5128621409651</v>
+        <v>1424.057209508684</v>
       </c>
       <c r="C223" t="n">
-        <v>786512862.1409651</v>
+        <v>1424057209.508684</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>786.8480947713234</v>
+        <v>1424.831365384607</v>
       </c>
       <c r="C224" t="n">
-        <v>786848094.7713234</v>
+        <v>1424831365.384607</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>787.1819636210153</v>
+        <v>1425.602463528024</v>
       </c>
       <c r="C225" t="n">
-        <v>787181963.6210153</v>
+        <v>1425602463.528024</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>787.5144803126784</v>
+        <v>1426.370529633034</v>
       </c>
       <c r="C226" t="n">
-        <v>787514480.3126785</v>
+        <v>1426370529.633034</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>787.845656318589</v>
+        <v>1427.135589064427</v>
       </c>
       <c r="C227" t="n">
-        <v>787845656.318589</v>
+        <v>1427135589.064426</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>788.1755029632657</v>
+        <v>1427.897666863343</v>
       </c>
       <c r="C228" t="n">
-        <v>788175502.9632657</v>
+        <v>1427897666.863343</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>788.5040314260153</v>
+        <v>1428.656787752812</v>
       </c>
       <c r="C229" t="n">
-        <v>788504031.4260154</v>
+        <v>1428656787.752812</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>788.8312527434259</v>
+        <v>1429.412976143175</v>
       </c>
       <c r="C230" t="n">
-        <v>788831252.743426</v>
+        <v>1429412976.143175</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>789.1571778118036</v>
+        <v>1430.166256137386</v>
       </c>
       <c r="C231" t="n">
-        <v>789157177.8118037</v>
+        <v>1430166256.137386</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>789.4818173895609</v>
+        <v>1430.916651536209</v>
       </c>
       <c r="C232" t="n">
-        <v>789481817.3895609</v>
+        <v>1430916651.536209</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>789.8051820995498</v>
+        <v>1431.664185843297</v>
       </c>
       <c r="C233" t="n">
-        <v>789805182.0995498</v>
+        <v>1431664185.843297</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>790.1272824313501</v>
+        <v>1432.408882270169</v>
       </c>
       <c r="C234" t="n">
-        <v>790127282.4313501</v>
+        <v>1432408882.270169</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>790.4481287435058</v>
+        <v>1433.150763741077</v>
       </c>
       <c r="C235" t="n">
-        <v>790448128.7435058</v>
+        <v>1433150763.741077</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>790.7677312657162</v>
+        <v>1433.889852897783</v>
       </c>
       <c r="C236" t="n">
-        <v>790767731.2657162</v>
+        <v>1433889852.897783</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>791.0861001009816</v>
+        <v>1434.626172104223</v>
       </c>
       <c r="C237" t="n">
-        <v>791086100.1009816</v>
+        <v>1434626172.104223</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>791.403245227703</v>
+        <v>1435.359743451082</v>
       </c>
       <c r="C238" t="n">
-        <v>791403245.227703</v>
+        <v>1435359743.451082</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>791.7191765017387</v>
+        <v>1436.090588760273</v>
       </c>
       <c r="C239" t="n">
-        <v>791719176.5017388</v>
+        <v>1436090588.760273</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>792.0339036584194</v>
+        <v>1436.818729589326</v>
       </c>
       <c r="C240" t="n">
-        <v>792033903.6584194</v>
+        <v>1436818729.589326</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>792.3474363145207</v>
+        <v>1437.544187235683</v>
       </c>
       <c r="C241" t="n">
-        <v>792347436.3145207</v>
+        <v>1437544187.235683</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>792.6597839701956</v>
+        <v>1438.266982740908</v>
       </c>
       <c r="C242" t="n">
-        <v>792659783.9701955</v>
+        <v>1438266982.740908</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>792.9709560108678</v>
+        <v>1438.987136894815</v>
       </c>
       <c r="C243" t="n">
-        <v>792970956.0108678</v>
+        <v>1438987136.894815</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>793.2809617090862</v>
+        <v>1439.704670239506</v>
       </c>
       <c r="C244" t="n">
-        <v>793280961.7090862</v>
+        <v>1439704670.239506</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>793.5898102263425</v>
+        <v>1440.419603073331</v>
       </c>
       <c r="C245" t="n">
-        <v>793589810.2263424</v>
+        <v>1440419603.073331</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>793.8975106148509</v>
+        <v>1441.131955454771</v>
       </c>
       <c r="C246" t="n">
-        <v>793897510.614851</v>
+        <v>1441131955.454771</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>794.2040718192943</v>
+        <v>1441.841747206241</v>
       </c>
       <c r="C247" t="n">
-        <v>794204071.8192943</v>
+        <v>1441841747.206241</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>794.5095026785332</v>
+        <v>1442.548997917816</v>
       </c>
       <c r="C248" t="n">
-        <v>794509502.6785332</v>
+        <v>1442548997.917816</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>794.8138119272819</v>
+        <v>1443.253726950887</v>
       </c>
       <c r="C249" t="n">
-        <v>794813811.9272819</v>
+        <v>1443253726.950887</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>795.1170081977521</v>
+        <v>1443.955953441742</v>
       </c>
       <c r="C250" t="n">
-        <v>795117008.197752</v>
+        <v>1443955953.441742</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>795.4191000212621</v>
+        <v>1444.655696305079</v>
       </c>
       <c r="C251" t="n">
-        <v>795419100.0212622</v>
+        <v>1444655696.305079</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>795.7200958298167</v>
+        <v>1445.352974237447</v>
       </c>
       <c r="C252" t="n">
-        <v>795720095.8298167</v>
+        <v>1445352974.237447</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>796.4678447427165</v>
+        <v>1447.085505762461</v>
       </c>
       <c r="C253" t="n">
-        <v>796467844.7427164</v>
+        <v>1447085505.762461</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>797.2089230089472</v>
+        <v>1448.803029463636</v>
       </c>
       <c r="C254" t="n">
-        <v>797208923.0089471</v>
+        <v>1448803029.463636</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>797.9434546320773</v>
+        <v>1450.505820453061</v>
       </c>
       <c r="C255" t="n">
-        <v>797943454.6320773</v>
+        <v>1450505820.453061</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>798.6715601347404</v>
+        <v>1452.194146190997</v>
       </c>
       <c r="C256" t="n">
-        <v>798671560.1347404</v>
+        <v>1452194146.190997</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>799.3933566887239</v>
+        <v>1453.868266769866</v>
       </c>
       <c r="C257" t="n">
-        <v>799393356.6887239</v>
+        <v>1453868266.769866</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>800.1089582390088</v>
+        <v>1455.528435185116</v>
       </c>
       <c r="C258" t="n">
-        <v>800108958.2390088</v>
+        <v>1455528435.185116</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>800.8184756220965</v>
+        <v>1457.174897593675</v>
       </c>
       <c r="C259" t="n">
-        <v>800818475.6220964</v>
+        <v>1457174897.593675</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>801.5220166789364</v>
+        <v>1458.807893560676</v>
       </c>
       <c r="C260" t="n">
-        <v>801522016.6789365</v>
+        <v>1458807893.560676</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>802.2196863627482</v>
+        <v>1460.427656295094</v>
       </c>
       <c r="C261" t="n">
-        <v>802219686.3627483</v>
+        <v>1460427656.295094</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>802.9115868420128</v>
+        <v>1462.03441287488</v>
       </c>
       <c r="C262" t="n">
-        <v>802911586.8420128</v>
+        <v>1462034412.87488</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>803.5978175988924</v>
+        <v>1463.628384462159</v>
       </c>
       <c r="C263" t="n">
-        <v>803597817.5988925</v>
+        <v>1463628384.462159</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>804.2784755233209</v>
+        <v>1465.20978650901</v>
       </c>
       <c r="C264" t="n">
-        <v>804278475.5233209</v>
+        <v>1465209786.50901</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>804.9536550029904</v>
+        <v>1466.778828954324</v>
       </c>
       <c r="C265" t="n">
-        <v>804953655.0029905</v>
+        <v>1466778828.954324</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>805.6234480094497</v>
+        <v>1468.335716412204</v>
       </c>
       <c r="C266" t="n">
-        <v>805623448.0094497</v>
+        <v>1468335716.412204</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>806.2879441805134</v>
+        <v>1469.880648352333</v>
       </c>
       <c r="C267" t="n">
-        <v>806287944.1805134</v>
+        <v>1469880648.352333</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>806.9472308991722</v>
+        <v>1471.413819272727</v>
       </c>
       <c r="C268" t="n">
-        <v>806947230.8991722</v>
+        <v>1471413819.272727</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>807.6013933691793</v>
+        <v>1472.935418865254</v>
       </c>
       <c r="C269" t="n">
-        <v>807601393.3691792</v>
+        <v>1472935418.865254</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>808.2505146874821</v>
+        <v>1474.445632174279</v>
       </c>
       <c r="C270" t="n">
-        <v>808250514.6874821</v>
+        <v>1474445632.174279</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>808.8946759136554</v>
+        <v>1475.944639748779</v>
       </c>
       <c r="C271" t="n">
-        <v>808894675.9136554</v>
+        <v>1475944639.748779</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>809.533956136484</v>
+        <v>1477.43261778825</v>
       </c>
       <c r="C272" t="n">
-        <v>809533956.136484</v>
+        <v>1477432617.78825</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>810.1684325378354</v>
+        <v>1478.909738282705</v>
       </c>
       <c r="C273" t="n">
-        <v>810168432.5378355</v>
+        <v>1478909738.282705</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>810.7981804539539</v>
+        <v>1480.376169147052</v>
       </c>
       <c r="C274" t="n">
-        <v>810798180.453954</v>
+        <v>1480376169.147052</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>811.4232734342996</v>
+        <v>1481.832074350116</v>
       </c>
       <c r="C275" t="n">
-        <v>811423273.4342996</v>
+        <v>1481832074.350116</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>812.0437832980505</v>
+        <v>1483.277614038576</v>
       </c>
       <c r="C276" t="n">
-        <v>812043783.2980505</v>
+        <v>1483277614.038576</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>812.6597801883788</v>
+        <v>1484.71294465603</v>
       </c>
       <c r="C277" t="n">
-        <v>812659780.1883788</v>
+        <v>1484712944.65603</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>813.2713326246056</v>
+        <v>1486.138219057444</v>
       </c>
       <c r="C278" t="n">
-        <v>813271332.6246057</v>
+        <v>1486138219.057444</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>813.8785075523332</v>
+        <v>1487.553586619185</v>
       </c>
       <c r="C279" t="n">
-        <v>813878507.5523332</v>
+        <v>1487553586.619185</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>814.4813703916481</v>
+        <v>1488.959193344836</v>
       </c>
       <c r="C280" t="n">
-        <v>814481370.3916481</v>
+        <v>1488959193.344836</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>815.0799850834845</v>
+        <v>1490.355181967007</v>
       </c>
       <c r="C281" t="n">
-        <v>815079985.0834845</v>
+        <v>1490355181.967007</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>815.6744141342322</v>
+        <v>1491.741692045297</v>
       </c>
       <c r="C282" t="n">
-        <v>815674414.1342322</v>
+        <v>1491741692.045297</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>816.2647186586653</v>
+        <v>1493.118860060604</v>
       </c>
       <c r="C283" t="n">
-        <v>816264718.6586653</v>
+        <v>1493118860.060604</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>816.8509584212732</v>
+        <v>1494.486819505933</v>
       </c>
       <c r="C284" t="n">
-        <v>816850958.4212731</v>
+        <v>1494486819.505933</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>817.4331918760578</v>
+        <v>1495.845700973856</v>
       </c>
       <c r="C285" t="n">
-        <v>817433191.8760577</v>
+        <v>1495845700.973856</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>818.0114762048712</v>
+        <v>1497.195632240787</v>
       </c>
       <c r="C286" t="n">
-        <v>818011476.2048712</v>
+        <v>1497195632.240787</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>818.5858673543537</v>
+        <v>1498.536738348186</v>
       </c>
       <c r="C287" t="n">
-        <v>818585867.3543537</v>
+        <v>1498536738.348186</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>819.1564200715345</v>
+        <v>1499.869141680853</v>
       </c>
       <c r="C288" t="n">
-        <v>819156420.0715345</v>
+        <v>1499869141.680853</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>819.7231879381542</v>
+        <v>1501.192962042412</v>
       </c>
       <c r="C289" t="n">
-        <v>819723187.9381542</v>
+        <v>1501192962.042412</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>820.2862234037613</v>
+        <v>1502.508316728126</v>
       </c>
       <c r="C290" t="n">
-        <v>820286223.4037613</v>
+        <v>1502508316.728126</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>820.8455778176383</v>
+        <v>1503.815320595145</v>
       </c>
       <c r="C291" t="n">
-        <v>820845577.8176383</v>
+        <v>1503815320.595145</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>821.4013014596031</v>
+        <v>1505.11408613029</v>
       </c>
       <c r="C292" t="n">
-        <v>821401301.4596032</v>
+        <v>1505114086.13029</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>821.953443569737</v>
+        <v>1506.404723515494</v>
       </c>
       <c r="C293" t="n">
-        <v>821953443.5697371</v>
+        <v>1506404723.515494</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>822.5020523770804</v>
+        <v>1507.687340690981</v>
       </c>
       <c r="C294" t="n">
-        <v>822502052.3770804</v>
+        <v>1507687340.690981</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>823.0471751273423</v>
+        <v>1508.962043416282</v>
       </c>
       <c r="C295" t="n">
-        <v>823047175.1273422</v>
+        <v>1508962043.416282</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>823.5888581096607</v>
+        <v>1510.22893532918</v>
       </c>
       <c r="C296" t="n">
-        <v>823588858.1096607</v>
+        <v>1510228935.32918</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>824.1271466824568</v>
+        <v>1511.488118002659</v>
       </c>
       <c r="C297" t="n">
-        <v>824127146.6824567</v>
+        <v>1511488118.002659</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>824.6620852984159</v>
+        <v>1512.73969099995</v>
       </c>
       <c r="C298" t="n">
-        <v>824662085.2984159</v>
+        <v>1512739690.99995</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>825.1937175286324</v>
+        <v>1513.983751927742</v>
       </c>
       <c r="C299" t="n">
-        <v>825193717.5286324</v>
+        <v>1513983751.927742</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>825.7220860859514</v>
+        <v>1515.220396487628</v>
       </c>
       <c r="C300" t="n">
-        <v>825722086.0859514</v>
+        <v>1515220396.487628</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>826.2472328475403</v>
+        <v>1516.449718525868</v>
       </c>
       <c r="C301" t="n">
-        <v>826247232.8475403</v>
+        <v>1516449718.525868</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>826.7691988767186</v>
+        <v>1517.671810081527</v>
       </c>
       <c r="C302" t="n">
-        <v>826769198.8767186</v>
+        <v>1517671810.081527</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>827.2880244440772</v>
+        <v>1518.886761433045</v>
       </c>
       <c r="C303" t="n">
-        <v>827288024.4440773</v>
+        <v>1518886761.433045</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>827.803749047913</v>
+        <v>1520.094661143319</v>
       </c>
       <c r="C304" t="n">
-        <v>827803749.0479131</v>
+        <v>1520094661.143319</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>828.3164114340066</v>
+        <v>1521.295596103333</v>
       </c>
       <c r="C305" t="n">
-        <v>828316411.4340066</v>
+        <v>1521295596.103333</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>828.8260496147681</v>
+        <v>1522.489651574406</v>
       </c>
       <c r="C306" t="n">
-        <v>828826049.614768</v>
+        <v>1522489651.574406</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>829.332700887775</v>
+        <v>1523.676911229108</v>
       </c>
       <c r="C307" t="n">
-        <v>829332700.8877749</v>
+        <v>1523676911.229108</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>829.8364018537252</v>
+        <v>1524.857457190885</v>
       </c>
       <c r="C308" t="n">
-        <v>829836401.8537252</v>
+        <v>1524857457.190885</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>830.337188433827</v>
+        <v>1526.031370072456</v>
       </c>
       <c r="C309" t="n">
-        <v>830337188.433827</v>
+        <v>1526031370.072455</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>830.8350958866478</v>
+        <v>1527.198729013016</v>
       </c>
       <c r="C310" t="n">
-        <v>830835095.8866478</v>
+        <v>1527198729.013016</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>831.3301588244417</v>
+        <v>1528.359611714299</v>
       </c>
       <c r="C311" t="n">
-        <v>831330158.8244417</v>
+        <v>1528359611.714299</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>831.8224112289743</v>
+        <v>1529.514094475532</v>
       </c>
       <c r="C312" t="n">
-        <v>831822411.2289742</v>
+        <v>1529514094.475532</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>832.3118864668639</v>
+        <v>1530.662252227329</v>
       </c>
       <c r="C313" t="n">
-        <v>832311886.466864</v>
+        <v>1530662252.227329</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>832.7986173044577</v>
+        <v>1531.804158564564</v>
       </c>
       <c r="C314" t="n">
-        <v>832798617.3044577</v>
+        <v>1531804158.564564</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>833.282635922257</v>
+        <v>1532.939885778251</v>
       </c>
       <c r="C315" t="n">
-        <v>833282635.9222569</v>
+        <v>1532939885.77825</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>833.7639739289122</v>
+        <v>1534.069504886478</v>
       </c>
       <c r="C316" t="n">
-        <v>833763973.9289122</v>
+        <v>1534069504.886478</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>834.2426623747976</v>
+        <v>1535.193085664423</v>
       </c>
       <c r="C317" t="n">
-        <v>834242662.3747977</v>
+        <v>1535193085.664423</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>834.7187317651869</v>
+        <v>1536.310696673482</v>
       </c>
       <c r="C318" t="n">
-        <v>834718731.7651869</v>
+        <v>1536310696.673482</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>835.1922120730375</v>
+        <v>1537.422405289545</v>
       </c>
       <c r="C319" t="n">
-        <v>835192212.0730375</v>
+        <v>1537422405.289545</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>835.6631327514028</v>
+        <v>1538.528277730452</v>
       </c>
       <c r="C320" t="n">
-        <v>835663132.7514029</v>
+        <v>1538528277.730452</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>836.1315227454817</v>
+        <v>1539.628379082646</v>
       </c>
       <c r="C321" t="n">
-        <v>836131522.7454817</v>
+        <v>1539628379.082646</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>836.5974105043199</v>
+        <v>1540.72277332707</v>
       </c>
       <c r="C322" t="n">
-        <v>836597410.5043199</v>
+        <v>1540722773.32707</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>837.0608239921753</v>
+        <v>1541.81152336431</v>
       </c>
       <c r="C323" t="n">
-        <v>837060823.9921753</v>
+        <v>1541811523.36431</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>837.5217906995565</v>
+        <v>1542.894691039035</v>
       </c>
       <c r="C324" t="n">
-        <v>837521790.6995565</v>
+        <v>1542894691.039035</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>837.9803376539487</v>
+        <v>1543.972337163737</v>
       </c>
       <c r="C325" t="n">
-        <v>837980337.6539487</v>
+        <v>1543972337.163737</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>838.436491430237</v>
+        <v>1545.04452154181</v>
       </c>
       <c r="C326" t="n">
-        <v>838436491.4302369</v>
+        <v>1545044521.54181</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>838.8902781608344</v>
+        <v>1546.111302989977</v>
       </c>
       <c r="C327" t="n">
-        <v>838890278.1608344</v>
+        <v>1546111302.989977</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>839.3417235455295</v>
+        <v>1547.172739360098</v>
       </c>
       <c r="C328" t="n">
-        <v>839341723.5455295</v>
+        <v>1547172739.360098</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>839.7908528610578</v>
+        <v>1548.228887560375</v>
       </c>
       <c r="C329" t="n">
-        <v>839790852.8610579</v>
+        <v>1548228887.560375</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>840.2376909704109</v>
+        <v>1549.279803575976</v>
       </c>
       <c r="C330" t="n">
-        <v>840237690.9704108</v>
+        <v>1549279803.575976</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>840.6822623318878</v>
+        <v>1550.325542489086</v>
       </c>
       <c r="C331" t="n">
-        <v>840682262.3318878</v>
+        <v>1550325542.489086</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>841.1245910079011</v>
+        <v>1551.366158498426</v>
       </c>
       <c r="C332" t="n">
-        <v>841124591.0079011</v>
+        <v>1551366158.498426</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>841.5647006735412</v>
+        <v>1552.401704938236</v>
       </c>
       <c r="C333" t="n">
-        <v>841564700.6735412</v>
+        <v>1552401704.938236</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>842.0026146249113</v>
+        <v>1553.43223429675</v>
       </c>
       <c r="C334" t="n">
-        <v>842002614.6249113</v>
+        <v>1553432234.29675</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>842.4383557872374</v>
+        <v>1554.457798234176</v>
       </c>
       <c r="C335" t="n">
-        <v>842438355.7872374</v>
+        <v>1554457798.234176</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>842.8719467227612</v>
+        <v>1555.4784476002</v>
       </c>
       <c r="C336" t="n">
-        <v>842871946.7227612</v>
+        <v>1555478447.6002</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>843.3034096384243</v>
+        <v>1556.494232451028</v>
       </c>
       <c r="C337" t="n">
-        <v>843303409.6384244</v>
+        <v>1556494232.451028</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>843.7327663933476</v>
+        <v>1557.505202065975</v>
       </c>
       <c r="C338" t="n">
-        <v>843732766.3933475</v>
+        <v>1557505202.065975</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>844.1600385061155</v>
+        <v>1558.511404963623</v>
       </c>
       <c r="C339" t="n">
-        <v>844160038.5061154</v>
+        <v>1558511404.963623</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>844.5852471618683</v>
+        <v>1559.512888917561</v>
       </c>
       <c r="C340" t="n">
-        <v>844585247.1618683</v>
+        <v>1559512888.917561</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>845.0084132192112</v>
+        <v>1560.509700971714</v>
       </c>
       <c r="C341" t="n">
-        <v>845008413.2192112</v>
+        <v>1560509700.971714</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>845.4295572169435</v>
+        <v>1561.501887455277</v>
       </c>
       <c r="C342" t="n">
-        <v>845429557.2169435</v>
+        <v>1561501887.455277</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>845.8486993806147</v>
+        <v>1562.489493997271</v>
       </c>
       <c r="C343" t="n">
-        <v>845848699.3806146</v>
+        <v>1562489493.997272</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>846.2658596289133</v>
+        <v>1563.472565540723</v>
       </c>
       <c r="C344" t="n">
-        <v>846265859.6289133</v>
+        <v>1563472565.540723</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>846.6810575798917</v>
+        <v>1564.45114635649</v>
       </c>
       <c r="C345" t="n">
-        <v>846681057.5798917</v>
+        <v>1564451146.356489</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>847.0943125570348</v>
+        <v>1565.42528005673</v>
       </c>
       <c r="C346" t="n">
-        <v>847094312.5570347</v>
+        <v>1565425280.05673</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>847.5056435951738</v>
+        <v>1566.395009608046</v>
       </c>
       <c r="C347" t="n">
-        <v>847505643.5951737</v>
+        <v>1566395009.608046</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>847.9150694462529</v>
+        <v>1567.360377344286</v>
       </c>
       <c r="C348" t="n">
-        <v>847915069.4462529</v>
+        <v>1567360377.344286</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>848.3226085849518</v>
+        <v>1568.321424979039</v>
       </c>
       <c r="C349" t="n">
-        <v>848322608.5849518</v>
+        <v>1568321424.979038</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>848.7282792141679</v>
+        <v>1569.278193617813</v>
       </c>
       <c r="C350" t="n">
-        <v>848728279.2141678</v>
+        <v>1569278193.617813</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>849.1320992703638</v>
+        <v>1570.230723769922</v>
       </c>
       <c r="C351" t="n">
-        <v>849132099.2703638</v>
+        <v>1570230723.769922</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>849.5340864287833</v>
+        <v>1571.179055360076</v>
       </c>
       <c r="C352" t="n">
-        <v>849534086.4287833</v>
+        <v>1571179055.360076</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>849.9342581085388</v>
+        <v>1572.123227739686</v>
       </c>
       <c r="C353" t="n">
-        <v>849934258.1085387</v>
+        <v>1572123227.739686</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>850.3326314775759</v>
+        <v>1573.063279697911</v>
       </c>
       <c r="C354" t="n">
-        <v>850332631.4775759</v>
+        <v>1573063279.697911</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>850.7292234575179</v>
+        <v>1573.999249472415</v>
       </c>
       <c r="C355" t="n">
-        <v>850729223.457518</v>
+        <v>1573999249.472415</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>851.1240507283921</v>
+        <v>1574.931174759892</v>
       </c>
       <c r="C356" t="n">
-        <v>851124050.7283921</v>
+        <v>1574931174.759892</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>851.5171297332444</v>
+        <v>1575.859092726316</v>
       </c>
       <c r="C357" t="n">
-        <v>851517129.7332444</v>
+        <v>1575859092.726316</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>851.9084766826422</v>
+        <v>1576.783040016965</v>
       </c>
       <c r="C358" t="n">
-        <v>851908476.6826422</v>
+        <v>1576783040.016965</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>852.2981075590723</v>
+        <v>1577.703052766201</v>
       </c>
       <c r="C359" t="n">
-        <v>852298107.5590723</v>
+        <v>1577703052.766201</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>852.6860381212323</v>
+        <v>1578.61916660702</v>
       </c>
       <c r="C360" t="n">
-        <v>852686038.1212323</v>
+        <v>1578619166.60702</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>853.0722839082232</v>
+        <v>1579.531416680377</v>
       </c>
       <c r="C361" t="n">
-        <v>853072283.9082232</v>
+        <v>1579531416.680377</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>853.4568602436433</v>
+        <v>1580.439837644302</v>
       </c>
       <c r="C362" t="n">
-        <v>853456860.2436433</v>
+        <v>1580439837.644302</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>853.8397822395855</v>
+        <v>1581.344463682794</v>
       </c>
       <c r="C363" t="n">
-        <v>853839782.2395855</v>
+        <v>1581344463.682794</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>854.2210648005439</v>
+        <v>1582.245328514516</v>
       </c>
       <c r="C364" t="n">
-        <v>854221064.8005439</v>
+        <v>1582245328.514516</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>854.6007226272275</v>
+        <v>1583.142465401293</v>
       </c>
       <c r="C365" t="n">
-        <v>854600722.6272274</v>
+        <v>1583142465.401293</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>854.97877022029</v>
+        <v>1584.035907156404</v>
       </c>
       <c r="C366" t="n">
-        <v>854978770.2202901</v>
+        <v>1584035907.156404</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>855.3552218839706</v>
+        <v>1584.925686152702</v>
       </c>
       <c r="C367" t="n">
-        <v>855355221.8839705</v>
+        <v>1584925686.152702</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>855.7300917296543</v>
+        <v>1585.811834330536</v>
       </c>
       <c r="C368" t="n">
-        <v>855730091.7296543</v>
+        <v>1585811834.330536</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>856.1033936793503</v>
+        <v>1586.694383205502</v>
       </c>
       <c r="C369" t="n">
-        <v>856103393.6793504</v>
+        <v>1586694383.205502</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>856.4751414690932</v>
+        <v>1587.573363876017</v>
       </c>
       <c r="C370" t="n">
-        <v>856475141.4690932</v>
+        <v>1587573363.876017</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>856.845348652266</v>
+        <v>1588.448807030727</v>
       </c>
       <c r="C371" t="n">
-        <v>856845348.652266</v>
+        <v>1588448807.030727</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>857.2140286028508</v>
+        <v>1589.320742955748</v>
       </c>
       <c r="C372" t="n">
-        <v>857214028.6028508</v>
+        <v>1589320742.955748</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>857.5811945186056</v>
+        <v>1590.189201541744</v>
       </c>
       <c r="C373" t="n">
-        <v>857581194.5186056</v>
+        <v>1590189201.541744</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>857.9468594241719</v>
+        <v>1591.054212290858</v>
       </c>
       <c r="C374" t="n">
-        <v>857946859.4241718</v>
+        <v>1591054212.290858</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>858.3110361741134</v>
+        <v>1591.915804323478</v>
       </c>
       <c r="C375" t="n">
-        <v>858311036.1741134</v>
+        <v>1591915804.323478</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>858.6737374558871</v>
+        <v>1592.774006384871</v>
       </c>
       <c r="C376" t="n">
-        <v>858673737.4558871</v>
+        <v>1592774006.384871</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>859.0349757927513</v>
+        <v>1593.628846851657</v>
       </c>
       <c r="C377" t="n">
-        <v>859034975.7927513</v>
+        <v>1593628846.851657</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>859.3947635466089</v>
+        <v>1594.480353738155</v>
       </c>
       <c r="C378" t="n">
-        <v>859394763.5466089</v>
+        <v>1594480353.738155</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>859.7531129207896</v>
+        <v>1595.328554702585</v>
       </c>
       <c r="C379" t="n">
-        <v>859753112.9207896</v>
+        <v>1595328554.702585</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>860.1100359627719</v>
+        <v>1596.173477053142</v>
       </c>
       <c r="C380" t="n">
-        <v>860110035.9627719</v>
+        <v>1596173477.053142</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>860.4655445668468</v>
+        <v>1597.015147753935</v>
       </c>
       <c r="C381" t="n">
-        <v>860465544.5668468</v>
+        <v>1597015147.753935</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>860.8196504767254</v>
+        <v>1597.853593430806</v>
       </c>
       <c r="C382" t="n">
-        <v>860819650.4767255</v>
+        <v>1597853593.430806</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>861.1723652880891</v>
+        <v>1598.68884037702</v>
       </c>
       <c r="C383" t="n">
-        <v>861172365.288089</v>
+        <v>1598688840.37702</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>861.5237004510875</v>
+        <v>1599.520914558839</v>
       </c>
       <c r="C384" t="n">
-        <v>861523700.4510875</v>
+        <v>1599520914.558839</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>861.873667272783</v>
+        <v>1600.349841620978</v>
       </c>
       <c r="C385" t="n">
-        <v>861873667.272783</v>
+        <v>1600349841.620978</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>862.2222769195436</v>
+        <v>1601.175646891944</v>
       </c>
       <c r="C386" t="n">
-        <v>862222276.9195435</v>
+        <v>1601175646.891944</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>862.5695404193866</v>
+        <v>1601.998355389271</v>
       </c>
       <c r="C387" t="n">
-        <v>862569540.4193866</v>
+        <v>1601998355.389271</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>862.9154686642725</v>
+        <v>1602.817991824636</v>
       </c>
       <c r="C388" t="n">
-        <v>862915468.6642724</v>
+        <v>1602817991.824636</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>863.2600724123515</v>
+        <v>1603.634580608884</v>
       </c>
       <c r="C389" t="n">
-        <v>863260072.4123515</v>
+        <v>1603634580.608884</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>863.6033622901655</v>
+        <v>1604.448145856933</v>
       </c>
       <c r="C390" t="n">
-        <v>863603362.2901654</v>
+        <v>1604448145.856933</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>863.9453487948006</v>
+        <v>1605.25871139259</v>
       </c>
       <c r="C391" t="n">
-        <v>863945348.7948005</v>
+        <v>1605258711.39259</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>864.2860422960003</v>
+        <v>1606.066300753271</v>
       </c>
       <c r="C392" t="n">
-        <v>864286042.2960004</v>
+        <v>1606066300.753271</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>864.6254530382321</v>
+        <v>1606.87093719461</v>
       </c>
       <c r="C393" t="n">
-        <v>864625453.0382321</v>
+        <v>1606870937.19461</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>864.963591142714</v>
+        <v>1607.672643694995</v>
       </c>
       <c r="C394" t="n">
-        <v>864963591.142714</v>
+        <v>1607672643.694995</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>865.3004666093996</v>
+        <v>1608.471442959996</v>
       </c>
       <c r="C395" t="n">
-        <v>865300466.6093996</v>
+        <v>1608471442.959996</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>865.6360893189217</v>
+        <v>1609.267357426715</v>
       </c>
       <c r="C396" t="n">
-        <v>865636089.3189217</v>
+        <v>1609267357.426715</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>865.9704690345001</v>
+        <v>1610.060409268043</v>
       </c>
       <c r="C397" t="n">
-        <v>865970469.0345001</v>
+        <v>1610060409.268043</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>866.3036154038082</v>
+        <v>1610.850620396836</v>
       </c>
       <c r="C398" t="n">
-        <v>866303615.4038082</v>
+        <v>1610850620.396836</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>866.6355379608038</v>
+        <v>1611.638012470006</v>
       </c>
       <c r="C399" t="n">
-        <v>866635537.9608039</v>
+        <v>1611638012.470006</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>866.9662461275238</v>
+        <v>1612.422606892532</v>
       </c>
       <c r="C400" t="n">
-        <v>866966246.1275239</v>
+        <v>1612422606.892532</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>867.2957492158431</v>
+        <v>1613.204424821397</v>
       </c>
       <c r="C401" t="n">
-        <v>867295749.2158431</v>
+        <v>1613204424.821397</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>867.6240564291987</v>
+        <v>1613.983487169434</v>
       </c>
       <c r="C402" t="n">
-        <v>867624056.4291987</v>
+        <v>1613983487.169434</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>867.9511768642802</v>
+        <v>1614.75981460912</v>
       </c>
       <c r="C403" t="n">
-        <v>867951176.8642802</v>
+        <v>1614759814.609119</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>868.2771195126883</v>
+        <v>1615.533427576269</v>
       </c>
       <c r="C404" t="n">
-        <v>868277119.5126883</v>
+        <v>1615533427.576269</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>868.601893262559</v>
+        <v>1616.30434627368</v>
       </c>
       <c r="C405" t="n">
-        <v>868601893.2625589</v>
+        <v>1616304346.27368</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>868.9255069001587</v>
+        <v>1617.072590674695</v>
       </c>
       <c r="C406" t="n">
-        <v>868925506.9001586</v>
+        <v>1617072590.674695</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>869.2479691114463</v>
+        <v>1617.838180526697</v>
       </c>
       <c r="C407" t="n">
-        <v>869247969.1114463</v>
+        <v>1617838180.526697</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>869.5692884836075</v>
+        <v>1618.601135354546</v>
       </c>
       <c r="C408" t="n">
-        <v>869569288.4836074</v>
+        <v>1618601135.354546</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>869.8894735065584</v>
+        <v>1619.361474463936</v>
       </c>
       <c r="C409" t="n">
-        <v>869889473.5065584</v>
+        <v>1619361474.463936</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>870.2085325744201</v>
+        <v>1620.119216944705</v>
       </c>
       <c r="C410" t="n">
-        <v>870208532.5744201</v>
+        <v>1620119216.944705</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>870.5264739869669</v>
+        <v>1620.874381674066</v>
       </c>
       <c r="C411" t="n">
-        <v>870526473.986967</v>
+        <v>1620874381.674066</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>870.8433059510461</v>
+        <v>1621.626987319792</v>
       </c>
       <c r="C412" t="n">
-        <v>870843305.9510461</v>
+        <v>1621626987.319792</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>871.1590365819698</v>
+        <v>1622.377052343331</v>
       </c>
       <c r="C413" t="n">
-        <v>871159036.5819697</v>
+        <v>1622377052.343331</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>871.4736739048841</v>
+        <v>1623.124595002869</v>
       </c>
       <c r="C414" t="n">
-        <v>871473673.9048841</v>
+        <v>1623124595.002869</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>871.7872258561091</v>
+        <v>1623.86963335633</v>
       </c>
       <c r="C415" t="n">
-        <v>871787225.8561091</v>
+        <v>1623869633.35633</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>872.0997002844556</v>
+        <v>1624.612185264327</v>
       </c>
       <c r="C416" t="n">
-        <v>872099700.2844555</v>
+        <v>1624612185.264327</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>872.411104952518</v>
+        <v>1625.352268393058</v>
       </c>
       <c r="C417" t="n">
-        <v>872411104.952518</v>
+        <v>1625352268.393058</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>872.7214475379413</v>
+        <v>1626.08990021714</v>
       </c>
       <c r="C418" t="n">
-        <v>872721447.5379413</v>
+        <v>1626089900.217139</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>873.0307356346669</v>
+        <v>1626.825098022401</v>
       </c>
       <c r="C419" t="n">
-        <v>873030735.6346669</v>
+        <v>1626825098.022401</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>873.3389767541548</v>
+        <v>1627.557878908622</v>
       </c>
       <c r="C420" t="n">
-        <v>873338976.7541548</v>
+        <v>1627557878.908622</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>873.6461783265822</v>
+        <v>1628.288259792216</v>
       </c>
       <c r="C421" t="n">
-        <v>873646178.3265822</v>
+        <v>1628288259.792216</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>873.9523477020226</v>
+        <v>1629.016257408873</v>
       </c>
       <c r="C422" t="n">
-        <v>873952347.7020227</v>
+        <v>1629016257.408873</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>874.2574921516015</v>
+        <v>1629.741888316153</v>
       </c>
       <c r="C423" t="n">
-        <v>874257492.1516014</v>
+        <v>1629741888.316153</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>874.5616188686326</v>
+        <v>1630.465168896026</v>
       </c>
       <c r="C424" t="n">
-        <v>874561618.8686327</v>
+        <v>1630465168.896026</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>874.8647349697331</v>
+        <v>1631.186115357376</v>
       </c>
       <c r="C425" t="n">
-        <v>874864734.9697331</v>
+        <v>1631186115.357376</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>875.1668474959176</v>
+        <v>1631.904743738451</v>
       </c>
       <c r="C426" t="n">
-        <v>875166847.4959177</v>
+        <v>1631904743.738451</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>875.4679634136758</v>
+        <v>1632.621069909281</v>
       </c>
       <c r="C427" t="n">
-        <v>875467963.4136758</v>
+        <v>1632621069.909281</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>875.7680896160269</v>
+        <v>1633.335109574041</v>
       </c>
       <c r="C428" t="n">
-        <v>875768089.616027</v>
+        <v>1633335109.574041</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>876.0672329235589</v>
+        <v>1634.04687827338</v>
       </c>
       <c r="C429" t="n">
-        <v>876067232.9235588</v>
+        <v>1634046878.27338</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>876.3654000854472</v>
+        <v>1634.756391386705</v>
       </c>
       <c r="C430" t="n">
-        <v>876365400.0854472</v>
+        <v>1634756391.386705</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>876.6625977804557</v>
+        <v>1635.463664134432</v>
       </c>
       <c r="C431" t="n">
-        <v>876662597.7804557</v>
+        <v>1635463664.134432</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>876.9588326179219</v>
+        <v>1636.168711580185</v>
       </c>
       <c r="C432" t="n">
-        <v>876958832.6179218</v>
+        <v>1636168711.580185</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>877.2541111387222</v>
+        <v>1636.871548632971</v>
       </c>
       <c r="C433" t="n">
-        <v>877254111.1387222</v>
+        <v>1636871548.632971</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>877.5484398162225</v>
+        <v>1637.572190049307</v>
       </c>
       <c r="C434" t="n">
-        <v>877548439.8162225</v>
+        <v>1637572190.049307</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>877.8418250572109</v>
+        <v>1638.270650435313</v>
       </c>
       <c r="C435" t="n">
-        <v>877841825.0572109</v>
+        <v>1638270650.435313</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>878.1342732028161</v>
+        <v>1638.966944248776</v>
       </c>
       <c r="C436" t="n">
-        <v>878134273.2028161</v>
+        <v>1638966944.248776</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>878.4257905294069</v>
+        <v>1639.661085801163</v>
       </c>
       <c r="C437" t="n">
-        <v>878425790.5294069</v>
+        <v>1639661085.801163</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>878.7163832494793</v>
+        <v>1640.353089259618</v>
       </c>
       <c r="C438" t="n">
-        <v>878716383.2494793</v>
+        <v>1640353089.259618</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>879.0060575125275</v>
+        <v>1641.042968648911</v>
       </c>
       <c r="C439" t="n">
-        <v>879006057.5125275</v>
+        <v>1641042968.648911</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>879.2948194058981</v>
+        <v>1641.730737853358</v>
       </c>
       <c r="C440" t="n">
-        <v>879294819.4058981</v>
+        <v>1641730737.853358</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>879.5826749556334</v>
+        <v>1642.416410618715</v>
       </c>
       <c r="C441" t="n">
-        <v>879582674.9556334</v>
+        <v>1642416410.618715</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>879.8696301272969</v>
+        <v>1643.10000055403</v>
       </c>
       <c r="C442" t="n">
-        <v>879869630.1272969</v>
+        <v>1643100000.55403</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>880.155690826787</v>
+        <v>1643.781521133469</v>
       </c>
       <c r="C443" t="n">
-        <v>880155690.826787</v>
+        <v>1643781521.133469</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>880.4408629011366</v>
+        <v>1644.460985698112</v>
       </c>
       <c r="C444" t="n">
-        <v>880440862.9011366</v>
+        <v>1644460985.698112</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>880.7251521392984</v>
+        <v>1645.138407457719</v>
       </c>
       <c r="C445" t="n">
-        <v>880725152.1392984</v>
+        <v>1645138407.457719</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>881.0085642729182</v>
+        <v>1645.813799492462</v>
       </c>
       <c r="C446" t="n">
-        <v>881008564.2729182</v>
+        <v>1645813799.492462</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>881.2911049770946</v>
+        <v>1646.487174754636</v>
       </c>
       <c r="C447" t="n">
-        <v>881291104.9770947</v>
+        <v>1646487174.754636</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>881.572779871127</v>
+        <v>1647.158546070336</v>
       </c>
       <c r="C448" t="n">
-        <v>881572779.871127</v>
+        <v>1647158546.070336</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>881.8535945192499</v>
+        <v>1647.827926141105</v>
       </c>
       <c r="C449" t="n">
-        <v>881853594.5192499</v>
+        <v>1647827926.141105</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>882.1335544313554</v>
+        <v>1648.495327545565</v>
       </c>
       <c r="C450" t="n">
-        <v>882133554.4313554</v>
+        <v>1648495327.545565</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>882.4126650637055</v>
+        <v>1649.160762741007</v>
       </c>
       <c r="C451" t="n">
-        <v>882412665.0637054</v>
+        <v>1649160762.741007</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>882.6909318196304</v>
+        <v>1649.824244064969</v>
       </c>
       <c r="C452" t="n">
-        <v>882690931.8196304</v>
+        <v>1649824244.064969</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>882.9683600502166</v>
+        <v>1650.485783736774</v>
       </c>
       <c r="C453" t="n">
-        <v>882968360.0502166</v>
+        <v>1650485783.736774</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>883.2449550549836</v>
+        <v>1651.14539385906</v>
       </c>
       <c r="C454" t="n">
-        <v>883244955.0549836</v>
+        <v>1651145393.85906</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>883.5207220825504</v>
+        <v>1651.803086419271</v>
       </c>
       <c r="C455" t="n">
-        <v>883520722.0825504</v>
+        <v>1651803086.419271</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>883.7956663312892</v>
+        <v>1652.458873291128</v>
       </c>
       <c r="C456" t="n">
-        <v>883795666.3312892</v>
+        <v>1652458873.291128</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>884.0697929499711</v>
+        <v>1653.112766236083</v>
       </c>
       <c r="C457" t="n">
-        <v>884069792.9499711</v>
+        <v>1653112766.236083</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>884.3431070383994</v>
+        <v>1653.764776904739</v>
       </c>
       <c r="C458" t="n">
-        <v>884343107.0383993</v>
+        <v>1653764776.904739</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>884.6156136480332</v>
+        <v>1654.414916838256</v>
       </c>
       <c r="C459" t="n">
-        <v>884615613.6480333</v>
+        <v>1654414916.838256</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>884.8873177826032</v>
+        <v>1655.063197469734</v>
       </c>
       <c r="C460" t="n">
-        <v>884887317.7826031</v>
+        <v>1655063197.469734</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>885.1582243987136</v>
+        <v>1655.709630125564</v>
       </c>
       <c r="C461" t="n">
-        <v>885158224.3987136</v>
+        <v>1655709630.125564</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>885.4283384064386</v>
+        <v>1656.354226026774</v>
       </c>
       <c r="C462" t="n">
-        <v>885428338.4064386</v>
+        <v>1656354226.026774</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>885.6976646699061</v>
+        <v>1656.996996290339</v>
       </c>
       <c r="C463" t="n">
-        <v>885697664.6699061</v>
+        <v>1656996996.290339</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>885.9662080078757</v>
+        <v>1657.637951930483</v>
       </c>
       <c r="C464" t="n">
-        <v>885966208.0078757</v>
+        <v>1657637951.930483</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>886.2339731943036</v>
+        <v>1658.277103859946</v>
       </c>
       <c r="C465" t="n">
-        <v>886233973.1943036</v>
+        <v>1658277103.859946</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>886.5009649589022</v>
+        <v>1658.914462891248</v>
       </c>
       <c r="C466" t="n">
-        <v>886500964.9589021</v>
+        <v>1658914462.891248</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>886.7671879876885</v>
+        <v>1659.55003973792</v>
       </c>
       <c r="C467" t="n">
-        <v>886767187.9876885</v>
+        <v>1659550039.73792</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>887.0326469235264</v>
+        <v>1660.183845015725</v>
       </c>
       <c r="C468" t="n">
-        <v>887032646.9235264</v>
+        <v>1660183845.015725</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>887.2973463666573</v>
+        <v>1660.81588924385</v>
       </c>
       <c r="C469" t="n">
-        <v>887297346.3666573</v>
+        <v>1660815889.24385</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>887.561290875226</v>
+        <v>1661.446182846095</v>
       </c>
       <c r="C470" t="n">
-        <v>887561290.8752259</v>
+        <v>1661446182.846095</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>887.8244849657958</v>
+        <v>1662.074736152025</v>
       </c>
       <c r="C471" t="n">
-        <v>887824484.9657959</v>
+        <v>1662074736.152025</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>888.0869331138582</v>
+        <v>1662.701559398121</v>
       </c>
       <c r="C472" t="n">
-        <v>888086933.1138582</v>
+        <v>1662701559.398121</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>888.3486397543312</v>
+        <v>1663.326662728905</v>
       </c>
       <c r="C473" t="n">
-        <v>888348639.7543312</v>
+        <v>1663326662.728905</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>888.6096092820541</v>
+        <v>1663.950056198049</v>
       </c>
       <c r="C474" t="n">
-        <v>888609609.2820541</v>
+        <v>1663950056.198049</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>888.8698460522718</v>
+        <v>1664.571749769467</v>
       </c>
       <c r="C475" t="n">
-        <v>888869846.0522717</v>
+        <v>1664571749.769467</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>889.1293543811137</v>
+        <v>1665.191753318391</v>
       </c>
       <c r="C476" t="n">
-        <v>889129354.3811136</v>
+        <v>1665191753.318391</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>889.388138546063</v>
+        <v>1665.810076632434</v>
       </c>
       <c r="C477" t="n">
-        <v>889388138.5460631</v>
+        <v>1665810076.632434</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>889.6462027864225</v>
+        <v>1666.426729412633</v>
       </c>
       <c r="C478" t="n">
-        <v>889646202.7864225</v>
+        <v>1666426729.412632</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>889.9035513037687</v>
+        <v>1667.041721274474</v>
       </c>
       <c r="C479" t="n">
-        <v>889903551.3037688</v>
+        <v>1667041721.274474</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>890.1601882624043</v>
+        <v>1667.655061748911</v>
       </c>
       <c r="C480" t="n">
-        <v>890160188.2624043</v>
+        <v>1667655061.748911</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>890.4161177897995</v>
+        <v>1668.266760283361</v>
       </c>
       <c r="C481" t="n">
-        <v>890416117.7897995</v>
+        <v>1668266760.283361</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>890.6713439770292</v>
+        <v>1668.876826242689</v>
       </c>
       <c r="C482" t="n">
-        <v>890671343.9770292</v>
+        <v>1668876826.242689</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>890.9258708792034</v>
+        <v>1669.485268910172</v>
       </c>
       <c r="C483" t="n">
-        <v>890925870.8792034</v>
+        <v>1669485268.910172</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>891.1797025158902</v>
+        <v>1670.092097488462</v>
       </c>
       <c r="C484" t="n">
-        <v>891179702.5158902</v>
+        <v>1670092097.488461</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>891.4328428715337</v>
+        <v>1670.69732110052</v>
       </c>
       <c r="C485" t="n">
-        <v>891432842.8715338</v>
+        <v>1670697321.100519</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>891.6852958958655</v>
+        <v>1671.300948790545</v>
       </c>
       <c r="C486" t="n">
-        <v>891685295.8958654</v>
+        <v>1671300948.790545</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>891.9370655043092</v>
+        <v>1671.90298952489</v>
       </c>
       <c r="C487" t="n">
-        <v>891937065.5043092</v>
+        <v>1671902989.52489</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>892.1881555783812</v>
+        <v>1672.503452192957</v>
       </c>
       <c r="C488" t="n">
-        <v>892188155.5783812</v>
+        <v>1672503452.192957</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>892.4385699660824</v>
+        <v>1673.102345608088</v>
       </c>
       <c r="C489" t="n">
-        <v>892438569.9660823</v>
+        <v>1673102345.608088</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>892.6883124822874</v>
+        <v>1673.699678508437</v>
       </c>
       <c r="C490" t="n">
-        <v>892688312.4822874</v>
+        <v>1673699678.508437</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>892.9373869091265</v>
+        <v>1674.295459557834</v>
       </c>
       <c r="C491" t="n">
-        <v>892937386.9091265</v>
+        <v>1674295459.557834</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>893.1857969963618</v>
+        <v>1674.889697346632</v>
       </c>
       <c r="C492" t="n">
-        <v>893185796.9963617</v>
+        <v>1674889697.346632</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>893.680638991452</v>
+        <v>1676.073577141473</v>
       </c>
       <c r="C493" t="n">
-        <v>893680638.9914521</v>
+        <v>1676073577.141473</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>894.1728678322738</v>
+        <v>1677.251385177773</v>
       </c>
       <c r="C494" t="n">
-        <v>894172867.8322738</v>
+        <v>1677251385.177773</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>894.66251238887</v>
+        <v>1678.423187617073</v>
       </c>
       <c r="C495" t="n">
-        <v>894662512.38887</v>
+        <v>1678423187.617073</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>895.1496010477484</v>
+        <v>1679.589049522762</v>
       </c>
       <c r="C496" t="n">
-        <v>895149601.0477484</v>
+        <v>1679589049.522763</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>895.6341617227042</v>
+        <v>1680.749034884494</v>
       </c>
       <c r="C497" t="n">
-        <v>895634161.7227042</v>
+        <v>1680749034.884494</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>896.1162218653419</v>
+        <v>1681.903206641921</v>
       </c>
       <c r="C498" t="n">
-        <v>896116221.8653419</v>
+        <v>1681903206.641921</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>896.5958084753031</v>
+        <v>1683.051626707782</v>
       </c>
       <c r="C499" t="n">
-        <v>896595808.4753031</v>
+        <v>1683051626.707782</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>897.0729481102127</v>
+        <v>1684.194355990342</v>
       </c>
       <c r="C500" t="n">
-        <v>897072948.1102127</v>
+        <v>1684194355.990342</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>897.5476668953512</v>
+        <v>1685.331454415229</v>
       </c>
       <c r="C501" t="n">
-        <v>897547666.8953512</v>
+        <v>1685331454.41523</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>898.0199905330624</v>
+        <v>1686.462980946676</v>
       </c>
       <c r="C502" t="n">
-        <v>898019990.5330623</v>
+        <v>1686462980.946676</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>898.4899443119062</v>
+        <v>1687.588993608181</v>
       </c>
       <c r="C503" t="n">
-        <v>898489944.3119062</v>
+        <v>1687588993.608181</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>898.9575531155637</v>
+        <v>1688.709549502619</v>
       </c>
       <c r="C504" t="n">
-        <v>898957553.1155636</v>
+        <v>1688709549.502619</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>899.4228414315014</v>
+        <v>1689.824704831812</v>
       </c>
       <c r="C505" t="n">
-        <v>899422841.4315014</v>
+        <v>1689824704.831812</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>899.885833359407</v>
+        <v>1690.934514915586</v>
       </c>
       <c r="C506" t="n">
-        <v>899885833.3594069</v>
+        <v>1690934514.915586</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>900.3465526193977</v>
+        <v>1692.039034210314</v>
       </c>
       <c r="C507" t="n">
-        <v>900346552.6193976</v>
+        <v>1692039034.210314</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>900.8050225600124</v>
+        <v>1693.138316326974</v>
       </c>
       <c r="C508" t="n">
-        <v>900805022.5600123</v>
+        <v>1693138316.326974</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>901.2612661659954</v>
+        <v>1694.23241404874</v>
       </c>
       <c r="C509" t="n">
-        <v>901261266.1659954</v>
+        <v>1694232414.04874</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>901.7153060658731</v>
+        <v>1695.32137934811</v>
       </c>
       <c r="C510" t="n">
-        <v>901715306.065873</v>
+        <v>1695321379.34811</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>902.1671645393367</v>
+        <v>1696.405263403592</v>
       </c>
       <c r="C511" t="n">
-        <v>902167164.5393367</v>
+        <v>1696405263.403592</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>902.6168635244321</v>
+        <v>1697.484116615959</v>
       </c>
       <c r="C512" t="n">
-        <v>902616863.5244321</v>
+        <v>1697484116.615959</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>903.0644246245645</v>
+        <v>1698.55798862409</v>
       </c>
       <c r="C513" t="n">
-        <v>903064424.6245645</v>
+        <v>1698557988.62409</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>903.5098691153242</v>
+        <v>1699.626928320405</v>
       </c>
       <c r="C514" t="n">
-        <v>903509869.1153243</v>
+        <v>1699626928.320405</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>903.9532179511389</v>
+        <v>1700.690983865912</v>
       </c>
       <c r="C515" t="n">
-        <v>903953217.9511389</v>
+        <v>1700690983.865912</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>904.3944917717552</v>
+        <v>1701.75020270487</v>
       </c>
       <c r="C516" t="n">
-        <v>904394491.7717551</v>
+        <v>1701750202.70487</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>904.8337109085597</v>
+        <v>1702.804631579087</v>
       </c>
       <c r="C517" t="n">
-        <v>904833710.9085597</v>
+        <v>1702804631.579087</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>905.270895390739</v>
+        <v>1703.854316541864</v>
       </c>
       <c r="C518" t="n">
-        <v>905270895.3907391</v>
+        <v>1703854316.541864</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>905.7060649512862</v>
+        <v>1704.899302971581</v>
       </c>
       <c r="C519" t="n">
-        <v>905706064.9512862</v>
+        <v>1704899302.971581</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>906.1392390328599</v>
+        <v>1705.939635584966</v>
       </c>
       <c r="C520" t="n">
-        <v>906139239.0328599</v>
+        <v>1705939635.584966</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>906.5704367934968</v>
+        <v>1706.975358450019</v>
       </c>
       <c r="C521" t="n">
-        <v>906570436.7934968</v>
+        <v>1706975358.45002</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>906.9996771121837</v>
+        <v>1708.006514998635</v>
       </c>
       <c r="C522" t="n">
-        <v>906999677.1121837</v>
+        <v>1708006514.998635</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>907.8523595768933</v>
+        <v>1710.055299767134</v>
       </c>
       <c r="C523" t="n">
-        <v>907852359.5768932</v>
+        <v>1710055299.767134</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>908.6974320811922</v>
+        <v>1712.086325083801</v>
       </c>
       <c r="C524" t="n">
-        <v>908697432.0811923</v>
+        <v>1712086325.083801</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>909.5350361489782</v>
+        <v>1714.099916721769</v>
       </c>
       <c r="C525" t="n">
-        <v>909535036.1489782</v>
+        <v>1714099916.721769</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>910.3653093297544</v>
+        <v>1716.096391387206</v>
       </c>
       <c r="C526" t="n">
-        <v>910365309.3297544</v>
+        <v>1716096391.387206</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>911.1883853472217</v>
+        <v>1718.076057056057</v>
       </c>
       <c r="C527" t="n">
-        <v>911188385.3472217</v>
+        <v>1718076057.056057</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>912.004394240957</v>
+        <v>1720.0392132952</v>
       </c>
       <c r="C528" t="n">
-        <v>912004394.240957</v>
+        <v>1720039213.2952</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>912.8134625015643</v>
+        <v>1721.986151568883</v>
       </c>
       <c r="C529" t="n">
-        <v>912813462.5015644</v>
+        <v>1721986151.568883</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>913.6157131996561</v>
+        <v>1723.917155531251</v>
       </c>
       <c r="C530" t="n">
-        <v>913615713.199656</v>
+        <v>1723917155.531251</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>914.4112661090004</v>
+        <v>1725.832501305705</v>
       </c>
       <c r="C531" t="n">
-        <v>914411266.1090004</v>
+        <v>1725832501.305705</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>915.2002378241511</v>
+        <v>1727.732457751811</v>
       </c>
       <c r="C532" t="n">
-        <v>915200237.8241512</v>
+        <v>1727732457.751811</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>915.9827418728514</v>
+        <v>1729.61728672042</v>
       </c>
       <c r="C533" t="n">
-        <v>915982741.8728514</v>
+        <v>1729617286.72042</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>916.758888823493</v>
+        <v>1731.487243297614</v>
       </c>
       <c r="C534" t="n">
-        <v>916758888.823493</v>
+        <v>1731487243.297614</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>917.5287863878859</v>
+        <v>1733.342576038078</v>
       </c>
       <c r="C535" t="n">
-        <v>917528786.3878859</v>
+        <v>1733342576.038078</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>918.2925395195863</v>
+        <v>1735.183527188416</v>
       </c>
       <c r="C536" t="n">
-        <v>918292539.5195863</v>
+        <v>1735183527.188416</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>919.0502505080098</v>
+        <v>1737.010332900971</v>
       </c>
       <c r="C537" t="n">
-        <v>919050250.5080098</v>
+        <v>1737010332.900971</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>919.8020190685459</v>
+        <v>1738.823223438587</v>
       </c>
       <c r="C538" t="n">
-        <v>919802019.0685458</v>
+        <v>1738823223.438587</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>920.5479424288781</v>
+        <v>1740.622423370806</v>
       </c>
       <c r="C539" t="n">
-        <v>920547942.4288781</v>
+        <v>1740622423.370806</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>921.2881154116966</v>
+        <v>1742.408151761906</v>
       </c>
       <c r="C540" t="n">
-        <v>921288115.4116966</v>
+        <v>1742408151.761906</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>922.0226305139886</v>
+        <v>1744.180622351201</v>
       </c>
       <c r="C541" t="n">
-        <v>922022630.5139886</v>
+        <v>1744180622.351201</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>922.7515779830702</v>
+        <v>1745.940043725968</v>
       </c>
       <c r="C542" t="n">
-        <v>922751577.9830703</v>
+        <v>1745940043.725968</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>923.4750458895242</v>
+        <v>1747.686619487373</v>
       </c>
       <c r="C543" t="n">
-        <v>923475045.8895241</v>
+        <v>1747686619.487373</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>924.19312019719</v>
+        <v>1749.420548409735</v>
       </c>
       <c r="C544" t="n">
-        <v>924193120.1971899</v>
+        <v>1749420548.409735</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>924.9058848303522</v>
+        <v>1751.142024593438</v>
       </c>
       <c r="C545" t="n">
-        <v>924905884.8303522</v>
+        <v>1751142024.593438</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>925.613421738258</v>
+        <v>1752.8512376118</v>
       </c>
       <c r="C546" t="n">
-        <v>925613421.738258</v>
+        <v>1752851237.6118</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>926.3158109570916</v>
+        <v>1754.548372652186</v>
       </c>
       <c r="C547" t="n">
-        <v>926315810.9570916</v>
+        <v>1754548372.652186</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>927.0131306695263</v>
+        <v>1756.233610651635</v>
       </c>
       <c r="C548" t="n">
-        <v>927013130.6695262</v>
+        <v>1756233610.651635</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>927.7054572619664</v>
+        <v>1757.907128427248</v>
       </c>
       <c r="C549" t="n">
-        <v>927705457.2619665</v>
+        <v>1757907128.427248</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>928.3928653795861</v>
+        <v>1759.569098801587</v>
       </c>
       <c r="C550" t="n">
-        <v>928392865.3795861</v>
+        <v>1759569098.801587</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>929.0754279792651</v>
+        <v>1761.219690723311</v>
       </c>
       <c r="C551" t="n">
-        <v>929075427.9792651</v>
+        <v>1761219690.723311</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>929.7532163805214</v>
+        <v>1762.859069383267</v>
       </c>
       <c r="C552" t="n">
-        <v>929753216.3805214</v>
+        <v>1762859069.383267</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>930.4263003145263</v>
+        <v>1764.487396326233</v>
       </c>
       <c r="C553" t="n">
-        <v>930426300.3145263</v>
+        <v>1764487396.326233</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>931.0947479712914</v>
+        <v>1766.104829558523</v>
       </c>
       <c r="C554" t="n">
-        <v>931094747.9712914</v>
+        <v>1766104829.558523</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>931.7586260451086</v>
+        <v>1767.711523651614</v>
       </c>
       <c r="C555" t="n">
-        <v>931758626.0451086</v>
+        <v>1767711523.651614</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>932.4179997783185</v>
+        <v>1769.307629842</v>
       </c>
       <c r="C556" t="n">
-        <v>932417999.7783185</v>
+        <v>1769307629.842</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>933.072933003484</v>
+        <v>1770.89329612741</v>
       </c>
       <c r="C557" t="n">
-        <v>933072933.003484</v>
+        <v>1770893296.12741</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>933.7234881840349</v>
+        <v>1772.468667359567</v>
       </c>
       <c r="C558" t="n">
-        <v>933723488.1840348</v>
+        <v>1772468667.359567</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>934.3697264534519</v>
+        <v>1774.033885333625</v>
       </c>
       <c r="C559" t="n">
-        <v>934369726.4534519</v>
+        <v>1774033885.333625</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>935.0117076530532</v>
+        <v>1775.589088874439</v>
       </c>
       <c r="C560" t="n">
-        <v>935011707.6530533</v>
+        <v>1775589088.874439</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>935.6494903684412</v>
+        <v>1777.134413919784</v>
       </c>
       <c r="C561" t="n">
-        <v>935649490.3684412</v>
+        <v>1777134413.919784</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>936.2831319646669</v>
+        <v>1778.669993600673</v>
       </c>
       <c r="C562" t="n">
-        <v>936283131.964667</v>
+        <v>1778669993.600673</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>936.9126886201688</v>
+        <v>1780.195958318875</v>
       </c>
       <c r="C563" t="n">
-        <v>936912688.6201688</v>
+        <v>1780195958.318876</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>937.5382153595307</v>
+        <v>1781.712435821769</v>
       </c>
       <c r="C564" t="n">
-        <v>937538215.3595307</v>
+        <v>1781712435.821769</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>938.1597660851158</v>
+        <v>1783.219551274623</v>
       </c>
       <c r="C565" t="n">
-        <v>938159766.0851158</v>
+        <v>1783219551.274623</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>938.7773936076164</v>
+        <v>1784.717427330427</v>
       </c>
       <c r="C566" t="n">
-        <v>938777393.6076164</v>
+        <v>1784717427.330426</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>939.3911496755667</v>
+        <v>1786.206184197354</v>
       </c>
       <c r="C567" t="n">
-        <v>939391149.6755667</v>
+        <v>1786206184.197354</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>940.0010850038612</v>
+        <v>1787.685939703973</v>
       </c>
       <c r="C568" t="n">
-        <v>940001085.0038613</v>
+        <v>1787685939.703973</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>940.6072493013169</v>
+        <v>1789.156809362272</v>
       </c>
       <c r="C569" t="n">
-        <v>940607249.3013169</v>
+        <v>1789156809.362272</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>941.2096912973193</v>
+        <v>1790.618906428609</v>
       </c>
       <c r="C570" t="n">
-        <v>941209691.2973193</v>
+        <v>1790618906.428609</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>941.8084587675875</v>
+        <v>1792.072341962659</v>
       </c>
       <c r="C571" t="n">
-        <v>941808458.7675874</v>
+        <v>1792072341.962659</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>942.4035985590939</v>
+        <v>1793.517224884424</v>
       </c>
       <c r="C572" t="n">
-        <v>942403598.559094</v>
+        <v>1793517224.884424</v>
       </c>
     </row>
   </sheetData>
